--- a/docs/my-data-sources.xlsx
+++ b/docs/my-data-sources.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/marcus/workspaces/map-projects/docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F5B9EC6-1BF0-3A4B-970E-049357007A41}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69F8E86E-9C66-BB4B-B631-1501E7180BA6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="16600" xr2:uid="{3BF390CE-C12E-484B-96AF-096A292A0E54}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="37">
   <si>
     <t>ZBGIS</t>
   </si>
@@ -118,6 +118,33 @@
   </si>
   <si>
     <t>Príloha 1.9 - Chránené územia</t>
+  </si>
+  <si>
+    <t>Budovy</t>
+  </si>
+  <si>
+    <t>https://zbgisws.skgeodesy.sk/inspire_buildings_wfs/service.svc/get</t>
+  </si>
+  <si>
+    <t>ZBGIS, INSPIRE</t>
+  </si>
+  <si>
+    <t>https://kataster.skgeodesy.sk/eskn/services/NR/kn_wms_orto/MapServer/WmsServer</t>
+  </si>
+  <si>
+    <t>KATASTER</t>
+  </si>
+  <si>
+    <t>note</t>
+  </si>
+  <si>
+    <t>Chybaju buduvy na lazisku aj take co su v INSPITE hore</t>
+  </si>
+  <si>
+    <t>viac ako v KATASTER, ale stale nie vsetko,v Qgis iba z WMS2 pluginom</t>
+  </si>
+  <si>
+    <t>https://zbgisws.skgeodesy.sk/inspire_buildings_wms/service.svc/get?version=1.3.0</t>
   </si>
 </sst>
 </file>
@@ -509,22 +536,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D145023A-E6CB-0D44-A70A-F13ED2507778}">
-  <dimension ref="A1:E15"/>
+  <dimension ref="A1:F20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="29.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="82" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="43.6640625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="69.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>7</v>
       </c>
@@ -537,8 +565,11 @@
       <c r="E1" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F1" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>8</v>
       </c>
@@ -549,7 +580,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>8</v>
       </c>
@@ -560,7 +591,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>9</v>
       </c>
@@ -574,7 +605,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>9</v>
       </c>
@@ -588,7 +619,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>25</v>
       </c>
@@ -605,10 +636,10 @@
         <v>26</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C8" s="1"/>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>15</v>
       </c>
@@ -622,7 +653,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
         <v>15</v>
       </c>
@@ -636,7 +667,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>15</v>
       </c>
@@ -653,7 +684,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>17</v>
       </c>
@@ -670,7 +701,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
         <v>17</v>
       </c>
@@ -687,7 +718,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>17</v>
       </c>
@@ -702,6 +733,45 @@
       </c>
       <c r="E15">
         <v>14</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>28</v>
+      </c>
+      <c r="B18" t="s">
+        <v>30</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F18" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>28</v>
+      </c>
+      <c r="B19" t="s">
+        <v>30</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>28</v>
+      </c>
+      <c r="B20" t="s">
+        <v>32</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F20" t="s">
+        <v>34</v>
       </c>
     </row>
   </sheetData>
@@ -713,6 +783,9 @@
     <hyperlink ref="C15" r:id="rId5" xr:uid="{1D3E1105-D8DF-7B4C-8EE2-9893C49D41BB}"/>
     <hyperlink ref="C14" r:id="rId6" xr:uid="{A440AA3A-84CC-A74B-A82B-BBFF3238D675}"/>
     <hyperlink ref="C7" r:id="rId7" xr:uid="{4F969F5D-E8F9-1B4D-A0DC-738A8A85EAF7}"/>
+    <hyperlink ref="C18" r:id="rId8" xr:uid="{CB258ED5-38B0-1F48-8A6E-BF703B6A4CF7}"/>
+    <hyperlink ref="C20" r:id="rId9" xr:uid="{4D494DE6-DB31-E44E-B3CE-04EEF9DC44E0}"/>
+    <hyperlink ref="C19" r:id="rId10" xr:uid="{53BE28E0-BC80-1041-9EA9-AB5B6B83EC8E}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>

--- a/docs/my-data-sources.xlsx
+++ b/docs/my-data-sources.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/marcus/workspaces/map-projects/docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69F8E86E-9C66-BB4B-B631-1501E7180BA6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED174961-3023-C247-B4CD-561370DDEFB0}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="16600" xr2:uid="{3BF390CE-C12E-484B-96AF-096A292A0E54}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="57">
   <si>
     <t>ZBGIS</t>
   </si>
@@ -145,13 +145,73 @@
   </si>
   <si>
     <t>https://zbgisws.skgeodesy.sk/inspire_buildings_wms/service.svc/get?version=1.3.0</t>
+  </si>
+  <si>
+    <t>landuse</t>
+  </si>
+  <si>
+    <t>https://sdi.eea.europa.eu/catalogue/copernicus/eng/csw?SERVICE=CSW&amp;VERSION=2.0.2&amp;REQUEST=GetCapabilities</t>
+  </si>
+  <si>
+    <t>Copernicus</t>
+  </si>
+  <si>
+    <t>ulice adresy</t>
+  </si>
+  <si>
+    <t>https://data.gov.sk/dataset/f2b3af7a-b4d4-45d7-9605-29fa5d7ad115</t>
+  </si>
+  <si>
+    <t>UPVSL</t>
+  </si>
+  <si>
+    <t>Miestopis</t>
+  </si>
+  <si>
+    <t>natural=ridge</t>
+  </si>
+  <si>
+    <t>…</t>
+  </si>
+  <si>
+    <t>download</t>
+  </si>
+  <si>
+    <t>https://www.geoportal.sk/files/zbgis/na_stiahnutie/shp/gn_shp.zip</t>
+  </si>
+  <si>
+    <t>https://zbgisws.skgeodesy.sk/zbgis_geograficke_nazvoslovie_wfs/service.svc/get</t>
+  </si>
+  <si>
+    <t>WFS</t>
+  </si>
+  <si>
+    <t>neobsahuje slovne hody, len kategorie c cislach, ako to joinem a s cim ?</t>
+  </si>
+  <si>
+    <t>Vodné toky</t>
+  </si>
+  <si>
+    <t>INSPIRE</t>
+  </si>
+  <si>
+    <t>https://www.geoportal.sk/files/inspire/inspire_hy_geo.zip</t>
+  </si>
+  <si>
+    <t>landuse:</t>
+  </si>
+  <si>
+    <t>OSM viewer</t>
+  </si>
+  <si>
+    <t>https://osmlanduse.org/#12.606666666666664/8.6944/49.4005/0/</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -171,6 +231,13 @@
       <u/>
       <sz val="12"/>
       <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -215,12 +282,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -536,256 +604,362 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D145023A-E6CB-0D44-A70A-F13ED2507778}">
-  <dimension ref="A1:F20"/>
+  <dimension ref="A1:G37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A19" sqref="A19"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="29.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="82" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="43.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="69.6640625" customWidth="1"/>
+    <col min="2" max="2" width="16" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16" customWidth="1"/>
+    <col min="4" max="4" width="100.1640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="43.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="69.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>8</v>
       </c>
       <c r="B2" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="D2" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>8</v>
       </c>
       <c r="B3" t="s">
         <v>1</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>9</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C4" s="3"/>
+      <c r="D4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E4">
+      <c r="F4">
         <v>79</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>9</v>
       </c>
       <c r="B5" t="s">
         <v>1</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>10</v>
       </c>
-      <c r="E5">
+      <c r="F5">
         <v>79</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>25</v>
       </c>
       <c r="B7" t="s">
         <v>23</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="D7" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D7" t="s">
+      <c r="E7" t="s">
         <v>27</v>
       </c>
-      <c r="E7" s="4" t="s">
+      <c r="F7" s="4" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="C8" s="1"/>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="D8" s="1"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>15</v>
       </c>
       <c r="B9" t="s">
         <v>1</v>
       </c>
-      <c r="C9" t="s">
+      <c r="D9" t="s">
         <v>16</v>
       </c>
-      <c r="E9">
+      <c r="F9">
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
         <v>15</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="C10" s="3"/>
+      <c r="D10" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E10">
+      <c r="F10">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>15</v>
       </c>
       <c r="B11" t="s">
         <v>14</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="D11" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D11" t="s">
+      <c r="E11" t="s">
         <v>22</v>
       </c>
-      <c r="E11">
+      <c r="F11">
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>17</v>
       </c>
       <c r="B13" t="s">
         <v>1</v>
       </c>
-      <c r="C13" t="s">
+      <c r="D13" t="s">
         <v>19</v>
       </c>
-      <c r="D13" s="4" t="s">
+      <c r="E13" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="E13">
+      <c r="F13">
         <v>14</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
         <v>17</v>
       </c>
       <c r="B14" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C14" s="1" t="s">
+      <c r="C14" s="3"/>
+      <c r="D14" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D14" t="s">
+      <c r="E14" t="s">
         <v>18</v>
       </c>
-      <c r="E14">
+      <c r="F14">
         <v>9</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>17</v>
       </c>
       <c r="B15" t="s">
         <v>14</v>
       </c>
-      <c r="C15" s="1" t="s">
+      <c r="D15" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D15" t="s">
+      <c r="E15" t="s">
         <v>21</v>
       </c>
-      <c r="E15">
+      <c r="F15">
         <v>14</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>28</v>
       </c>
       <c r="B18" t="s">
         <v>30</v>
       </c>
-      <c r="C18" s="1" t="s">
+      <c r="D18" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="F18" t="s">
+      <c r="G18" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>28</v>
       </c>
       <c r="B19" t="s">
         <v>30</v>
       </c>
-      <c r="C19" s="1" t="s">
+      <c r="D19" s="1" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>28</v>
       </c>
       <c r="B20" t="s">
         <v>32</v>
       </c>
-      <c r="C20" s="1" t="s">
+      <c r="D20" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="F20" t="s">
+      <c r="G20" s="5" t="s">
         <v>34</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>37</v>
+      </c>
+      <c r="B22" t="s">
+        <v>55</v>
+      </c>
+      <c r="D22" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>37</v>
+      </c>
+      <c r="B23" t="s">
+        <v>1</v>
+      </c>
+      <c r="D23" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>37</v>
+      </c>
+      <c r="B24" t="s">
+        <v>39</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>40</v>
+      </c>
+      <c r="B26" t="s">
+        <v>42</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>43</v>
+      </c>
+      <c r="B29" t="s">
+        <v>1</v>
+      </c>
+      <c r="D29" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="D30" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="D31" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B32" t="s">
+        <v>0</v>
+      </c>
+      <c r="C32" t="s">
+        <v>46</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="C33" t="s">
+        <v>49</v>
+      </c>
+      <c r="D33" t="s">
+        <v>48</v>
+      </c>
+      <c r="G33" s="5" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>51</v>
+      </c>
+      <c r="B37" t="s">
+        <v>52</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>53</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" xr:uid="{1378A383-BCFD-774C-AFDE-3C36F7E79B63}"/>
-    <hyperlink ref="C4" r:id="rId2" xr:uid="{FC5AFED1-EB90-E541-AA49-936275CC6A91}"/>
-    <hyperlink ref="C10" r:id="rId3" xr:uid="{E70F5BF2-71A7-C842-9F00-ABE2B2C5010E}"/>
-    <hyperlink ref="C11" r:id="rId4" xr:uid="{2324190B-152C-1543-969E-C2A773B2C03E}"/>
-    <hyperlink ref="C15" r:id="rId5" xr:uid="{1D3E1105-D8DF-7B4C-8EE2-9893C49D41BB}"/>
-    <hyperlink ref="C14" r:id="rId6" xr:uid="{A440AA3A-84CC-A74B-A82B-BBFF3238D675}"/>
-    <hyperlink ref="C7" r:id="rId7" xr:uid="{4F969F5D-E8F9-1B4D-A0DC-738A8A85EAF7}"/>
-    <hyperlink ref="C18" r:id="rId8" xr:uid="{CB258ED5-38B0-1F48-8A6E-BF703B6A4CF7}"/>
-    <hyperlink ref="C20" r:id="rId9" xr:uid="{4D494DE6-DB31-E44E-B3CE-04EEF9DC44E0}"/>
-    <hyperlink ref="C19" r:id="rId10" xr:uid="{53BE28E0-BC80-1041-9EA9-AB5B6B83EC8E}"/>
+    <hyperlink ref="D2" r:id="rId1" xr:uid="{1378A383-BCFD-774C-AFDE-3C36F7E79B63}"/>
+    <hyperlink ref="D4" r:id="rId2" xr:uid="{FC5AFED1-EB90-E541-AA49-936275CC6A91}"/>
+    <hyperlink ref="D10" r:id="rId3" xr:uid="{E70F5BF2-71A7-C842-9F00-ABE2B2C5010E}"/>
+    <hyperlink ref="D11" r:id="rId4" xr:uid="{2324190B-152C-1543-969E-C2A773B2C03E}"/>
+    <hyperlink ref="D15" r:id="rId5" xr:uid="{1D3E1105-D8DF-7B4C-8EE2-9893C49D41BB}"/>
+    <hyperlink ref="D14" r:id="rId6" xr:uid="{A440AA3A-84CC-A74B-A82B-BBFF3238D675}"/>
+    <hyperlink ref="D7" r:id="rId7" xr:uid="{4F969F5D-E8F9-1B4D-A0DC-738A8A85EAF7}"/>
+    <hyperlink ref="D18" r:id="rId8" xr:uid="{CB258ED5-38B0-1F48-8A6E-BF703B6A4CF7}"/>
+    <hyperlink ref="D20" r:id="rId9" xr:uid="{4D494DE6-DB31-E44E-B3CE-04EEF9DC44E0}"/>
+    <hyperlink ref="D19" r:id="rId10" xr:uid="{53BE28E0-BC80-1041-9EA9-AB5B6B83EC8E}"/>
+    <hyperlink ref="D24" r:id="rId11" xr:uid="{408A6DAC-F82F-4948-807B-3D199868A8E8}"/>
+    <hyperlink ref="D26" r:id="rId12" xr:uid="{DC132F90-70FB-C243-97B4-1C08022007DB}"/>
+    <hyperlink ref="D32" r:id="rId13" xr:uid="{5F00CEA7-69F7-8347-94E1-ED05B74211DD}"/>
+    <hyperlink ref="D37" r:id="rId14" xr:uid="{A7D7477F-0763-CF48-A9CD-37AABE8A49FC}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>

--- a/docs/my-data-sources.xlsx
+++ b/docs/my-data-sources.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/marcus/workspaces/map-projects/docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED174961-3023-C247-B4CD-561370DDEFB0}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C453057-B083-624B-9CEA-05D89A6643E7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="16600" xr2:uid="{3BF390CE-C12E-484B-96AF-096A292A0E54}"/>
   </bookViews>
@@ -204,7 +204,7 @@
     <t>OSM viewer</t>
   </si>
   <si>
-    <t>https://osmlanduse.org/#12.606666666666664/8.6944/49.4005/0/</t>
+    <t>https://osmlanduse.org/</t>
   </si>
 </sst>
 </file>
@@ -607,7 +607,7 @@
   <dimension ref="A1:G37"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -853,7 +853,7 @@
       <c r="B22" t="s">
         <v>55</v>
       </c>
-      <c r="D22" t="s">
+      <c r="D22" s="1" t="s">
         <v>56</v>
       </c>
     </row>
@@ -960,6 +960,7 @@
     <hyperlink ref="D26" r:id="rId12" xr:uid="{DC132F90-70FB-C243-97B4-1C08022007DB}"/>
     <hyperlink ref="D32" r:id="rId13" xr:uid="{5F00CEA7-69F7-8347-94E1-ED05B74211DD}"/>
     <hyperlink ref="D37" r:id="rId14" xr:uid="{A7D7477F-0763-CF48-A9CD-37AABE8A49FC}"/>
+    <hyperlink ref="D22" r:id="rId15" xr:uid="{A1F6AAD2-903C-CB4D-9DAE-8F39A874538B}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>

--- a/docs/my-data-sources.xlsx
+++ b/docs/my-data-sources.xlsx
@@ -8,12 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/marcus/workspaces/map-projects/docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C453057-B083-624B-9CEA-05D89A6643E7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{707C75A0-3498-DF41-A0F4-39A9431A9A3B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="16600" xr2:uid="{3BF390CE-C12E-484B-96AF-096A292A0E54}"/>
+    <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="16600" activeTab="1" xr2:uid="{3BF390CE-C12E-484B-96AF-096A292A0E54}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="sources" sheetId="1" r:id="rId1"/>
+    <sheet name="objects" sheetId="2" r:id="rId2"/>
+    <sheet name="data-sources-details" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -34,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="298" uniqueCount="214">
   <si>
     <t>ZBGIS</t>
   </si>
@@ -165,9 +167,6 @@
     <t>UPVSL</t>
   </si>
   <si>
-    <t>Miestopis</t>
-  </si>
-  <si>
     <t>natural=ridge</t>
   </si>
   <si>
@@ -205,6 +204,480 @@
   </si>
   <si>
     <t>https://osmlanduse.org/</t>
+  </si>
+  <si>
+    <t>Geograficke nazvy</t>
+  </si>
+  <si>
+    <t>https://www.geoportal.sk/files/zbgis/na_stiahnutie/shp/gn_shp.zip#geograficky_nazov.shp</t>
+  </si>
+  <si>
+    <t>geograficky_nazov.shp</t>
+  </si>
+  <si>
+    <t>features total</t>
+  </si>
+  <si>
+    <t>GNCO.shp</t>
+  </si>
+  <si>
+    <t>GNKU.shp</t>
+  </si>
+  <si>
+    <t>GNKraj.shp</t>
+  </si>
+  <si>
+    <t>GNO.shp</t>
+  </si>
+  <si>
+    <t>GNOkres.shp</t>
+  </si>
+  <si>
+    <t>GNSR.shp</t>
+  </si>
+  <si>
+    <t>geograficky_nazov</t>
+  </si>
+  <si>
+    <t>Source</t>
+  </si>
+  <si>
+    <t>Main source</t>
+  </si>
+  <si>
+    <t>Layer</t>
+  </si>
+  <si>
+    <t>categories</t>
+  </si>
+  <si>
+    <t>Pole</t>
+  </si>
+  <si>
+    <t>Les</t>
+  </si>
+  <si>
+    <t>Vrch</t>
+  </si>
+  <si>
+    <t>Majer, osada, samota, miestna čas</t>
+  </si>
+  <si>
+    <t>Kanál, náhon</t>
+  </si>
+  <si>
+    <t>Vinica</t>
+  </si>
+  <si>
+    <t>Dolina</t>
+  </si>
+  <si>
+    <t>Vodný tok</t>
+  </si>
+  <si>
+    <t>Rybník, rybníky</t>
+  </si>
+  <si>
+    <t>Lúka, pasienok</t>
+  </si>
+  <si>
+    <t>Cesta</t>
+  </si>
+  <si>
+    <t>Vodná nádrž</t>
+  </si>
+  <si>
+    <t>Prameň</t>
+  </si>
+  <si>
+    <t>Kaplnka</t>
+  </si>
+  <si>
+    <t>Hrebeň, chrbát</t>
+  </si>
+  <si>
+    <t>Horáreň</t>
+  </si>
+  <si>
+    <t>Jazero, jazerá, pleso, plesá</t>
+  </si>
+  <si>
+    <t>Chmeľnica</t>
+  </si>
+  <si>
+    <t>Rameno rieky</t>
+  </si>
+  <si>
+    <t>Hrad, zámok; hrádok</t>
+  </si>
+  <si>
+    <t>Sad, záhrada</t>
+  </si>
+  <si>
+    <t>Zrúcanina</t>
+  </si>
+  <si>
+    <t>Jaskyňa, priepasť</t>
+  </si>
+  <si>
+    <t>Skala, skaly</t>
+  </si>
+  <si>
+    <t>Priesmyk, sedlo</t>
+  </si>
+  <si>
+    <t>Suchá nádrž</t>
+  </si>
+  <si>
+    <t>Baňa, šachta, štôlňa</t>
+  </si>
+  <si>
+    <t>Svah</t>
+  </si>
+  <si>
+    <t>Močiar</t>
+  </si>
+  <si>
+    <t>Geomorfologický celok</t>
+  </si>
+  <si>
+    <t>Roklina, strž, žľab</t>
+  </si>
+  <si>
+    <t>Hať, hrádza, priehrada</t>
+  </si>
+  <si>
+    <t>Vodopád</t>
+  </si>
+  <si>
+    <t>Ostrov</t>
+  </si>
+  <si>
+    <t>Vodné dielo</t>
+  </si>
+  <si>
+    <t>Geomorfologická oblasť</t>
+  </si>
+  <si>
+    <t>Kotlina</t>
+  </si>
+  <si>
+    <t>Kláštor</t>
+  </si>
+  <si>
+    <t>Studňa</t>
+  </si>
+  <si>
+    <t>Chránený areál</t>
+  </si>
+  <si>
+    <t>Vodná elektráreň</t>
+  </si>
+  <si>
+    <t>Gejzír</t>
+  </si>
+  <si>
+    <t>Iný</t>
+  </si>
+  <si>
+    <t>Chránený strom</t>
+  </si>
+  <si>
+    <t>Národný park</t>
+  </si>
+  <si>
+    <t>Chránené vtáčie územie</t>
+  </si>
+  <si>
+    <t>Prírodná rezervácia</t>
+  </si>
+  <si>
+    <t>Národná prírodná rezervácia</t>
+  </si>
+  <si>
+    <t>Prírodná pamiatka</t>
+  </si>
+  <si>
+    <t>Národná prírodná pamiatka</t>
+  </si>
+  <si>
+    <t>Chránená krajinná oblasť</t>
+  </si>
+  <si>
+    <t>CAT=</t>
+  </si>
+  <si>
+    <t>NamedPlace</t>
+  </si>
+  <si>
+    <t>INSPIRE_GN.gpkg</t>
+  </si>
+  <si>
+    <t>baňa, šachta, štôlňa</t>
+  </si>
+  <si>
+    <t>cesta</t>
+  </si>
+  <si>
+    <t>chmeľnica</t>
+  </si>
+  <si>
+    <t>chránená krajinná oblasť</t>
+  </si>
+  <si>
+    <t>chránené vtáčie územie</t>
+  </si>
+  <si>
+    <t>chránený strom</t>
+  </si>
+  <si>
+    <t>dolina</t>
+  </si>
+  <si>
+    <t>gejzír</t>
+  </si>
+  <si>
+    <t>geomorfologická oblasť</t>
+  </si>
+  <si>
+    <t>geomorfologický celok</t>
+  </si>
+  <si>
+    <t>hať</t>
+  </si>
+  <si>
+    <t>horáreň</t>
+  </si>
+  <si>
+    <t>hrad, zámok</t>
+  </si>
+  <si>
+    <t>hrebeň, chrbát</t>
+  </si>
+  <si>
+    <t>jaskyňa, priepasť</t>
+  </si>
+  <si>
+    <t>jazero, jazerá</t>
+  </si>
+  <si>
+    <t>kanál</t>
+  </si>
+  <si>
+    <t>kaplnka</t>
+  </si>
+  <si>
+    <t>katastrálne územie</t>
+  </si>
+  <si>
+    <t>kaštieľ</t>
+  </si>
+  <si>
+    <t>kláštor</t>
+  </si>
+  <si>
+    <t>kostol</t>
+  </si>
+  <si>
+    <t>kotlina</t>
+  </si>
+  <si>
+    <t>kraj</t>
+  </si>
+  <si>
+    <t>les</t>
+  </si>
+  <si>
+    <t>lúka, pasienok</t>
+  </si>
+  <si>
+    <t>majer, osada, samota, miestna časť</t>
+  </si>
+  <si>
+    <t>močiar</t>
+  </si>
+  <si>
+    <t>národná prírodná pamiatka</t>
+  </si>
+  <si>
+    <t>národná prírodná rezervácia</t>
+  </si>
+  <si>
+    <t>národný park</t>
+  </si>
+  <si>
+    <t>obec</t>
+  </si>
+  <si>
+    <t>okres</t>
+  </si>
+  <si>
+    <t>ostrov</t>
+  </si>
+  <si>
+    <t>pole</t>
+  </si>
+  <si>
+    <t>prameň</t>
+  </si>
+  <si>
+    <t>priesmyk, sedlo</t>
+  </si>
+  <si>
+    <t>prírodná pamiatka</t>
+  </si>
+  <si>
+    <t>prírodná rezervácia</t>
+  </si>
+  <si>
+    <t>rameno rieky</t>
+  </si>
+  <si>
+    <t>roklina, strž, žľab</t>
+  </si>
+  <si>
+    <t>rybník, rybníky</t>
+  </si>
+  <si>
+    <t>sad, záhrada</t>
+  </si>
+  <si>
+    <t>skala, skaly</t>
+  </si>
+  <si>
+    <t>studňa</t>
+  </si>
+  <si>
+    <t>suchá nádrž</t>
+  </si>
+  <si>
+    <t>svah</t>
+  </si>
+  <si>
+    <t>vinica</t>
+  </si>
+  <si>
+    <t>vodná elektráreň</t>
+  </si>
+  <si>
+    <t>vodná nádrž</t>
+  </si>
+  <si>
+    <t>vodné dielo</t>
+  </si>
+  <si>
+    <t>vodný tok</t>
+  </si>
+  <si>
+    <t>vodopád</t>
+  </si>
+  <si>
+    <t>vrch</t>
+  </si>
+  <si>
+    <t>zrúcanina</t>
+  </si>
+  <si>
+    <t>zvonica</t>
+  </si>
+  <si>
+    <t>časť obce</t>
+  </si>
+  <si>
+    <t>štát</t>
+  </si>
+  <si>
+    <t>count:</t>
+  </si>
+  <si>
+    <t>https://www.geoportal.sk/files/inspire/inspire_gn_geo.zip</t>
+  </si>
+  <si>
+    <t>CAT</t>
+  </si>
+  <si>
+    <t>localType</t>
+  </si>
+  <si>
+    <t>INSPIRE_HY.gpkg</t>
+  </si>
+  <si>
+    <t>CrossingS (Polygon)</t>
+  </si>
+  <si>
+    <t>DamOrWeirL (Line String)</t>
+  </si>
+  <si>
+    <t>DamOrWeirS (Polygon)</t>
+  </si>
+  <si>
+    <t>EmbankmentL (Line String)</t>
+  </si>
+  <si>
+    <t>EmbankmentS (Polygon)</t>
+  </si>
+  <si>
+    <t>Falls (Point)</t>
+  </si>
+  <si>
+    <t>FordP (Point)</t>
+  </si>
+  <si>
+    <t>LockS (Polygon)</t>
+  </si>
+  <si>
+    <t>ShorelineConstructionL (Line String)</t>
+  </si>
+  <si>
+    <t>StandingWater (Polygon)</t>
+  </si>
+  <si>
+    <t>Watercourse (Line String)</t>
+  </si>
+  <si>
+    <t>WatercourseLink (Line String)</t>
+  </si>
+  <si>
+    <t>Wetland (Polygon)</t>
+  </si>
+  <si>
+    <t>WatercourseLinkSequence (None)</t>
+  </si>
+  <si>
+    <t>CrossingP (Point)</t>
+  </si>
+  <si>
+    <t>CRS</t>
+  </si>
+  <si>
+    <t>waterway:waterfall</t>
+  </si>
+  <si>
+    <t>layer</t>
+  </si>
+  <si>
+    <t>EPSG:5514</t>
+  </si>
+  <si>
+    <t>EPSG:4258</t>
+  </si>
+  <si>
+    <t>EPSG:4326</t>
+  </si>
+  <si>
+    <t>OSM (QuickOSM in QGis)</t>
+  </si>
+  <si>
+    <t>Datum aktualizacie</t>
+  </si>
+  <si>
+    <t>5.1.2021</t>
+  </si>
+  <si>
+    <t>natural:cave_entrance (name!='')</t>
+  </si>
+  <si>
+    <t>1088 (751)</t>
   </si>
 </sst>
 </file>
@@ -269,7 +742,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -277,18 +750,137 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -606,8 +1198,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D145023A-E6CB-0D44-A70A-F13ED2507778}">
   <dimension ref="A1:G37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+    <sheetView topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="D32" sqref="D32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -851,10 +1443,10 @@
         <v>37</v>
       </c>
       <c r="B22" t="s">
+        <v>54</v>
+      </c>
+      <c r="D22" s="1" t="s">
         <v>55</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.2">
@@ -865,7 +1457,7 @@
         <v>1</v>
       </c>
       <c r="D23" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.2">
@@ -892,23 +1484,23 @@
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>43</v>
+        <v>56</v>
       </c>
       <c r="B29" t="s">
         <v>1</v>
       </c>
       <c r="D29" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="D30" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.2">
       <c r="D31" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.2">
@@ -916,32 +1508,32 @@
         <v>0</v>
       </c>
       <c r="C32" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>47</v>
+        <v>57</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.2">
       <c r="C33" t="s">
+        <v>48</v>
+      </c>
+      <c r="D33" t="s">
+        <v>47</v>
+      </c>
+      <c r="G33" s="5" t="s">
         <v>49</v>
-      </c>
-      <c r="D33" t="s">
-        <v>48</v>
-      </c>
-      <c r="G33" s="5" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
+        <v>50</v>
+      </c>
+      <c r="B37" t="s">
         <v>51</v>
       </c>
-      <c r="B37" t="s">
+      <c r="D37" s="1" t="s">
         <v>52</v>
-      </c>
-      <c r="D37" s="1" t="s">
-        <v>53</v>
       </c>
     </row>
   </sheetData>
@@ -958,11 +1550,1934 @@
     <hyperlink ref="D19" r:id="rId10" xr:uid="{53BE28E0-BC80-1041-9EA9-AB5B6B83EC8E}"/>
     <hyperlink ref="D24" r:id="rId11" xr:uid="{408A6DAC-F82F-4948-807B-3D199868A8E8}"/>
     <hyperlink ref="D26" r:id="rId12" xr:uid="{DC132F90-70FB-C243-97B4-1C08022007DB}"/>
-    <hyperlink ref="D32" r:id="rId13" xr:uid="{5F00CEA7-69F7-8347-94E1-ED05B74211DD}"/>
+    <hyperlink ref="D32" r:id="rId13" location="geograficky_nazov.shp" xr:uid="{5F00CEA7-69F7-8347-94E1-ED05B74211DD}"/>
     <hyperlink ref="D37" r:id="rId14" xr:uid="{A7D7477F-0763-CF48-A9CD-37AABE8A49FC}"/>
     <hyperlink ref="D22" r:id="rId15" xr:uid="{A1F6AAD2-903C-CB4D-9DAE-8F39A874538B}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF9B1738-B384-4342-BAD3-E38CD4A15B70}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:H81"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="6" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C23" sqref="C23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="29.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="30.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.83203125" customWidth="1"/>
+    <col min="5" max="5" width="30.83203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="29" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.83203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" s="12" customFormat="1" ht="56" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="B1" s="11"/>
+      <c r="C1" s="10" t="s">
+        <v>184</v>
+      </c>
+      <c r="D1" s="17"/>
+      <c r="E1" s="28" t="s">
+        <v>52</v>
+      </c>
+      <c r="F1" s="22"/>
+      <c r="G1" s="23"/>
+      <c r="H1" s="24"/>
+    </row>
+    <row r="2" spans="1:8" s="14" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="B2" s="13"/>
+      <c r="C2" s="13" t="s">
+        <v>124</v>
+      </c>
+      <c r="D2" s="18"/>
+      <c r="E2" s="13" t="s">
+        <v>187</v>
+      </c>
+      <c r="F2" s="13"/>
+      <c r="G2" s="27" t="s">
+        <v>209</v>
+      </c>
+      <c r="H2" s="27"/>
+    </row>
+    <row r="3" spans="1:8" s="30" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A3" s="8" t="s">
+        <v>210</v>
+      </c>
+      <c r="B3" s="8"/>
+      <c r="C3" s="8" t="s">
+        <v>210</v>
+      </c>
+      <c r="D3" s="8"/>
+      <c r="E3" s="8" t="s">
+        <v>210</v>
+      </c>
+      <c r="F3" s="8"/>
+      <c r="G3" s="8" t="s">
+        <v>210</v>
+      </c>
+      <c r="H3" s="29" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A4" s="31" t="s">
+        <v>203</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>206</v>
+      </c>
+      <c r="C4" s="31" t="s">
+        <v>203</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>207</v>
+      </c>
+      <c r="E4" s="32"/>
+      <c r="F4" s="9" t="s">
+        <v>207</v>
+      </c>
+      <c r="G4" s="33"/>
+      <c r="H4" s="9" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A5" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="B5" s="7">
+        <v>107398</v>
+      </c>
+      <c r="C5" s="7"/>
+      <c r="D5" s="19">
+        <v>132042</v>
+      </c>
+      <c r="E5" s="7"/>
+      <c r="F5" s="7"/>
+      <c r="G5" s="7"/>
+      <c r="H5" s="7"/>
+    </row>
+    <row r="6" spans="1:8" s="14" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="15" t="s">
+        <v>185</v>
+      </c>
+      <c r="B6" s="15" t="s">
+        <v>183</v>
+      </c>
+      <c r="C6" s="15" t="s">
+        <v>186</v>
+      </c>
+      <c r="D6" s="20"/>
+      <c r="E6" s="15" t="s">
+        <v>205</v>
+      </c>
+      <c r="F6" s="16"/>
+      <c r="G6" s="16"/>
+      <c r="H6" s="16"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A7" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="B7" s="7">
+        <v>70</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="D7" s="21">
+        <v>70</v>
+      </c>
+      <c r="E7" s="7"/>
+      <c r="F7" s="7"/>
+      <c r="G7" s="7"/>
+      <c r="H7" s="7"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A8" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="B8" s="7">
+        <v>119</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="D8" s="21">
+        <v>120</v>
+      </c>
+      <c r="E8" s="7"/>
+      <c r="F8" s="7"/>
+      <c r="G8" s="7"/>
+      <c r="H8" s="7"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A9" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="B9" s="7">
+        <v>28</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="D9" s="21">
+        <v>28</v>
+      </c>
+      <c r="E9" s="7"/>
+      <c r="F9" s="7"/>
+      <c r="G9" s="7"/>
+      <c r="H9" s="7"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A10" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="B10" s="7">
+        <v>14</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="D10" s="21">
+        <v>14</v>
+      </c>
+      <c r="E10" s="7"/>
+      <c r="F10" s="7"/>
+      <c r="G10" s="7"/>
+      <c r="H10" s="7"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A11" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="B11" s="7">
+        <v>41</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="D11" s="21">
+        <v>41</v>
+      </c>
+      <c r="E11" s="7"/>
+      <c r="F11" s="7"/>
+      <c r="G11" s="7"/>
+      <c r="H11" s="7"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A12" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="B12" s="7">
+        <v>1</v>
+      </c>
+      <c r="C12" s="7"/>
+      <c r="D12" s="21"/>
+      <c r="E12" s="7"/>
+      <c r="F12" s="7"/>
+      <c r="G12" s="7"/>
+      <c r="H12" s="7"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A13" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="B13" s="7">
+        <v>16</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="D13" s="21">
+        <v>13</v>
+      </c>
+      <c r="E13" s="7"/>
+      <c r="F13" s="7"/>
+      <c r="G13" s="7"/>
+      <c r="H13" s="7"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A14" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="B14" s="7">
+        <v>2930</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="D14" s="21">
+        <v>2914</v>
+      </c>
+      <c r="E14" s="7"/>
+      <c r="F14" s="7"/>
+      <c r="G14" s="7"/>
+      <c r="H14" s="7"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A15" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="B15" s="7">
+        <v>1</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="D15" s="21">
+        <v>1</v>
+      </c>
+      <c r="E15" s="7"/>
+      <c r="F15" s="7"/>
+      <c r="G15" s="7"/>
+      <c r="H15" s="7"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A16" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="B16" s="7">
+        <v>17</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="D16" s="21">
+        <v>17</v>
+      </c>
+      <c r="E16" s="7"/>
+      <c r="F16" s="7"/>
+      <c r="G16" s="7"/>
+      <c r="H16" s="7"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A17" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="B17" s="7">
+        <v>84</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="D17" s="21">
+        <v>84</v>
+      </c>
+      <c r="E17" s="7"/>
+      <c r="F17" s="7"/>
+      <c r="G17" s="7"/>
+      <c r="H17" s="7"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A18" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="B18" s="25">
+        <v>2</v>
+      </c>
+      <c r="C18" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="D18" s="26">
+        <v>2</v>
+      </c>
+      <c r="E18" s="7"/>
+      <c r="F18" s="7"/>
+      <c r="G18" s="7"/>
+      <c r="H18" s="7"/>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A19" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="B19" s="7">
+        <v>391</v>
+      </c>
+      <c r="C19" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="D19" s="21">
+        <v>394</v>
+      </c>
+      <c r="E19" s="7"/>
+      <c r="F19" s="7"/>
+      <c r="G19" s="7"/>
+      <c r="H19" s="7"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A20" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="B20" s="7">
+        <v>22</v>
+      </c>
+      <c r="C20" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="D20" s="21">
+        <v>20</v>
+      </c>
+      <c r="E20" s="7"/>
+      <c r="F20" s="7"/>
+      <c r="G20" s="7"/>
+      <c r="H20" s="7"/>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A21" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="B21" s="7">
+        <v>543</v>
+      </c>
+      <c r="C21" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="D21" s="21">
+        <v>544</v>
+      </c>
+      <c r="E21" s="7"/>
+      <c r="F21" s="7"/>
+      <c r="G21" s="7"/>
+      <c r="H21" s="7"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A22" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="B22" s="7">
+        <v>6</v>
+      </c>
+      <c r="C22" s="7"/>
+      <c r="D22" s="21"/>
+      <c r="E22" s="7"/>
+      <c r="F22" s="7"/>
+      <c r="G22" s="7"/>
+      <c r="H22" s="7"/>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A23" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="B23" s="7">
+        <v>241</v>
+      </c>
+      <c r="C23" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="D23" s="21">
+        <v>242</v>
+      </c>
+      <c r="E23" s="7"/>
+      <c r="F23" s="7"/>
+      <c r="G23" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="H23" s="34" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A24" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="B24" s="7">
+        <v>192</v>
+      </c>
+      <c r="C24" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="D24" s="21">
+        <v>193</v>
+      </c>
+      <c r="E24" s="7"/>
+      <c r="F24" s="7"/>
+      <c r="G24" s="7"/>
+      <c r="H24" s="7"/>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A25" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="B25" s="7">
+        <v>1724</v>
+      </c>
+      <c r="C25" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="D25" s="21">
+        <v>1697</v>
+      </c>
+      <c r="E25" s="7"/>
+      <c r="F25" s="7"/>
+      <c r="G25" s="7"/>
+      <c r="H25" s="7"/>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A26" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="B26" s="7">
+        <v>39</v>
+      </c>
+      <c r="C26" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="D26" s="21">
+        <v>38</v>
+      </c>
+      <c r="E26" s="7"/>
+      <c r="F26" s="7"/>
+      <c r="G26" s="7"/>
+      <c r="H26" s="7"/>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A27" s="7"/>
+      <c r="B27" s="7"/>
+      <c r="C27" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="D27" s="21">
+        <v>3559</v>
+      </c>
+      <c r="E27" s="7"/>
+      <c r="F27" s="7"/>
+      <c r="G27" s="7"/>
+      <c r="H27" s="7"/>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A28" s="7"/>
+      <c r="B28" s="7"/>
+      <c r="C28" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="D28" s="21">
+        <v>1</v>
+      </c>
+      <c r="E28" s="7"/>
+      <c r="F28" s="7"/>
+      <c r="G28" s="7"/>
+      <c r="H28" s="7"/>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A29" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="B29" s="7">
+        <v>3</v>
+      </c>
+      <c r="C29" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="D29" s="21">
+        <v>3</v>
+      </c>
+      <c r="E29" s="7"/>
+      <c r="F29" s="7"/>
+      <c r="G29" s="7"/>
+      <c r="H29" s="7"/>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A30" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="B30" s="7">
+        <v>4</v>
+      </c>
+      <c r="C30" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="D30" s="21">
+        <v>4</v>
+      </c>
+      <c r="E30" s="7"/>
+      <c r="F30" s="7"/>
+      <c r="G30" s="7"/>
+      <c r="H30" s="7"/>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A31" s="7"/>
+      <c r="B31" s="7"/>
+      <c r="C31" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="D31" s="21">
+        <v>4</v>
+      </c>
+      <c r="E31" s="7"/>
+      <c r="F31" s="7"/>
+      <c r="G31" s="7"/>
+      <c r="H31" s="7"/>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A32" s="7"/>
+      <c r="B32" s="7"/>
+      <c r="C32" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="D32" s="21">
+        <v>8</v>
+      </c>
+      <c r="E32" s="7"/>
+      <c r="F32" s="7"/>
+      <c r="G32" s="7"/>
+      <c r="H32" s="7"/>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A33" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="B33" s="7">
+        <v>27640</v>
+      </c>
+      <c r="C33" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="D33" s="21">
+        <v>27016</v>
+      </c>
+      <c r="E33" s="7"/>
+      <c r="F33" s="7"/>
+      <c r="G33" s="7"/>
+      <c r="H33" s="7"/>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A34" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="B34" s="7">
+        <v>11071</v>
+      </c>
+      <c r="C34" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="D34" s="21">
+        <v>10610</v>
+      </c>
+      <c r="E34" s="7"/>
+      <c r="F34" s="7"/>
+      <c r="G34" s="7"/>
+      <c r="H34" s="7"/>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A35" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="B35" s="7">
+        <v>5389</v>
+      </c>
+      <c r="C35" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="D35" s="21">
+        <v>5385</v>
+      </c>
+      <c r="E35" s="7"/>
+      <c r="F35" s="7"/>
+      <c r="G35" s="7"/>
+      <c r="H35" s="7"/>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A36" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="B36" s="7">
+        <v>70</v>
+      </c>
+      <c r="C36" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="D36" s="21">
+        <v>69</v>
+      </c>
+      <c r="E36" s="7"/>
+      <c r="F36" s="7"/>
+      <c r="G36" s="7"/>
+      <c r="H36" s="7"/>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A37" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="B37" s="7">
+        <v>55</v>
+      </c>
+      <c r="C37" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="D37" s="21">
+        <v>55</v>
+      </c>
+      <c r="E37" s="7"/>
+      <c r="F37" s="7"/>
+      <c r="G37" s="7"/>
+      <c r="H37" s="7"/>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A38" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="B38" s="7">
+        <v>216</v>
+      </c>
+      <c r="C38" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="D38" s="21">
+        <v>216</v>
+      </c>
+      <c r="E38" s="7"/>
+      <c r="F38" s="7"/>
+      <c r="G38" s="7"/>
+      <c r="H38" s="7"/>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A39" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="B39" s="7">
+        <v>9</v>
+      </c>
+      <c r="C39" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="D39" s="21">
+        <v>9</v>
+      </c>
+      <c r="E39" s="7"/>
+      <c r="F39" s="7"/>
+      <c r="G39" s="7"/>
+      <c r="H39" s="7"/>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A40" s="7"/>
+      <c r="B40" s="7"/>
+      <c r="C40" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="D40" s="21">
+        <v>2938</v>
+      </c>
+      <c r="E40" s="7"/>
+      <c r="F40" s="7"/>
+      <c r="G40" s="7"/>
+      <c r="H40" s="7"/>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A41" s="7"/>
+      <c r="B41" s="7"/>
+      <c r="C41" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="D41" s="21">
+        <v>79</v>
+      </c>
+      <c r="E41" s="7"/>
+      <c r="F41" s="7"/>
+      <c r="G41" s="7"/>
+      <c r="H41" s="7"/>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A42" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="B42" s="7">
+        <v>5</v>
+      </c>
+      <c r="C42" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="D42" s="21">
+        <v>6</v>
+      </c>
+      <c r="E42" s="7"/>
+      <c r="F42" s="7"/>
+      <c r="G42" s="7"/>
+      <c r="H42" s="7"/>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A43" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="B43" s="7">
+        <v>34885</v>
+      </c>
+      <c r="C43" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="D43" s="21">
+        <v>34837</v>
+      </c>
+      <c r="E43" s="7"/>
+      <c r="F43" s="7"/>
+      <c r="G43" s="7"/>
+      <c r="H43" s="7"/>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A44" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="B44" s="7">
+        <v>116</v>
+      </c>
+      <c r="C44" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="D44" s="21">
+        <v>116</v>
+      </c>
+      <c r="E44" s="7"/>
+      <c r="F44" s="7"/>
+      <c r="G44" s="7"/>
+      <c r="H44" s="7"/>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A45" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="B45" s="7">
+        <v>222</v>
+      </c>
+      <c r="C45" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="D45" s="21">
+        <v>224</v>
+      </c>
+      <c r="E45" s="7"/>
+      <c r="F45" s="7"/>
+      <c r="G45" s="7"/>
+      <c r="H45" s="7"/>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A46" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="B46" s="7">
+        <v>234</v>
+      </c>
+      <c r="C46" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="D46" s="21">
+        <v>234</v>
+      </c>
+      <c r="E46" s="7"/>
+      <c r="F46" s="7"/>
+      <c r="G46" s="7"/>
+      <c r="H46" s="7"/>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A47" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="B47" s="7">
+        <v>377</v>
+      </c>
+      <c r="C47" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="D47" s="21">
+        <v>376</v>
+      </c>
+      <c r="E47" s="7"/>
+      <c r="F47" s="7"/>
+      <c r="G47" s="7"/>
+      <c r="H47" s="7"/>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A48" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="B48" s="7">
+        <v>76</v>
+      </c>
+      <c r="C48" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="D48" s="21">
+        <v>73</v>
+      </c>
+      <c r="E48" s="7"/>
+      <c r="F48" s="7"/>
+      <c r="G48" s="7"/>
+      <c r="H48" s="7"/>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A49" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="B49" s="7">
+        <v>12</v>
+      </c>
+      <c r="C49" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="D49" s="21">
+        <v>12</v>
+      </c>
+      <c r="E49" s="7"/>
+      <c r="F49" s="7"/>
+      <c r="G49" s="7"/>
+      <c r="H49" s="7"/>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A50" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="B50" s="7">
+        <v>133</v>
+      </c>
+      <c r="C50" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="D50" s="21">
+        <v>133</v>
+      </c>
+      <c r="E50" s="7"/>
+      <c r="F50" s="7"/>
+      <c r="G50" s="7"/>
+      <c r="H50" s="7"/>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A51" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="B51" s="7">
+        <v>845</v>
+      </c>
+      <c r="C51" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="D51" s="21">
+        <v>726</v>
+      </c>
+      <c r="E51" s="7"/>
+      <c r="F51" s="7"/>
+      <c r="G51" s="7"/>
+      <c r="H51" s="7"/>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A52" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="B52" s="7">
+        <v>55</v>
+      </c>
+      <c r="C52" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="D52" s="21">
+        <v>51</v>
+      </c>
+      <c r="E52" s="7"/>
+      <c r="F52" s="7"/>
+      <c r="G52" s="7"/>
+      <c r="H52" s="7"/>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A53" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="B53" s="7">
+        <v>2</v>
+      </c>
+      <c r="C53" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="D53" s="21">
+        <v>2</v>
+      </c>
+      <c r="E53" s="7"/>
+      <c r="F53" s="7"/>
+      <c r="G53" s="7"/>
+      <c r="H53" s="7"/>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A54" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="B54" s="7">
+        <v>4</v>
+      </c>
+      <c r="C54" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="D54" s="21">
+        <v>4</v>
+      </c>
+      <c r="E54" s="7"/>
+      <c r="F54" s="7"/>
+      <c r="G54" s="7"/>
+      <c r="H54" s="7"/>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A55" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="B55" s="7">
+        <v>198</v>
+      </c>
+      <c r="C55" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="D55" s="21">
+        <v>197</v>
+      </c>
+      <c r="E55" s="7"/>
+      <c r="F55" s="7"/>
+      <c r="G55" s="7"/>
+      <c r="H55" s="7"/>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A56" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="B56" s="7">
+        <v>731</v>
+      </c>
+      <c r="C56" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="D56" s="21">
+        <v>731</v>
+      </c>
+      <c r="E56" s="7"/>
+      <c r="F56" s="7"/>
+      <c r="G56" s="7"/>
+      <c r="H56" s="7"/>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A57" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="B57" s="7">
+        <v>1</v>
+      </c>
+      <c r="C57" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="D57" s="21">
+        <v>1</v>
+      </c>
+      <c r="E57" s="7"/>
+      <c r="F57" s="7"/>
+      <c r="G57" s="7"/>
+      <c r="H57" s="7"/>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A58" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="B58" s="7">
+        <v>444</v>
+      </c>
+      <c r="C58" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="D58" s="21">
+        <v>449</v>
+      </c>
+      <c r="E58" s="7"/>
+      <c r="F58" s="7"/>
+      <c r="G58" s="7"/>
+      <c r="H58" s="7"/>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A59" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="B59" s="7">
+        <v>19</v>
+      </c>
+      <c r="C59" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="D59" s="21">
+        <v>19</v>
+      </c>
+      <c r="E59" s="7"/>
+      <c r="F59" s="7"/>
+      <c r="G59" s="7"/>
+      <c r="H59" s="7"/>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A60" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="B60" s="7">
+        <v>10628</v>
+      </c>
+      <c r="C60" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="D60" s="21">
+        <v>10287</v>
+      </c>
+      <c r="E60" s="7"/>
+      <c r="F60" s="7"/>
+      <c r="G60" s="7"/>
+      <c r="H60" s="7"/>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A61" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="B61" s="7">
+        <v>37</v>
+      </c>
+      <c r="C61" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="D61" s="21">
+        <v>37</v>
+      </c>
+      <c r="E61" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="F61" s="7">
+        <v>7</v>
+      </c>
+      <c r="G61" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="H61" s="7">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A62" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="B62" s="7">
+        <v>7343</v>
+      </c>
+      <c r="C62" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="D62" s="21">
+        <v>8726</v>
+      </c>
+      <c r="E62" s="7"/>
+      <c r="F62" s="7"/>
+      <c r="G62" s="7"/>
+      <c r="H62" s="7"/>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A63" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="B63" s="7">
+        <v>93</v>
+      </c>
+      <c r="C63" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="D63" s="21">
+        <v>97</v>
+      </c>
+      <c r="E63" s="7"/>
+      <c r="F63" s="7"/>
+      <c r="G63" s="7"/>
+      <c r="H63" s="7"/>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A64" s="7"/>
+      <c r="B64" s="7"/>
+      <c r="C64" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="D64" s="21">
+        <v>1</v>
+      </c>
+      <c r="E64" s="7"/>
+      <c r="F64" s="7"/>
+      <c r="G64" s="7"/>
+      <c r="H64" s="7"/>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A65" s="7"/>
+      <c r="B65" s="7"/>
+      <c r="C65" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="D65" s="21">
+        <v>1817</v>
+      </c>
+      <c r="E65" s="7"/>
+      <c r="F65" s="7"/>
+      <c r="G65" s="7"/>
+      <c r="H65" s="7"/>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A66" s="7"/>
+      <c r="B66" s="7"/>
+      <c r="C66" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="D66" s="21">
+        <v>1</v>
+      </c>
+      <c r="E66" s="7"/>
+      <c r="F66" s="7"/>
+      <c r="G66" s="7"/>
+      <c r="H66" s="7"/>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A67" s="7"/>
+      <c r="B67" s="7"/>
+      <c r="C67" s="7"/>
+      <c r="D67" s="7"/>
+      <c r="E67" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="F67" s="7">
+        <v>45677</v>
+      </c>
+      <c r="G67" s="7"/>
+      <c r="H67" s="7"/>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A68" s="7"/>
+      <c r="B68" s="7"/>
+      <c r="C68" s="7"/>
+      <c r="D68" s="7"/>
+      <c r="E68" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="F68" s="7">
+        <v>22008</v>
+      </c>
+      <c r="G68" s="7"/>
+      <c r="H68" s="7"/>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A69" s="7"/>
+      <c r="B69" s="7"/>
+      <c r="C69" s="7"/>
+      <c r="D69" s="7"/>
+      <c r="E69" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="F69" s="7">
+        <v>398</v>
+      </c>
+      <c r="G69" s="7"/>
+      <c r="H69" s="7"/>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A70" s="7"/>
+      <c r="B70" s="7"/>
+      <c r="C70" s="7"/>
+      <c r="D70" s="7"/>
+      <c r="E70" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="F70" s="7">
+        <v>491</v>
+      </c>
+      <c r="G70" s="7"/>
+      <c r="H70" s="7"/>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A71" s="7"/>
+      <c r="B71" s="7"/>
+      <c r="C71" s="7"/>
+      <c r="D71" s="7"/>
+      <c r="E71" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="F71" s="7">
+        <v>29</v>
+      </c>
+      <c r="G71" s="7"/>
+      <c r="H71" s="7"/>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A72" s="7"/>
+      <c r="B72" s="7"/>
+      <c r="C72" s="7"/>
+      <c r="D72" s="7"/>
+      <c r="E72" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="F72" s="7">
+        <v>1314</v>
+      </c>
+      <c r="G72" s="7"/>
+      <c r="H72" s="7"/>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A73" s="7"/>
+      <c r="B73" s="7"/>
+      <c r="C73" s="7"/>
+      <c r="D73" s="7"/>
+      <c r="E73" s="7"/>
+      <c r="F73" s="7"/>
+      <c r="G73" s="7"/>
+      <c r="H73" s="7"/>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A74" s="7"/>
+      <c r="B74" s="7"/>
+      <c r="C74" s="7"/>
+      <c r="D74" s="7"/>
+      <c r="E74" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="F74" s="7">
+        <v>7495</v>
+      </c>
+      <c r="G74" s="7"/>
+      <c r="H74" s="7"/>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A75" s="7"/>
+      <c r="B75" s="7"/>
+      <c r="C75" s="7"/>
+      <c r="D75" s="7"/>
+      <c r="E75" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="F75" s="7">
+        <v>11</v>
+      </c>
+      <c r="G75" s="7"/>
+      <c r="H75" s="7"/>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A76" s="7"/>
+      <c r="B76" s="7"/>
+      <c r="C76" s="7"/>
+      <c r="D76" s="7"/>
+      <c r="E76" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="F76" s="7">
+        <v>162</v>
+      </c>
+      <c r="G76" s="7"/>
+      <c r="H76" s="7"/>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A77" s="7"/>
+      <c r="B77" s="7"/>
+      <c r="C77" s="7"/>
+      <c r="D77" s="7"/>
+      <c r="E77" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="F77" s="7">
+        <v>6243</v>
+      </c>
+      <c r="G77" s="7"/>
+      <c r="H77" s="7"/>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A78" s="7"/>
+      <c r="B78" s="7"/>
+      <c r="C78" s="7"/>
+      <c r="D78" s="7"/>
+      <c r="E78" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="F78" s="7">
+        <v>93836</v>
+      </c>
+      <c r="G78" s="7"/>
+      <c r="H78" s="7"/>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A79" s="7"/>
+      <c r="B79" s="7"/>
+      <c r="C79" s="7"/>
+      <c r="D79" s="7"/>
+      <c r="E79" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="F79" s="7">
+        <v>93293</v>
+      </c>
+      <c r="G79" s="7"/>
+      <c r="H79" s="7"/>
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A80" s="7"/>
+      <c r="B80" s="7"/>
+      <c r="C80" s="7"/>
+      <c r="D80" s="7"/>
+      <c r="E80" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="F80" s="7">
+        <v>2113</v>
+      </c>
+      <c r="G80" s="7"/>
+      <c r="H80" s="7"/>
+    </row>
+    <row r="81" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A81" s="7"/>
+      <c r="B81" s="7"/>
+      <c r="C81" s="7"/>
+      <c r="D81" s="7"/>
+      <c r="E81" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="F81" s="7">
+        <v>4102</v>
+      </c>
+      <c r="G81" s="7"/>
+      <c r="H81" s="7"/>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="G1:H1"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="A1" r:id="rId1" xr:uid="{0D738BAF-AAB9-3346-BBBB-ABD5E982D61E}"/>
+    <hyperlink ref="C1" r:id="rId2" xr:uid="{50AB5750-D1F8-9544-A1F0-719619171F2F}"/>
+    <hyperlink ref="E1" r:id="rId3" xr:uid="{80D5C342-2BAE-CD48-A05C-797A34B2264E}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="45" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD52AA01-B672-3F4C-8C56-5685543A51FA}">
+  <dimension ref="A1:E65"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="14.6640625" customWidth="1"/>
+    <col min="2" max="2" width="19.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="29.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C1" t="s">
+        <v>69</v>
+      </c>
+      <c r="D1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" s="1"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B4" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B5" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B6" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B7" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B8" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B9" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B10" t="s">
+        <v>58</v>
+      </c>
+      <c r="E10">
+        <v>107398</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C11" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="D11" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D12" t="s">
+        <v>97</v>
+      </c>
+      <c r="E12">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D13" t="s">
+        <v>81</v>
+      </c>
+      <c r="E13">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D14" t="s">
+        <v>88</v>
+      </c>
+      <c r="E14">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D15" t="s">
+        <v>121</v>
+      </c>
+      <c r="E15">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D16" t="s">
+        <v>116</v>
+      </c>
+      <c r="E16">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="17" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D17" t="s">
+        <v>110</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D18" t="s">
+        <v>114</v>
+      </c>
+      <c r="E18">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="19" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D19" t="s">
+        <v>77</v>
+      </c>
+      <c r="E19">
+        <v>2930</v>
+      </c>
+    </row>
+    <row r="20" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D20" t="s">
+        <v>112</v>
+      </c>
+      <c r="E20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D21" t="s">
+        <v>106</v>
+      </c>
+      <c r="E21">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="22" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D22" t="s">
+        <v>100</v>
+      </c>
+      <c r="E22">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="23" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D23" t="s">
+        <v>102</v>
+      </c>
+      <c r="E23">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D24" t="s">
+        <v>86</v>
+      </c>
+      <c r="E24">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="25" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D25" t="s">
+        <v>90</v>
+      </c>
+      <c r="E25">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="26" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D26" t="s">
+        <v>85</v>
+      </c>
+      <c r="E26">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="27" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D27" t="s">
+        <v>113</v>
+      </c>
+      <c r="E27">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="28" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D28" t="s">
+        <v>93</v>
+      </c>
+      <c r="E28">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="29" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D29" t="s">
+        <v>87</v>
+      </c>
+      <c r="E29">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="30" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D30" t="s">
+        <v>75</v>
+      </c>
+      <c r="E30">
+        <v>1724</v>
+      </c>
+    </row>
+    <row r="31" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D31" t="s">
+        <v>84</v>
+      </c>
+      <c r="E31">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="32" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D32" t="s">
+        <v>108</v>
+      </c>
+      <c r="E32">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D33" t="s">
+        <v>107</v>
+      </c>
+      <c r="E33">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="34" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D34" t="s">
+        <v>72</v>
+      </c>
+      <c r="E34">
+        <v>27640</v>
+      </c>
+    </row>
+    <row r="35" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D35" t="s">
+        <v>80</v>
+      </c>
+      <c r="E35">
+        <v>11071</v>
+      </c>
+    </row>
+    <row r="36" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D36" t="s">
+        <v>74</v>
+      </c>
+      <c r="E36">
+        <v>5389</v>
+      </c>
+    </row>
+    <row r="37" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D37" t="s">
+        <v>99</v>
+      </c>
+      <c r="E37">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="38" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D38" t="s">
+        <v>120</v>
+      </c>
+      <c r="E38">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="39" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D39" t="s">
+        <v>118</v>
+      </c>
+      <c r="E39">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="40" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D40" t="s">
+        <v>115</v>
+      </c>
+      <c r="E40">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="41" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D41" t="s">
+        <v>104</v>
+      </c>
+      <c r="E41">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="42" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D42" t="s">
+        <v>71</v>
+      </c>
+      <c r="E42">
+        <v>34885</v>
+      </c>
+    </row>
+    <row r="43" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D43" t="s">
+        <v>83</v>
+      </c>
+      <c r="E43">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="44" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D44" t="s">
+        <v>95</v>
+      </c>
+      <c r="E44">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="45" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D45" t="s">
+        <v>119</v>
+      </c>
+      <c r="E45">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="46" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D46" t="s">
+        <v>117</v>
+      </c>
+      <c r="E46">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="47" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D47" t="s">
+        <v>89</v>
+      </c>
+      <c r="E47">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="48" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D48" t="s">
+        <v>101</v>
+      </c>
+      <c r="E48">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="49" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="D49" t="s">
+        <v>79</v>
+      </c>
+      <c r="E49">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="50" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="D50" t="s">
+        <v>91</v>
+      </c>
+      <c r="E50">
+        <v>845</v>
+      </c>
+    </row>
+    <row r="51" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="D51" t="s">
+        <v>94</v>
+      </c>
+      <c r="E51">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="52" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="D52" t="s">
+        <v>109</v>
+      </c>
+      <c r="E52">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="53" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="D53" t="s">
+        <v>96</v>
+      </c>
+      <c r="E53">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="54" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="D54" t="s">
+        <v>98</v>
+      </c>
+      <c r="E54">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="55" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="D55" t="s">
+        <v>76</v>
+      </c>
+      <c r="E55">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="56" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="D56" t="s">
+        <v>111</v>
+      </c>
+      <c r="E56">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="D57" t="s">
+        <v>82</v>
+      </c>
+      <c r="E57">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="58" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="D58" t="s">
+        <v>105</v>
+      </c>
+      <c r="E58">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="59" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="D59" t="s">
+        <v>78</v>
+      </c>
+      <c r="E59">
+        <v>10628</v>
+      </c>
+    </row>
+    <row r="60" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="D60" t="s">
+        <v>103</v>
+      </c>
+      <c r="E60">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="61" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="D61" t="s">
+        <v>73</v>
+      </c>
+      <c r="E61">
+        <v>7343</v>
+      </c>
+    </row>
+    <row r="62" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="D62" t="s">
+        <v>92</v>
+      </c>
+      <c r="E62">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="64" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B64" t="s">
+        <v>124</v>
+      </c>
+      <c r="E64">
+        <v>132042</v>
+      </c>
+    </row>
+    <row r="65" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C65" t="s">
+        <v>123</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1" location="geograficky_nazov.shp" xr:uid="{03F9C9CA-0FC0-FF46-83EF-52580FEFA03E}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+</worksheet>
 </file>
--- a/docs/my-data-sources.xlsx
+++ b/docs/my-data-sources.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/marcus/workspaces/map-projects/docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{707C75A0-3498-DF41-A0F4-39A9431A9A3B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5F99B6E-5459-4140-9179-81AF46603466}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="16600" activeTab="1" xr2:uid="{3BF390CE-C12E-484B-96AF-096A292A0E54}"/>
+    <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="16600" xr2:uid="{3BF390CE-C12E-484B-96AF-096A292A0E54}"/>
   </bookViews>
   <sheets>
     <sheet name="sources" sheetId="1" r:id="rId1"/>
@@ -35,8 +35,27 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>tc={4606AC1B-E107-F848-A850-F95E6F1EA1BE}</author>
+  </authors>
+  <commentList>
+    <comment ref="C62" authorId="0" shapeId="0" xr:uid="{4606AC1B-E107-F848-A850-F95E6F1EA1BE}">
+      <text>
+        <t xml:space="preserve">[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    nema nadm. vysku
+</t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="298" uniqueCount="214">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="308" uniqueCount="224">
   <si>
     <t>ZBGIS</t>
   </si>
@@ -678,6 +697,36 @@
   </si>
   <si>
     <t>1088 (751)</t>
+  </si>
+  <si>
+    <t>narural:peak</t>
+  </si>
+  <si>
+    <t>https://www.geoportal.sk/sk/zbgis_smd/na-stiahnutie/</t>
+  </si>
+  <si>
+    <t>ZBGIS DMR 3.5 10m</t>
+  </si>
+  <si>
+    <t>Vyskopis, DMR</t>
+  </si>
+  <si>
+    <t>https://zbgisws.skgeodesy.sk/zbgis_dmr3_wms/service.svc/get?version=1.3.0&amp;service=wms&amp;request=GetCapabilities</t>
+  </si>
+  <si>
+    <t>WMS</t>
+  </si>
+  <si>
+    <t>rasters</t>
+  </si>
+  <si>
+    <t>ZBGIS DMR 3.5</t>
+  </si>
+  <si>
+    <t>https://zbgisws.skgeodesy.sk/zbgis_vyskopis_wms/service.svc/get</t>
+  </si>
+  <si>
+    <t>zbgis_vyskopis</t>
   </si>
 </sst>
 </file>
@@ -824,47 +873,17 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -880,6 +899,36 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -897,6 +946,12 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <person displayName="Marcus" id="{224F7AD0-CD3C-FD4A-B7C7-FD1CD68A34EB}" userId="S::marcus@gratex.onmicrosoft.com::9dbcc920-176a-490d-a9e0-c539f5e7896f" providerId="AD"/>
+</personList>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1194,18 +1249,27 @@
 </a:theme>
 </file>
 
+<file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
+<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <threadedComment ref="C62" dT="2021-01-05T16:48:42.00" personId="{224F7AD0-CD3C-FD4A-B7C7-FD1CD68A34EB}" id="{4606AC1B-E107-F848-A850-F95E6F1EA1BE}">
+    <text xml:space="preserve">nema nadm. vysku
+</text>
+  </threadedComment>
+</ThreadedComments>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D145023A-E6CB-0D44-A70A-F13ED2507778}">
-  <dimension ref="A1:G37"/>
+  <dimension ref="A1:G42"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="D32" sqref="D32"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="D42" sqref="D42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="29.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16" customWidth="1"/>
     <col min="4" max="4" width="100.1640625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="43.6640625" bestFit="1" customWidth="1"/>
@@ -1534,6 +1598,39 @@
       </c>
       <c r="D37" s="1" t="s">
         <v>52</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>217</v>
+      </c>
+      <c r="B40" t="s">
+        <v>216</v>
+      </c>
+      <c r="C40" t="s">
+        <v>220</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B41" t="s">
+        <v>221</v>
+      </c>
+      <c r="C41" t="s">
+        <v>219</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B42" t="s">
+        <v>223</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>222</v>
       </c>
     </row>
   </sheetData>
@@ -1553,6 +1650,8 @@
     <hyperlink ref="D32" r:id="rId13" location="geograficky_nazov.shp" xr:uid="{5F00CEA7-69F7-8347-94E1-ED05B74211DD}"/>
     <hyperlink ref="D37" r:id="rId14" xr:uid="{A7D7477F-0763-CF48-A9CD-37AABE8A49FC}"/>
     <hyperlink ref="D22" r:id="rId15" xr:uid="{A1F6AAD2-903C-CB4D-9DAE-8F39A874538B}"/>
+    <hyperlink ref="D40" r:id="rId16" xr:uid="{BD650F2F-D669-8949-B506-BA2AC928D4F8}"/>
+    <hyperlink ref="D42" r:id="rId17" xr:uid="{9036DA5E-3194-8940-8064-AE6C7459AAEB}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
@@ -1560,15 +1659,15 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF9B1738-B384-4342-BAD3-E38CD4A15B70}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF9B1738-B384-4342-BAD3-E38CD4A15B70}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:H81"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C23" sqref="C23"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="6" topLeftCell="A50" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H62" sqref="H62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1583,41 +1682,41 @@
     <col min="8" max="8" width="14.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="12" customFormat="1" ht="56" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="10" t="s">
+    <row r="1" spans="1:8" s="10" customFormat="1" ht="56" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="30" t="s">
         <v>46</v>
       </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="10" t="s">
+      <c r="B1" s="31"/>
+      <c r="C1" s="30" t="s">
         <v>184</v>
       </c>
-      <c r="D1" s="17"/>
-      <c r="E1" s="28" t="s">
+      <c r="D1" s="32"/>
+      <c r="E1" s="33" t="s">
         <v>52</v>
       </c>
-      <c r="F1" s="22"/>
-      <c r="G1" s="23"/>
-      <c r="H1" s="24"/>
-    </row>
-    <row r="2" spans="1:8" s="14" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="13" t="s">
+      <c r="F1" s="34"/>
+      <c r="G1" s="26"/>
+      <c r="H1" s="27"/>
+    </row>
+    <row r="2" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="28" t="s">
         <v>58</v>
       </c>
-      <c r="B2" s="13"/>
-      <c r="C2" s="13" t="s">
+      <c r="B2" s="28"/>
+      <c r="C2" s="28" t="s">
         <v>124</v>
       </c>
-      <c r="D2" s="18"/>
-      <c r="E2" s="13" t="s">
+      <c r="D2" s="29"/>
+      <c r="E2" s="28" t="s">
         <v>187</v>
       </c>
-      <c r="F2" s="13"/>
-      <c r="G2" s="27" t="s">
+      <c r="F2" s="28"/>
+      <c r="G2" s="25" t="s">
         <v>209</v>
       </c>
-      <c r="H2" s="27"/>
-    </row>
-    <row r="3" spans="1:8" s="30" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="H2" s="25"/>
+    </row>
+    <row r="3" spans="1:8" s="20" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A3" s="8" t="s">
         <v>210</v>
       </c>
@@ -1633,28 +1732,28 @@
       <c r="G3" s="8" t="s">
         <v>210</v>
       </c>
-      <c r="H3" s="29" t="s">
+      <c r="H3" s="19" t="s">
         <v>211</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A4" s="31" t="s">
+      <c r="A4" s="21" t="s">
         <v>203</v>
       </c>
       <c r="B4" s="9" t="s">
         <v>206</v>
       </c>
-      <c r="C4" s="31" t="s">
+      <c r="C4" s="21" t="s">
         <v>203</v>
       </c>
       <c r="D4" s="9" t="s">
         <v>207</v>
       </c>
-      <c r="E4" s="32"/>
+      <c r="E4" s="22"/>
       <c r="F4" s="9" t="s">
         <v>207</v>
       </c>
-      <c r="G4" s="33"/>
+      <c r="G4" s="23"/>
       <c r="H4" s="9" t="s">
         <v>208</v>
       </c>
@@ -1667,7 +1766,7 @@
         <v>107398</v>
       </c>
       <c r="C5" s="7"/>
-      <c r="D5" s="19">
+      <c r="D5" s="14">
         <v>132042</v>
       </c>
       <c r="E5" s="7"/>
@@ -1675,23 +1774,23 @@
       <c r="G5" s="7"/>
       <c r="H5" s="7"/>
     </row>
-    <row r="6" spans="1:8" s="14" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="15" t="s">
+    <row r="6" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="12" t="s">
         <v>185</v>
       </c>
-      <c r="B6" s="15" t="s">
+      <c r="B6" s="12" t="s">
         <v>183</v>
       </c>
-      <c r="C6" s="15" t="s">
+      <c r="C6" s="12" t="s">
         <v>186</v>
       </c>
-      <c r="D6" s="20"/>
-      <c r="E6" s="15" t="s">
+      <c r="D6" s="15"/>
+      <c r="E6" s="12" t="s">
         <v>205</v>
       </c>
-      <c r="F6" s="16"/>
-      <c r="G6" s="16"/>
-      <c r="H6" s="16"/>
+      <c r="F6" s="13"/>
+      <c r="G6" s="13"/>
+      <c r="H6" s="13"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="7" t="s">
@@ -1703,7 +1802,7 @@
       <c r="C7" s="7" t="s">
         <v>125</v>
       </c>
-      <c r="D7" s="21">
+      <c r="D7" s="16">
         <v>70</v>
       </c>
       <c r="E7" s="7"/>
@@ -1721,7 +1820,7 @@
       <c r="C8" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="D8" s="21">
+      <c r="D8" s="16">
         <v>120</v>
       </c>
       <c r="E8" s="7"/>
@@ -1739,7 +1838,7 @@
       <c r="C9" s="7" t="s">
         <v>127</v>
       </c>
-      <c r="D9" s="21">
+      <c r="D9" s="16">
         <v>28</v>
       </c>
       <c r="E9" s="7"/>
@@ -1757,7 +1856,7 @@
       <c r="C10" s="7" t="s">
         <v>128</v>
       </c>
-      <c r="D10" s="21">
+      <c r="D10" s="16">
         <v>14</v>
       </c>
       <c r="E10" s="7"/>
@@ -1775,7 +1874,7 @@
       <c r="C11" s="7" t="s">
         <v>129</v>
       </c>
-      <c r="D11" s="21">
+      <c r="D11" s="16">
         <v>41</v>
       </c>
       <c r="E11" s="7"/>
@@ -1791,7 +1890,7 @@
         <v>1</v>
       </c>
       <c r="C12" s="7"/>
-      <c r="D12" s="21"/>
+      <c r="D12" s="16"/>
       <c r="E12" s="7"/>
       <c r="F12" s="7"/>
       <c r="G12" s="7"/>
@@ -1807,7 +1906,7 @@
       <c r="C13" s="7" t="s">
         <v>130</v>
       </c>
-      <c r="D13" s="21">
+      <c r="D13" s="16">
         <v>13</v>
       </c>
       <c r="E13" s="7"/>
@@ -1825,7 +1924,7 @@
       <c r="C14" s="7" t="s">
         <v>131</v>
       </c>
-      <c r="D14" s="21">
+      <c r="D14" s="16">
         <v>2914</v>
       </c>
       <c r="E14" s="7"/>
@@ -1843,7 +1942,7 @@
       <c r="C15" s="7" t="s">
         <v>132</v>
       </c>
-      <c r="D15" s="21">
+      <c r="D15" s="16">
         <v>1</v>
       </c>
       <c r="E15" s="7"/>
@@ -1861,7 +1960,7 @@
       <c r="C16" s="7" t="s">
         <v>133</v>
       </c>
-      <c r="D16" s="21">
+      <c r="D16" s="16">
         <v>17</v>
       </c>
       <c r="E16" s="7"/>
@@ -1879,7 +1978,7 @@
       <c r="C17" s="7" t="s">
         <v>134</v>
       </c>
-      <c r="D17" s="21">
+      <c r="D17" s="16">
         <v>84</v>
       </c>
       <c r="E17" s="7"/>
@@ -1891,13 +1990,13 @@
       <c r="A18" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="B18" s="25">
+      <c r="B18" s="17">
         <v>2</v>
       </c>
       <c r="C18" s="7" t="s">
         <v>135</v>
       </c>
-      <c r="D18" s="26">
+      <c r="D18" s="18">
         <v>2</v>
       </c>
       <c r="E18" s="7"/>
@@ -1915,7 +2014,7 @@
       <c r="C19" s="7" t="s">
         <v>136</v>
       </c>
-      <c r="D19" s="21">
+      <c r="D19" s="16">
         <v>394</v>
       </c>
       <c r="E19" s="7"/>
@@ -1933,7 +2032,7 @@
       <c r="C20" s="7" t="s">
         <v>137</v>
       </c>
-      <c r="D20" s="21">
+      <c r="D20" s="16">
         <v>20</v>
       </c>
       <c r="E20" s="7"/>
@@ -1951,7 +2050,7 @@
       <c r="C21" s="7" t="s">
         <v>138</v>
       </c>
-      <c r="D21" s="21">
+      <c r="D21" s="16">
         <v>544</v>
       </c>
       <c r="E21" s="7"/>
@@ -1967,7 +2066,7 @@
         <v>6</v>
       </c>
       <c r="C22" s="7"/>
-      <c r="D22" s="21"/>
+      <c r="D22" s="16"/>
       <c r="E22" s="7"/>
       <c r="F22" s="7"/>
       <c r="G22" s="7"/>
@@ -1983,7 +2082,7 @@
       <c r="C23" s="7" t="s">
         <v>139</v>
       </c>
-      <c r="D23" s="21">
+      <c r="D23" s="16">
         <v>242</v>
       </c>
       <c r="E23" s="7"/>
@@ -1991,7 +2090,7 @@
       <c r="G23" s="7" t="s">
         <v>212</v>
       </c>
-      <c r="H23" s="34" t="s">
+      <c r="H23" s="24" t="s">
         <v>213</v>
       </c>
     </row>
@@ -2005,7 +2104,7 @@
       <c r="C24" s="7" t="s">
         <v>140</v>
       </c>
-      <c r="D24" s="21">
+      <c r="D24" s="16">
         <v>193</v>
       </c>
       <c r="E24" s="7"/>
@@ -2023,7 +2122,7 @@
       <c r="C25" s="7" t="s">
         <v>141</v>
       </c>
-      <c r="D25" s="21">
+      <c r="D25" s="16">
         <v>1697</v>
       </c>
       <c r="E25" s="7"/>
@@ -2041,7 +2140,7 @@
       <c r="C26" s="7" t="s">
         <v>142</v>
       </c>
-      <c r="D26" s="21">
+      <c r="D26" s="16">
         <v>38</v>
       </c>
       <c r="E26" s="7"/>
@@ -2055,7 +2154,7 @@
       <c r="C27" s="7" t="s">
         <v>143</v>
       </c>
-      <c r="D27" s="21">
+      <c r="D27" s="16">
         <v>3559</v>
       </c>
       <c r="E27" s="7"/>
@@ -2069,7 +2168,7 @@
       <c r="C28" s="7" t="s">
         <v>144</v>
       </c>
-      <c r="D28" s="21">
+      <c r="D28" s="16">
         <v>1</v>
       </c>
       <c r="E28" s="7"/>
@@ -2087,7 +2186,7 @@
       <c r="C29" s="7" t="s">
         <v>145</v>
       </c>
-      <c r="D29" s="21">
+      <c r="D29" s="16">
         <v>3</v>
       </c>
       <c r="E29" s="7"/>
@@ -2105,7 +2204,7 @@
       <c r="C30" s="7" t="s">
         <v>146</v>
       </c>
-      <c r="D30" s="21">
+      <c r="D30" s="16">
         <v>4</v>
       </c>
       <c r="E30" s="7"/>
@@ -2119,7 +2218,7 @@
       <c r="C31" s="7" t="s">
         <v>147</v>
       </c>
-      <c r="D31" s="21">
+      <c r="D31" s="16">
         <v>4</v>
       </c>
       <c r="E31" s="7"/>
@@ -2133,7 +2232,7 @@
       <c r="C32" s="7" t="s">
         <v>148</v>
       </c>
-      <c r="D32" s="21">
+      <c r="D32" s="16">
         <v>8</v>
       </c>
       <c r="E32" s="7"/>
@@ -2151,7 +2250,7 @@
       <c r="C33" s="7" t="s">
         <v>149</v>
       </c>
-      <c r="D33" s="21">
+      <c r="D33" s="16">
         <v>27016</v>
       </c>
       <c r="E33" s="7"/>
@@ -2169,7 +2268,7 @@
       <c r="C34" s="7" t="s">
         <v>150</v>
       </c>
-      <c r="D34" s="21">
+      <c r="D34" s="16">
         <v>10610</v>
       </c>
       <c r="E34" s="7"/>
@@ -2187,7 +2286,7 @@
       <c r="C35" s="7" t="s">
         <v>151</v>
       </c>
-      <c r="D35" s="21">
+      <c r="D35" s="16">
         <v>5385</v>
       </c>
       <c r="E35" s="7"/>
@@ -2205,7 +2304,7 @@
       <c r="C36" s="7" t="s">
         <v>152</v>
       </c>
-      <c r="D36" s="21">
+      <c r="D36" s="16">
         <v>69</v>
       </c>
       <c r="E36" s="7"/>
@@ -2223,7 +2322,7 @@
       <c r="C37" s="7" t="s">
         <v>153</v>
       </c>
-      <c r="D37" s="21">
+      <c r="D37" s="16">
         <v>55</v>
       </c>
       <c r="E37" s="7"/>
@@ -2241,7 +2340,7 @@
       <c r="C38" s="7" t="s">
         <v>154</v>
       </c>
-      <c r="D38" s="21">
+      <c r="D38" s="16">
         <v>216</v>
       </c>
       <c r="E38" s="7"/>
@@ -2259,7 +2358,7 @@
       <c r="C39" s="7" t="s">
         <v>155</v>
       </c>
-      <c r="D39" s="21">
+      <c r="D39" s="16">
         <v>9</v>
       </c>
       <c r="E39" s="7"/>
@@ -2273,7 +2372,7 @@
       <c r="C40" s="7" t="s">
         <v>156</v>
       </c>
-      <c r="D40" s="21">
+      <c r="D40" s="16">
         <v>2938</v>
       </c>
       <c r="E40" s="7"/>
@@ -2287,7 +2386,7 @@
       <c r="C41" s="7" t="s">
         <v>157</v>
       </c>
-      <c r="D41" s="21">
+      <c r="D41" s="16">
         <v>79</v>
       </c>
       <c r="E41" s="7"/>
@@ -2305,7 +2404,7 @@
       <c r="C42" s="7" t="s">
         <v>158</v>
       </c>
-      <c r="D42" s="21">
+      <c r="D42" s="16">
         <v>6</v>
       </c>
       <c r="E42" s="7"/>
@@ -2323,7 +2422,7 @@
       <c r="C43" s="7" t="s">
         <v>159</v>
       </c>
-      <c r="D43" s="21">
+      <c r="D43" s="16">
         <v>34837</v>
       </c>
       <c r="E43" s="7"/>
@@ -2341,7 +2440,7 @@
       <c r="C44" s="7" t="s">
         <v>160</v>
       </c>
-      <c r="D44" s="21">
+      <c r="D44" s="16">
         <v>116</v>
       </c>
       <c r="E44" s="7"/>
@@ -2359,7 +2458,7 @@
       <c r="C45" s="7" t="s">
         <v>161</v>
       </c>
-      <c r="D45" s="21">
+      <c r="D45" s="16">
         <v>224</v>
       </c>
       <c r="E45" s="7"/>
@@ -2377,7 +2476,7 @@
       <c r="C46" s="7" t="s">
         <v>162</v>
       </c>
-      <c r="D46" s="21">
+      <c r="D46" s="16">
         <v>234</v>
       </c>
       <c r="E46" s="7"/>
@@ -2395,7 +2494,7 @@
       <c r="C47" s="7" t="s">
         <v>163</v>
       </c>
-      <c r="D47" s="21">
+      <c r="D47" s="16">
         <v>376</v>
       </c>
       <c r="E47" s="7"/>
@@ -2413,7 +2512,7 @@
       <c r="C48" s="7" t="s">
         <v>164</v>
       </c>
-      <c r="D48" s="21">
+      <c r="D48" s="16">
         <v>73</v>
       </c>
       <c r="E48" s="7"/>
@@ -2431,7 +2530,7 @@
       <c r="C49" s="7" t="s">
         <v>165</v>
       </c>
-      <c r="D49" s="21">
+      <c r="D49" s="16">
         <v>12</v>
       </c>
       <c r="E49" s="7"/>
@@ -2449,7 +2548,7 @@
       <c r="C50" s="7" t="s">
         <v>166</v>
       </c>
-      <c r="D50" s="21">
+      <c r="D50" s="16">
         <v>133</v>
       </c>
       <c r="E50" s="7"/>
@@ -2467,7 +2566,7 @@
       <c r="C51" s="7" t="s">
         <v>167</v>
       </c>
-      <c r="D51" s="21">
+      <c r="D51" s="16">
         <v>726</v>
       </c>
       <c r="E51" s="7"/>
@@ -2485,7 +2584,7 @@
       <c r="C52" s="7" t="s">
         <v>168</v>
       </c>
-      <c r="D52" s="21">
+      <c r="D52" s="16">
         <v>51</v>
       </c>
       <c r="E52" s="7"/>
@@ -2503,7 +2602,7 @@
       <c r="C53" s="7" t="s">
         <v>169</v>
       </c>
-      <c r="D53" s="21">
+      <c r="D53" s="16">
         <v>2</v>
       </c>
       <c r="E53" s="7"/>
@@ -2521,7 +2620,7 @@
       <c r="C54" s="7" t="s">
         <v>170</v>
       </c>
-      <c r="D54" s="21">
+      <c r="D54" s="16">
         <v>4</v>
       </c>
       <c r="E54" s="7"/>
@@ -2539,7 +2638,7 @@
       <c r="C55" s="7" t="s">
         <v>171</v>
       </c>
-      <c r="D55" s="21">
+      <c r="D55" s="16">
         <v>197</v>
       </c>
       <c r="E55" s="7"/>
@@ -2557,7 +2656,7 @@
       <c r="C56" s="7" t="s">
         <v>172</v>
       </c>
-      <c r="D56" s="21">
+      <c r="D56" s="16">
         <v>731</v>
       </c>
       <c r="E56" s="7"/>
@@ -2575,7 +2674,7 @@
       <c r="C57" s="7" t="s">
         <v>173</v>
       </c>
-      <c r="D57" s="21">
+      <c r="D57" s="16">
         <v>1</v>
       </c>
       <c r="E57" s="7"/>
@@ -2593,7 +2692,7 @@
       <c r="C58" s="7" t="s">
         <v>174</v>
       </c>
-      <c r="D58" s="21">
+      <c r="D58" s="16">
         <v>449</v>
       </c>
       <c r="E58" s="7"/>
@@ -2611,7 +2710,7 @@
       <c r="C59" s="7" t="s">
         <v>175</v>
       </c>
-      <c r="D59" s="21">
+      <c r="D59" s="16">
         <v>19</v>
       </c>
       <c r="E59" s="7"/>
@@ -2629,7 +2728,7 @@
       <c r="C60" s="7" t="s">
         <v>176</v>
       </c>
-      <c r="D60" s="21">
+      <c r="D60" s="16">
         <v>10287</v>
       </c>
       <c r="E60" s="7"/>
@@ -2647,7 +2746,7 @@
       <c r="C61" s="7" t="s">
         <v>177</v>
       </c>
-      <c r="D61" s="21">
+      <c r="D61" s="16">
         <v>37</v>
       </c>
       <c r="E61" s="7" t="s">
@@ -2673,12 +2772,14 @@
       <c r="C62" s="7" t="s">
         <v>178</v>
       </c>
-      <c r="D62" s="21">
+      <c r="D62" s="16">
         <v>8726</v>
       </c>
       <c r="E62" s="7"/>
       <c r="F62" s="7"/>
-      <c r="G62" s="7"/>
+      <c r="G62" s="7" t="s">
+        <v>214</v>
+      </c>
       <c r="H62" s="7"/>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.2">
@@ -2691,7 +2792,7 @@
       <c r="C63" s="7" t="s">
         <v>179</v>
       </c>
-      <c r="D63" s="21">
+      <c r="D63" s="16">
         <v>97</v>
       </c>
       <c r="E63" s="7"/>
@@ -2705,7 +2806,7 @@
       <c r="C64" s="7" t="s">
         <v>180</v>
       </c>
-      <c r="D64" s="21">
+      <c r="D64" s="16">
         <v>1</v>
       </c>
       <c r="E64" s="7"/>
@@ -2719,7 +2820,7 @@
       <c r="C65" s="7" t="s">
         <v>181</v>
       </c>
-      <c r="D65" s="21">
+      <c r="D65" s="16">
         <v>1817</v>
       </c>
       <c r="E65" s="7"/>
@@ -2733,7 +2834,7 @@
       <c r="C66" s="7" t="s">
         <v>182</v>
       </c>
-      <c r="D66" s="21">
+      <c r="D66" s="16">
         <v>1</v>
       </c>
       <c r="E66" s="7"/>
@@ -2949,14 +3050,14 @@
     </row>
   </sheetData>
   <mergeCells count="8">
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="G1:H1"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="C2:D2"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="C1:D1"/>
     <mergeCell ref="E2:F2"/>
     <mergeCell ref="E1:F1"/>
-    <mergeCell ref="G2:H2"/>
-    <mergeCell ref="G1:H1"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A1" r:id="rId1" xr:uid="{0D738BAF-AAB9-3346-BBBB-ABD5E982D61E}"/>
@@ -2965,6 +3066,7 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="45" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <legacyDrawing r:id="rId4"/>
 </worksheet>
 </file>
 
@@ -2972,7 +3074,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD52AA01-B672-3F4C-8C56-5685543A51FA}">
   <dimension ref="A1:E65"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A51" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>

--- a/docs/my-data-sources.xlsx
+++ b/docs/my-data-sources.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/marcus/workspaces/map-projects/docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5F99B6E-5459-4140-9179-81AF46603466}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4C946B7-3A23-F14E-92B3-6A0E2C45BA4B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="16600" xr2:uid="{3BF390CE-C12E-484B-96AF-096A292A0E54}"/>
   </bookViews>
@@ -41,7 +41,7 @@
     <author>tc={4606AC1B-E107-F848-A850-F95E6F1EA1BE}</author>
   </authors>
   <commentList>
-    <comment ref="C62" authorId="0" shapeId="0" xr:uid="{4606AC1B-E107-F848-A850-F95E6F1EA1BE}">
+    <comment ref="F62" authorId="0" shapeId="0" xr:uid="{4606AC1B-E107-F848-A850-F95E6F1EA1BE}">
       <text>
         <t xml:space="preserve">[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -55,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="308" uniqueCount="224">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="321" uniqueCount="230">
   <si>
     <t>ZBGIS</t>
   </si>
@@ -727,6 +727,24 @@
   </si>
   <si>
     <t>zbgis_vyskopis</t>
+  </si>
+  <si>
+    <t>https://zbgisws.skgeodesy.sk/zbgis_geograficke_nazvoslovie_wfs/service.svc/get?service=wfs&amp;version=2.0.0&amp;request=GetCapabilities</t>
+  </si>
+  <si>
+    <t>(null)</t>
+  </si>
+  <si>
+    <t>katego…</t>
+  </si>
+  <si>
+    <t>http://www.skgeodesy.sk/sk/ugkk/geodezia-kartografia/standardizacia-geografickeho-nazvoslovia/nazvy-vrchov-dolin-priesmykov-sediel/</t>
+  </si>
+  <si>
+    <t>Geodetický a kartografický ústav Bratislava</t>
+  </si>
+  <si>
+    <t>11.10.2017</t>
   </si>
 </sst>
 </file>
@@ -791,7 +809,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -853,12 +871,23 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -900,6 +929,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -929,6 +965,21 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1251,7 +1302,7 @@
 
 <file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment ref="C62" dT="2021-01-05T16:48:42.00" personId="{224F7AD0-CD3C-FD4A-B7C7-FD1CD68A34EB}" id="{4606AC1B-E107-F848-A850-F95E6F1EA1BE}">
+  <threadedComment ref="F62" dT="2021-01-05T16:48:42.00" personId="{224F7AD0-CD3C-FD4A-B7C7-FD1CD68A34EB}" id="{4606AC1B-E107-F848-A850-F95E6F1EA1BE}">
     <text xml:space="preserve">nema nadm. vysku
 </text>
   </threadedComment>
@@ -1260,63 +1311,64 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D145023A-E6CB-0D44-A70A-F13ED2507778}">
-  <dimension ref="A1:G42"/>
+  <dimension ref="A1:H42"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="D42" sqref="D42"/>
+      <selection activeCell="A28" sqref="A28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="29.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16" customWidth="1"/>
-    <col min="4" max="4" width="100.1640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="43.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="69.6640625" customWidth="1"/>
+    <col min="2" max="2" width="36.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.1640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="117.1640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="43.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="69.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>8</v>
       </c>
       <c r="B2" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>8</v>
       </c>
       <c r="B3" t="s">
         <v>1</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>9</v>
       </c>
@@ -1324,62 +1376,63 @@
         <v>0</v>
       </c>
       <c r="C4" s="3"/>
-      <c r="D4" s="1" t="s">
+      <c r="D4" s="3"/>
+      <c r="E4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="F4">
+      <c r="G4">
         <v>79</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>9</v>
       </c>
       <c r="B5" t="s">
         <v>1</v>
       </c>
-      <c r="D5" t="s">
+      <c r="E5" t="s">
         <v>10</v>
       </c>
-      <c r="F5">
+      <c r="G5">
         <v>79</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>25</v>
       </c>
       <c r="B7" t="s">
         <v>23</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="E7" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="E7" t="s">
+      <c r="F7" t="s">
         <v>27</v>
       </c>
-      <c r="F7" s="4" t="s">
+      <c r="G7" s="4" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="D8" s="1"/>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="E8" s="1"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>15</v>
       </c>
       <c r="B9" t="s">
         <v>1</v>
       </c>
-      <c r="D9" t="s">
+      <c r="E9" t="s">
         <v>16</v>
       </c>
-      <c r="F9">
+      <c r="G9">
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
         <v>15</v>
       </c>
@@ -1387,48 +1440,49 @@
         <v>12</v>
       </c>
       <c r="C10" s="3"/>
-      <c r="D10" s="1" t="s">
+      <c r="D10" s="3"/>
+      <c r="E10" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F10">
+      <c r="G10">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>15</v>
       </c>
       <c r="B11" t="s">
         <v>14</v>
       </c>
-      <c r="D11" s="1" t="s">
+      <c r="E11" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E11" t="s">
+      <c r="F11" t="s">
         <v>22</v>
       </c>
-      <c r="F11">
+      <c r="G11">
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>17</v>
       </c>
       <c r="B13" t="s">
         <v>1</v>
       </c>
-      <c r="D13" t="s">
+      <c r="E13" t="s">
         <v>19</v>
       </c>
-      <c r="E13" s="4" t="s">
+      <c r="F13" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="F13">
+      <c r="G13">
         <v>14</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
         <v>17</v>
       </c>
@@ -1436,222 +1490,238 @@
         <v>12</v>
       </c>
       <c r="C14" s="3"/>
-      <c r="D14" s="1" t="s">
+      <c r="D14" s="3"/>
+      <c r="E14" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E14" t="s">
+      <c r="F14" t="s">
         <v>18</v>
       </c>
-      <c r="F14">
+      <c r="G14">
         <v>9</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>17</v>
       </c>
       <c r="B15" t="s">
         <v>14</v>
       </c>
-      <c r="D15" s="1" t="s">
+      <c r="E15" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E15" t="s">
+      <c r="F15" t="s">
         <v>21</v>
       </c>
-      <c r="F15">
+      <c r="G15">
         <v>14</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>28</v>
       </c>
       <c r="B18" t="s">
         <v>30</v>
       </c>
-      <c r="D18" s="1" t="s">
+      <c r="E18" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="G18" t="s">
+      <c r="H18" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>28</v>
       </c>
       <c r="B19" t="s">
         <v>30</v>
       </c>
-      <c r="D19" s="1" t="s">
+      <c r="E19" s="1" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>28</v>
       </c>
       <c r="B20" t="s">
         <v>32</v>
       </c>
-      <c r="D20" s="1" t="s">
+      <c r="E20" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="G20" s="5" t="s">
+      <c r="H20" s="5" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>37</v>
       </c>
       <c r="B22" t="s">
         <v>54</v>
       </c>
-      <c r="D22" s="1" t="s">
+      <c r="E22" s="1" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>37</v>
       </c>
       <c r="B23" t="s">
         <v>1</v>
       </c>
-      <c r="D23" t="s">
+      <c r="E23" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>37</v>
       </c>
       <c r="B24" t="s">
         <v>39</v>
       </c>
-      <c r="D24" s="1" t="s">
+      <c r="E24" s="1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>40</v>
       </c>
       <c r="B26" t="s">
         <v>42</v>
       </c>
-      <c r="D26" s="1" t="s">
+      <c r="E26" s="1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>56</v>
+      </c>
+      <c r="B28" t="s">
+        <v>228</v>
+      </c>
+      <c r="C28" t="s">
+        <v>229</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>56</v>
       </c>
       <c r="B29" t="s">
         <v>1</v>
       </c>
-      <c r="D29" t="s">
+      <c r="E29" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="D30" t="s">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="E30" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="D31" t="s">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="E31" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B32" t="s">
         <v>0</v>
       </c>
-      <c r="C32" t="s">
+      <c r="D32" t="s">
         <v>45</v>
       </c>
-      <c r="D32" s="1" t="s">
+      <c r="E32" s="1" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="C33" t="s">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="D33" t="s">
         <v>48</v>
       </c>
-      <c r="D33" t="s">
+      <c r="E33" t="s">
         <v>47</v>
       </c>
-      <c r="G33" s="5" t="s">
+      <c r="H33" s="5" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>50</v>
       </c>
       <c r="B37" t="s">
         <v>51</v>
       </c>
-      <c r="D37" s="1" t="s">
+      <c r="E37" s="1" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>217</v>
       </c>
       <c r="B40" t="s">
         <v>216</v>
       </c>
-      <c r="C40" t="s">
+      <c r="D40" t="s">
         <v>220</v>
       </c>
-      <c r="D40" s="1" t="s">
+      <c r="E40" s="1" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B41" t="s">
         <v>221</v>
       </c>
-      <c r="C41" t="s">
+      <c r="D41" t="s">
         <v>219</v>
       </c>
-      <c r="D41" s="1" t="s">
+      <c r="E41" s="1" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B42" t="s">
         <v>223</v>
       </c>
-      <c r="D42" s="1" t="s">
+      <c r="E42" s="1" t="s">
         <v>222</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D2" r:id="rId1" xr:uid="{1378A383-BCFD-774C-AFDE-3C36F7E79B63}"/>
-    <hyperlink ref="D4" r:id="rId2" xr:uid="{FC5AFED1-EB90-E541-AA49-936275CC6A91}"/>
-    <hyperlink ref="D10" r:id="rId3" xr:uid="{E70F5BF2-71A7-C842-9F00-ABE2B2C5010E}"/>
-    <hyperlink ref="D11" r:id="rId4" xr:uid="{2324190B-152C-1543-969E-C2A773B2C03E}"/>
-    <hyperlink ref="D15" r:id="rId5" xr:uid="{1D3E1105-D8DF-7B4C-8EE2-9893C49D41BB}"/>
-    <hyperlink ref="D14" r:id="rId6" xr:uid="{A440AA3A-84CC-A74B-A82B-BBFF3238D675}"/>
-    <hyperlink ref="D7" r:id="rId7" xr:uid="{4F969F5D-E8F9-1B4D-A0DC-738A8A85EAF7}"/>
-    <hyperlink ref="D18" r:id="rId8" xr:uid="{CB258ED5-38B0-1F48-8A6E-BF703B6A4CF7}"/>
-    <hyperlink ref="D20" r:id="rId9" xr:uid="{4D494DE6-DB31-E44E-B3CE-04EEF9DC44E0}"/>
-    <hyperlink ref="D19" r:id="rId10" xr:uid="{53BE28E0-BC80-1041-9EA9-AB5B6B83EC8E}"/>
-    <hyperlink ref="D24" r:id="rId11" xr:uid="{408A6DAC-F82F-4948-807B-3D199868A8E8}"/>
-    <hyperlink ref="D26" r:id="rId12" xr:uid="{DC132F90-70FB-C243-97B4-1C08022007DB}"/>
-    <hyperlink ref="D32" r:id="rId13" location="geograficky_nazov.shp" xr:uid="{5F00CEA7-69F7-8347-94E1-ED05B74211DD}"/>
-    <hyperlink ref="D37" r:id="rId14" xr:uid="{A7D7477F-0763-CF48-A9CD-37AABE8A49FC}"/>
-    <hyperlink ref="D22" r:id="rId15" xr:uid="{A1F6AAD2-903C-CB4D-9DAE-8F39A874538B}"/>
-    <hyperlink ref="D40" r:id="rId16" xr:uid="{BD650F2F-D669-8949-B506-BA2AC928D4F8}"/>
-    <hyperlink ref="D42" r:id="rId17" xr:uid="{9036DA5E-3194-8940-8064-AE6C7459AAEB}"/>
+    <hyperlink ref="E2" r:id="rId1" xr:uid="{1378A383-BCFD-774C-AFDE-3C36F7E79B63}"/>
+    <hyperlink ref="E4" r:id="rId2" xr:uid="{FC5AFED1-EB90-E541-AA49-936275CC6A91}"/>
+    <hyperlink ref="E10" r:id="rId3" xr:uid="{E70F5BF2-71A7-C842-9F00-ABE2B2C5010E}"/>
+    <hyperlink ref="E11" r:id="rId4" xr:uid="{2324190B-152C-1543-969E-C2A773B2C03E}"/>
+    <hyperlink ref="E15" r:id="rId5" xr:uid="{1D3E1105-D8DF-7B4C-8EE2-9893C49D41BB}"/>
+    <hyperlink ref="E14" r:id="rId6" xr:uid="{A440AA3A-84CC-A74B-A82B-BBFF3238D675}"/>
+    <hyperlink ref="E7" r:id="rId7" xr:uid="{4F969F5D-E8F9-1B4D-A0DC-738A8A85EAF7}"/>
+    <hyperlink ref="E18" r:id="rId8" xr:uid="{CB258ED5-38B0-1F48-8A6E-BF703B6A4CF7}"/>
+    <hyperlink ref="E20" r:id="rId9" xr:uid="{4D494DE6-DB31-E44E-B3CE-04EEF9DC44E0}"/>
+    <hyperlink ref="E19" r:id="rId10" xr:uid="{53BE28E0-BC80-1041-9EA9-AB5B6B83EC8E}"/>
+    <hyperlink ref="E24" r:id="rId11" xr:uid="{408A6DAC-F82F-4948-807B-3D199868A8E8}"/>
+    <hyperlink ref="E26" r:id="rId12" xr:uid="{DC132F90-70FB-C243-97B4-1C08022007DB}"/>
+    <hyperlink ref="E32" r:id="rId13" location="geograficky_nazov.shp" xr:uid="{5F00CEA7-69F7-8347-94E1-ED05B74211DD}"/>
+    <hyperlink ref="E37" r:id="rId14" xr:uid="{A7D7477F-0763-CF48-A9CD-37AABE8A49FC}"/>
+    <hyperlink ref="E22" r:id="rId15" xr:uid="{A1F6AAD2-903C-CB4D-9DAE-8F39A874538B}"/>
+    <hyperlink ref="E40" r:id="rId16" xr:uid="{BD650F2F-D669-8949-B506-BA2AC928D4F8}"/>
+    <hyperlink ref="E42" r:id="rId17" xr:uid="{9036DA5E-3194-8940-8064-AE6C7459AAEB}"/>
+    <hyperlink ref="E28" r:id="rId18" xr:uid="{E36F1933-82ED-E247-AC4A-F9F3F9401080}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
@@ -1663,118 +1733,148 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H81"/>
+  <dimension ref="A1:K167"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A50" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H62" sqref="H62"/>
+      <pane ySplit="6" topLeftCell="A46" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F62" sqref="F62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="29.6640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="20.1640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="30.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.83203125" customWidth="1"/>
-    <col min="5" max="5" width="30.83203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="29" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.83203125" customWidth="1"/>
+    <col min="3" max="3" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.33203125" customWidth="1"/>
+    <col min="5" max="5" width="45.33203125" customWidth="1"/>
+    <col min="6" max="6" width="30.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.83203125" customWidth="1"/>
+    <col min="8" max="8" width="30.83203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="29" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="10" customFormat="1" ht="56" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="30" t="s">
+    <row r="1" spans="1:11" s="10" customFormat="1" ht="56" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="33" t="s">
         <v>46</v>
       </c>
-      <c r="B1" s="31"/>
-      <c r="C1" s="30" t="s">
+      <c r="B1" s="34"/>
+      <c r="C1" s="38" t="s">
+        <v>224</v>
+      </c>
+      <c r="D1" s="39"/>
+      <c r="E1" s="40"/>
+      <c r="F1" s="33" t="s">
         <v>184</v>
       </c>
-      <c r="D1" s="32"/>
-      <c r="E1" s="33" t="s">
+      <c r="G1" s="35"/>
+      <c r="H1" s="36" t="s">
         <v>52</v>
       </c>
-      <c r="F1" s="34"/>
-      <c r="G1" s="26"/>
-      <c r="H1" s="27"/>
-    </row>
-    <row r="2" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="28" t="s">
+      <c r="I1" s="37"/>
+      <c r="J1" s="29"/>
+      <c r="K1" s="30"/>
+    </row>
+    <row r="2" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="31" t="s">
         <v>58</v>
       </c>
-      <c r="B2" s="28"/>
-      <c r="C2" s="28" t="s">
+      <c r="B2" s="31"/>
+      <c r="C2" s="32" t="s">
+        <v>66</v>
+      </c>
+      <c r="D2" s="41"/>
+      <c r="E2" s="42"/>
+      <c r="F2" s="31" t="s">
         <v>124</v>
       </c>
-      <c r="D2" s="29"/>
-      <c r="E2" s="28" t="s">
+      <c r="G2" s="32"/>
+      <c r="H2" s="31" t="s">
         <v>187</v>
       </c>
-      <c r="F2" s="28"/>
-      <c r="G2" s="25" t="s">
+      <c r="I2" s="31"/>
+      <c r="J2" s="28" t="s">
         <v>209</v>
       </c>
-      <c r="H2" s="25"/>
-    </row>
-    <row r="3" spans="1:8" s="20" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="K2" s="28"/>
+    </row>
+    <row r="3" spans="1:11" s="20" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A3" s="8" t="s">
         <v>210</v>
       </c>
       <c r="B3" s="8"/>
-      <c r="C3" s="8" t="s">
+      <c r="C3" s="8"/>
+      <c r="D3" s="8"/>
+      <c r="E3" s="8"/>
+      <c r="F3" s="8" t="s">
         <v>210</v>
       </c>
-      <c r="D3" s="8"/>
-      <c r="E3" s="8" t="s">
+      <c r="G3" s="8"/>
+      <c r="H3" s="8" t="s">
         <v>210</v>
       </c>
-      <c r="F3" s="8"/>
-      <c r="G3" s="8" t="s">
+      <c r="I3" s="8"/>
+      <c r="J3" s="8" t="s">
         <v>210</v>
       </c>
-      <c r="H3" s="19" t="s">
+      <c r="K3" s="19" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" s="21" t="s">
         <v>203</v>
       </c>
-      <c r="B4" s="9" t="s">
+      <c r="B4" s="27" t="s">
         <v>206</v>
       </c>
       <c r="C4" s="21" t="s">
         <v>203</v>
       </c>
-      <c r="D4" s="9" t="s">
+      <c r="D4" s="26"/>
+      <c r="E4" s="27" t="s">
+        <v>206</v>
+      </c>
+      <c r="F4" s="21" t="s">
+        <v>203</v>
+      </c>
+      <c r="G4" s="9" t="s">
         <v>207</v>
       </c>
-      <c r="E4" s="22"/>
-      <c r="F4" s="9" t="s">
+      <c r="H4" s="22"/>
+      <c r="I4" s="9" t="s">
         <v>207</v>
       </c>
-      <c r="G4" s="23"/>
-      <c r="H4" s="9" t="s">
+      <c r="J4" s="23"/>
+      <c r="K4" s="9" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" s="7" t="s">
         <v>59</v>
       </c>
       <c r="B5" s="7">
         <v>107398</v>
       </c>
-      <c r="C5" s="7"/>
-      <c r="D5" s="14">
+      <c r="C5" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="D5" s="7"/>
+      <c r="E5" s="7">
+        <v>122706</v>
+      </c>
+      <c r="F5" s="7"/>
+      <c r="G5" s="14">
         <v>132042</v>
       </c>
-      <c r="E5" s="7"/>
-      <c r="F5" s="7"/>
-      <c r="G5" s="7"/>
       <c r="H5" s="7"/>
-    </row>
-    <row r="6" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="I5" s="7"/>
+      <c r="J5" s="7"/>
+      <c r="K5" s="7"/>
+    </row>
+    <row r="6" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="12" t="s">
         <v>185</v>
       </c>
@@ -1782,1291 +1882,2008 @@
         <v>183</v>
       </c>
       <c r="C6" s="12" t="s">
+        <v>226</v>
+      </c>
+      <c r="D6" s="12" t="s">
+        <v>185</v>
+      </c>
+      <c r="E6" s="12"/>
+      <c r="F6" s="12" t="s">
         <v>186</v>
       </c>
-      <c r="D6" s="15"/>
-      <c r="E6" s="12" t="s">
+      <c r="G6" s="15"/>
+      <c r="H6" s="12" t="s">
         <v>205</v>
       </c>
-      <c r="F6" s="13"/>
-      <c r="G6" s="13"/>
-      <c r="H6" s="13"/>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I6" s="13"/>
+      <c r="J6" s="13"/>
+      <c r="K6" s="13"/>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" s="7" t="s">
         <v>97</v>
       </c>
       <c r="B7" s="7">
         <v>70</v>
       </c>
-      <c r="C7" s="7" t="s">
+      <c r="F7" s="7" t="s">
         <v>125</v>
       </c>
-      <c r="D7" s="16">
+      <c r="G7" s="16">
         <v>70</v>
       </c>
-      <c r="E7" s="7"/>
-      <c r="F7" s="7"/>
-      <c r="G7" s="7"/>
       <c r="H7" s="7"/>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I7" s="7"/>
+      <c r="J7" s="7"/>
+      <c r="K7" s="7"/>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" s="7" t="s">
         <v>81</v>
       </c>
       <c r="B8" s="7">
         <v>119</v>
       </c>
-      <c r="C8" s="7" t="s">
+      <c r="F8" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="D8" s="16">
+      <c r="G8" s="16">
         <v>120</v>
       </c>
-      <c r="E8" s="7"/>
-      <c r="F8" s="7"/>
-      <c r="G8" s="7"/>
       <c r="H8" s="7"/>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I8" s="7"/>
+      <c r="J8" s="7"/>
+      <c r="K8" s="7"/>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" s="7" t="s">
         <v>88</v>
       </c>
       <c r="B9" s="7">
         <v>28</v>
       </c>
-      <c r="C9" s="7" t="s">
+      <c r="F9" s="7" t="s">
         <v>127</v>
       </c>
-      <c r="D9" s="16">
+      <c r="G9" s="16">
         <v>28</v>
       </c>
-      <c r="E9" s="7"/>
-      <c r="F9" s="7"/>
-      <c r="G9" s="7"/>
       <c r="H9" s="7"/>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I9" s="7"/>
+      <c r="J9" s="7"/>
+      <c r="K9" s="7"/>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" s="7" t="s">
         <v>121</v>
       </c>
       <c r="B10" s="7">
         <v>14</v>
       </c>
-      <c r="C10" s="7" t="s">
+      <c r="F10" s="7" t="s">
         <v>128</v>
       </c>
-      <c r="D10" s="16">
+      <c r="G10" s="16">
         <v>14</v>
       </c>
-      <c r="E10" s="7"/>
-      <c r="F10" s="7"/>
-      <c r="G10" s="7"/>
       <c r="H10" s="7"/>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I10" s="7"/>
+      <c r="J10" s="7"/>
+      <c r="K10" s="7"/>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" s="7" t="s">
         <v>116</v>
       </c>
       <c r="B11" s="7">
         <v>41</v>
       </c>
-      <c r="C11" s="7" t="s">
+      <c r="F11" s="7" t="s">
         <v>129</v>
       </c>
-      <c r="D11" s="16">
+      <c r="G11" s="16">
         <v>41</v>
       </c>
-      <c r="E11" s="7"/>
-      <c r="F11" s="7"/>
-      <c r="G11" s="7"/>
       <c r="H11" s="7"/>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I11" s="7"/>
+      <c r="J11" s="7"/>
+      <c r="K11" s="7"/>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12" s="7" t="s">
         <v>110</v>
       </c>
       <c r="B12" s="7">
         <v>1</v>
       </c>
-      <c r="C12" s="7"/>
-      <c r="D12" s="16"/>
-      <c r="E12" s="7"/>
       <c r="F12" s="7"/>
-      <c r="G12" s="7"/>
+      <c r="G12" s="16"/>
       <c r="H12" s="7"/>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I12" s="7"/>
+      <c r="J12" s="7"/>
+      <c r="K12" s="7"/>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13" s="7" t="s">
         <v>114</v>
       </c>
       <c r="B13" s="7">
         <v>16</v>
       </c>
-      <c r="C13" s="7" t="s">
+      <c r="F13" s="7" t="s">
         <v>130</v>
       </c>
-      <c r="D13" s="16">
+      <c r="G13" s="16">
         <v>13</v>
       </c>
-      <c r="E13" s="7"/>
-      <c r="F13" s="7"/>
-      <c r="G13" s="7"/>
       <c r="H13" s="7"/>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I13" s="7"/>
+      <c r="J13" s="7"/>
+      <c r="K13" s="7"/>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14" s="7" t="s">
         <v>77</v>
       </c>
       <c r="B14" s="7">
         <v>2930</v>
       </c>
-      <c r="C14" s="7" t="s">
+      <c r="F14" s="7" t="s">
         <v>131</v>
       </c>
-      <c r="D14" s="16">
+      <c r="G14" s="16">
         <v>2914</v>
       </c>
-      <c r="E14" s="7"/>
-      <c r="F14" s="7"/>
-      <c r="G14" s="7"/>
       <c r="H14" s="7"/>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I14" s="7"/>
+      <c r="J14" s="7"/>
+      <c r="K14" s="7"/>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15" s="7" t="s">
         <v>112</v>
       </c>
       <c r="B15" s="7">
         <v>1</v>
       </c>
-      <c r="C15" s="7" t="s">
+      <c r="F15" s="7" t="s">
         <v>132</v>
       </c>
-      <c r="D15" s="16">
+      <c r="G15" s="16">
         <v>1</v>
       </c>
-      <c r="E15" s="7"/>
-      <c r="F15" s="7"/>
-      <c r="G15" s="7"/>
       <c r="H15" s="7"/>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I15" s="7"/>
+      <c r="J15" s="7"/>
+      <c r="K15" s="7"/>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A16" s="7" t="s">
         <v>106</v>
       </c>
       <c r="B16" s="7">
         <v>17</v>
       </c>
-      <c r="C16" s="7" t="s">
+      <c r="F16" s="7" t="s">
         <v>133</v>
       </c>
-      <c r="D16" s="16">
+      <c r="G16" s="16">
         <v>17</v>
       </c>
-      <c r="E16" s="7"/>
-      <c r="F16" s="7"/>
-      <c r="G16" s="7"/>
       <c r="H16" s="7"/>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I16" s="7"/>
+      <c r="J16" s="7"/>
+      <c r="K16" s="7"/>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A17" s="7" t="s">
         <v>100</v>
       </c>
       <c r="B17" s="7">
         <v>84</v>
       </c>
-      <c r="C17" s="7" t="s">
+      <c r="F17" s="7" t="s">
         <v>134</v>
       </c>
-      <c r="D17" s="16">
+      <c r="G17" s="16">
         <v>84</v>
       </c>
-      <c r="E17" s="7"/>
-      <c r="F17" s="7"/>
-      <c r="G17" s="7"/>
       <c r="H17" s="7"/>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I17" s="7"/>
+      <c r="J17" s="7"/>
+      <c r="K17" s="7"/>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A18" s="7" t="s">
         <v>102</v>
       </c>
       <c r="B18" s="17">
         <v>2</v>
       </c>
-      <c r="C18" s="7" t="s">
+      <c r="F18" s="7" t="s">
         <v>135</v>
       </c>
-      <c r="D18" s="18">
+      <c r="G18" s="18">
         <v>2</v>
       </c>
-      <c r="E18" s="7"/>
-      <c r="F18" s="7"/>
-      <c r="G18" s="7"/>
       <c r="H18" s="7"/>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I18" s="7"/>
+      <c r="J18" s="7"/>
+      <c r="K18" s="7"/>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A19" s="7" t="s">
         <v>86</v>
       </c>
       <c r="B19" s="7">
         <v>391</v>
       </c>
-      <c r="C19" s="7" t="s">
+      <c r="F19" s="7" t="s">
         <v>136</v>
       </c>
-      <c r="D19" s="16">
+      <c r="G19" s="16">
         <v>394</v>
       </c>
-      <c r="E19" s="7"/>
-      <c r="F19" s="7"/>
-      <c r="G19" s="7"/>
       <c r="H19" s="7"/>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I19" s="7"/>
+      <c r="J19" s="7"/>
+      <c r="K19" s="7"/>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A20" s="7" t="s">
         <v>90</v>
       </c>
       <c r="B20" s="7">
         <v>22</v>
       </c>
-      <c r="C20" s="7" t="s">
+      <c r="F20" s="7" t="s">
         <v>137</v>
       </c>
-      <c r="D20" s="16">
+      <c r="G20" s="16">
         <v>20</v>
       </c>
-      <c r="E20" s="7"/>
-      <c r="F20" s="7"/>
-      <c r="G20" s="7"/>
       <c r="H20" s="7"/>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I20" s="7"/>
+      <c r="J20" s="7"/>
+      <c r="K20" s="7"/>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A21" s="7" t="s">
         <v>85</v>
       </c>
       <c r="B21" s="7">
         <v>543</v>
       </c>
-      <c r="C21" s="7" t="s">
+      <c r="F21" s="7" t="s">
         <v>138</v>
       </c>
-      <c r="D21" s="16">
+      <c r="G21" s="16">
         <v>544</v>
       </c>
-      <c r="E21" s="7"/>
-      <c r="F21" s="7"/>
-      <c r="G21" s="7"/>
       <c r="H21" s="7"/>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I21" s="7"/>
+      <c r="J21" s="7"/>
+      <c r="K21" s="7"/>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A22" s="7" t="s">
         <v>113</v>
       </c>
       <c r="B22" s="7">
         <v>6</v>
       </c>
-      <c r="C22" s="7"/>
-      <c r="D22" s="16"/>
-      <c r="E22" s="7"/>
       <c r="F22" s="7"/>
-      <c r="G22" s="7"/>
+      <c r="G22" s="16"/>
       <c r="H22" s="7"/>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I22" s="7"/>
+      <c r="J22" s="7"/>
+      <c r="K22" s="7"/>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A23" s="7" t="s">
         <v>93</v>
       </c>
       <c r="B23" s="7">
         <v>241</v>
       </c>
-      <c r="C23" s="7" t="s">
+      <c r="F23" s="7" t="s">
         <v>139</v>
       </c>
-      <c r="D23" s="16">
+      <c r="G23" s="16">
         <v>242</v>
       </c>
-      <c r="E23" s="7"/>
-      <c r="F23" s="7"/>
-      <c r="G23" s="7" t="s">
+      <c r="H23" s="7"/>
+      <c r="I23" s="7"/>
+      <c r="J23" s="7" t="s">
         <v>212</v>
       </c>
-      <c r="H23" s="24" t="s">
+      <c r="K23" s="24" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A24" s="7" t="s">
         <v>87</v>
       </c>
       <c r="B24" s="7">
         <v>192</v>
       </c>
-      <c r="C24" s="7" t="s">
+      <c r="F24" s="7" t="s">
         <v>140</v>
       </c>
-      <c r="D24" s="16">
+      <c r="G24" s="16">
         <v>193</v>
       </c>
-      <c r="E24" s="7"/>
-      <c r="F24" s="7"/>
-      <c r="G24" s="7"/>
       <c r="H24" s="7"/>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I24" s="7"/>
+      <c r="J24" s="7"/>
+      <c r="K24" s="7"/>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A25" s="7" t="s">
         <v>75</v>
       </c>
       <c r="B25" s="7">
         <v>1724</v>
       </c>
-      <c r="C25" s="7" t="s">
+      <c r="F25" s="7" t="s">
         <v>141</v>
       </c>
-      <c r="D25" s="16">
+      <c r="G25" s="16">
         <v>1697</v>
       </c>
-      <c r="E25" s="7"/>
-      <c r="F25" s="7"/>
-      <c r="G25" s="7"/>
       <c r="H25" s="7"/>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I25" s="7"/>
+      <c r="J25" s="7"/>
+      <c r="K25" s="7"/>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A26" s="7" t="s">
         <v>84</v>
       </c>
       <c r="B26" s="7">
         <v>39</v>
       </c>
-      <c r="C26" s="7" t="s">
+      <c r="F26" s="7" t="s">
         <v>142</v>
       </c>
-      <c r="D26" s="16">
+      <c r="G26" s="16">
         <v>38</v>
       </c>
-      <c r="E26" s="7"/>
-      <c r="F26" s="7"/>
-      <c r="G26" s="7"/>
       <c r="H26" s="7"/>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I26" s="7"/>
+      <c r="J26" s="7"/>
+      <c r="K26" s="7"/>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A27" s="7"/>
       <c r="B27" s="7"/>
-      <c r="C27" s="7" t="s">
+      <c r="F27" s="7" t="s">
         <v>143</v>
       </c>
-      <c r="D27" s="16">
+      <c r="G27" s="16">
         <v>3559</v>
       </c>
-      <c r="E27" s="7"/>
-      <c r="F27" s="7"/>
-      <c r="G27" s="7"/>
       <c r="H27" s="7"/>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I27" s="7"/>
+      <c r="J27" s="7"/>
+      <c r="K27" s="7"/>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A28" s="7"/>
       <c r="B28" s="7"/>
-      <c r="C28" s="7" t="s">
+      <c r="F28" s="7" t="s">
         <v>144</v>
       </c>
-      <c r="D28" s="16">
+      <c r="G28" s="16">
         <v>1</v>
       </c>
-      <c r="E28" s="7"/>
-      <c r="F28" s="7"/>
-      <c r="G28" s="7"/>
       <c r="H28" s="7"/>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I28" s="7"/>
+      <c r="J28" s="7"/>
+      <c r="K28" s="7"/>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A29" s="7" t="s">
         <v>108</v>
       </c>
       <c r="B29" s="7">
         <v>3</v>
       </c>
-      <c r="C29" s="7" t="s">
+      <c r="F29" s="7" t="s">
         <v>145</v>
       </c>
-      <c r="D29" s="16">
+      <c r="G29" s="16">
         <v>3</v>
       </c>
-      <c r="E29" s="7"/>
-      <c r="F29" s="7"/>
-      <c r="G29" s="7"/>
       <c r="H29" s="7"/>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I29" s="7"/>
+      <c r="J29" s="7"/>
+      <c r="K29" s="7"/>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A30" s="7" t="s">
         <v>107</v>
       </c>
       <c r="B30" s="7">
         <v>4</v>
       </c>
-      <c r="C30" s="7" t="s">
+      <c r="F30" s="7" t="s">
         <v>146</v>
       </c>
-      <c r="D30" s="16">
+      <c r="G30" s="16">
         <v>4</v>
       </c>
-      <c r="E30" s="7"/>
-      <c r="F30" s="7"/>
-      <c r="G30" s="7"/>
       <c r="H30" s="7"/>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I30" s="7"/>
+      <c r="J30" s="7"/>
+      <c r="K30" s="7"/>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A31" s="7"/>
       <c r="B31" s="7"/>
-      <c r="C31" s="7" t="s">
+      <c r="F31" s="7" t="s">
         <v>147</v>
       </c>
-      <c r="D31" s="16">
+      <c r="G31" s="16">
         <v>4</v>
       </c>
-      <c r="E31" s="7"/>
-      <c r="F31" s="7"/>
-      <c r="G31" s="7"/>
       <c r="H31" s="7"/>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I31" s="7"/>
+      <c r="J31" s="7"/>
+      <c r="K31" s="7"/>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A32" s="7"/>
       <c r="B32" s="7"/>
-      <c r="C32" s="7" t="s">
+      <c r="F32" s="7" t="s">
         <v>148</v>
       </c>
-      <c r="D32" s="16">
+      <c r="G32" s="16">
         <v>8</v>
       </c>
-      <c r="E32" s="7"/>
-      <c r="F32" s="7"/>
-      <c r="G32" s="7"/>
       <c r="H32" s="7"/>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I32" s="7"/>
+      <c r="J32" s="7"/>
+      <c r="K32" s="7"/>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A33" s="7" t="s">
         <v>72</v>
       </c>
       <c r="B33" s="7">
         <v>27640</v>
       </c>
-      <c r="C33" s="7" t="s">
+      <c r="F33" s="7" t="s">
         <v>149</v>
       </c>
-      <c r="D33" s="16">
+      <c r="G33" s="16">
         <v>27016</v>
       </c>
-      <c r="E33" s="7"/>
-      <c r="F33" s="7"/>
-      <c r="G33" s="7"/>
       <c r="H33" s="7"/>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I33" s="7"/>
+      <c r="J33" s="7"/>
+      <c r="K33" s="7"/>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A34" s="7" t="s">
         <v>80</v>
       </c>
       <c r="B34" s="7">
         <v>11071</v>
       </c>
-      <c r="C34" s="7" t="s">
+      <c r="F34" s="7" t="s">
         <v>150</v>
       </c>
-      <c r="D34" s="16">
+      <c r="G34" s="16">
         <v>10610</v>
       </c>
-      <c r="E34" s="7"/>
-      <c r="F34" s="7"/>
-      <c r="G34" s="7"/>
       <c r="H34" s="7"/>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I34" s="7"/>
+      <c r="J34" s="7"/>
+      <c r="K34" s="7"/>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A35" s="7" t="s">
         <v>74</v>
       </c>
       <c r="B35" s="7">
         <v>5389</v>
       </c>
-      <c r="C35" s="7" t="s">
+      <c r="F35" s="7" t="s">
         <v>151</v>
       </c>
-      <c r="D35" s="16">
+      <c r="G35" s="16">
         <v>5385</v>
       </c>
-      <c r="E35" s="7"/>
-      <c r="F35" s="7"/>
-      <c r="G35" s="7"/>
       <c r="H35" s="7"/>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I35" s="7"/>
+      <c r="J35" s="7"/>
+      <c r="K35" s="7"/>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A36" s="7" t="s">
         <v>99</v>
       </c>
       <c r="B36" s="7">
         <v>70</v>
       </c>
-      <c r="C36" s="7" t="s">
+      <c r="F36" s="7" t="s">
         <v>152</v>
       </c>
-      <c r="D36" s="16">
+      <c r="G36" s="16">
         <v>69</v>
       </c>
-      <c r="E36" s="7"/>
-      <c r="F36" s="7"/>
-      <c r="G36" s="7"/>
       <c r="H36" s="7"/>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I36" s="7"/>
+      <c r="J36" s="7"/>
+      <c r="K36" s="7"/>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A37" s="7" t="s">
         <v>120</v>
       </c>
       <c r="B37" s="7">
         <v>55</v>
       </c>
-      <c r="C37" s="7" t="s">
+      <c r="F37" s="7" t="s">
         <v>153</v>
       </c>
-      <c r="D37" s="16">
+      <c r="G37" s="16">
         <v>55</v>
       </c>
-      <c r="E37" s="7"/>
-      <c r="F37" s="7"/>
-      <c r="G37" s="7"/>
       <c r="H37" s="7"/>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I37" s="7"/>
+      <c r="J37" s="7"/>
+      <c r="K37" s="7"/>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A38" s="7" t="s">
         <v>118</v>
       </c>
       <c r="B38" s="7">
         <v>216</v>
       </c>
-      <c r="C38" s="7" t="s">
+      <c r="F38" s="7" t="s">
         <v>154</v>
       </c>
-      <c r="D38" s="16">
+      <c r="G38" s="16">
         <v>216</v>
       </c>
-      <c r="E38" s="7"/>
-      <c r="F38" s="7"/>
-      <c r="G38" s="7"/>
       <c r="H38" s="7"/>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I38" s="7"/>
+      <c r="J38" s="7"/>
+      <c r="K38" s="7"/>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A39" s="7" t="s">
         <v>115</v>
       </c>
       <c r="B39" s="7">
         <v>9</v>
       </c>
-      <c r="C39" s="7" t="s">
+      <c r="F39" s="7" t="s">
         <v>155</v>
       </c>
-      <c r="D39" s="16">
+      <c r="G39" s="16">
         <v>9</v>
       </c>
-      <c r="E39" s="7"/>
-      <c r="F39" s="7"/>
-      <c r="G39" s="7"/>
       <c r="H39" s="7"/>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I39" s="7"/>
+      <c r="J39" s="7"/>
+      <c r="K39" s="7"/>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A40" s="7"/>
       <c r="B40" s="7"/>
-      <c r="C40" s="7" t="s">
+      <c r="F40" s="7" t="s">
         <v>156</v>
       </c>
-      <c r="D40" s="16">
+      <c r="G40" s="16">
         <v>2938</v>
       </c>
-      <c r="E40" s="7"/>
-      <c r="F40" s="7"/>
-      <c r="G40" s="7"/>
       <c r="H40" s="7"/>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I40" s="7"/>
+      <c r="J40" s="7"/>
+      <c r="K40" s="7"/>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A41" s="7"/>
       <c r="B41" s="7"/>
-      <c r="C41" s="7" t="s">
+      <c r="F41" s="7" t="s">
         <v>157</v>
       </c>
-      <c r="D41" s="16">
+      <c r="G41" s="16">
         <v>79</v>
       </c>
-      <c r="E41" s="7"/>
-      <c r="F41" s="7"/>
-      <c r="G41" s="7"/>
       <c r="H41" s="7"/>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I41" s="7"/>
+      <c r="J41" s="7"/>
+      <c r="K41" s="7"/>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A42" s="7" t="s">
         <v>104</v>
       </c>
       <c r="B42" s="7">
         <v>5</v>
       </c>
-      <c r="C42" s="7" t="s">
+      <c r="F42" s="7" t="s">
         <v>158</v>
       </c>
-      <c r="D42" s="16">
+      <c r="G42" s="16">
         <v>6</v>
       </c>
-      <c r="E42" s="7"/>
-      <c r="F42" s="7"/>
-      <c r="G42" s="7"/>
       <c r="H42" s="7"/>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I42" s="7"/>
+      <c r="J42" s="7"/>
+      <c r="K42" s="7"/>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A43" s="7" t="s">
         <v>71</v>
       </c>
       <c r="B43" s="7">
         <v>34885</v>
       </c>
-      <c r="C43" s="7" t="s">
+      <c r="F43" s="7" t="s">
         <v>159</v>
       </c>
-      <c r="D43" s="16">
+      <c r="G43" s="16">
         <v>34837</v>
       </c>
-      <c r="E43" s="7"/>
-      <c r="F43" s="7"/>
-      <c r="G43" s="7"/>
       <c r="H43" s="7"/>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I43" s="7"/>
+      <c r="J43" s="7"/>
+      <c r="K43" s="7"/>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A44" s="7" t="s">
         <v>83</v>
       </c>
       <c r="B44" s="7">
         <v>116</v>
       </c>
-      <c r="C44" s="7" t="s">
+      <c r="F44" s="7" t="s">
         <v>160</v>
       </c>
-      <c r="D44" s="16">
+      <c r="G44" s="16">
         <v>116</v>
       </c>
-      <c r="E44" s="7"/>
-      <c r="F44" s="7"/>
-      <c r="G44" s="7"/>
       <c r="H44" s="7"/>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I44" s="7"/>
+      <c r="J44" s="7"/>
+      <c r="K44" s="7"/>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A45" s="7" t="s">
         <v>95</v>
       </c>
       <c r="B45" s="7">
         <v>222</v>
       </c>
-      <c r="C45" s="7" t="s">
+      <c r="F45" s="7" t="s">
         <v>161</v>
       </c>
-      <c r="D45" s="16">
+      <c r="G45" s="16">
         <v>224</v>
       </c>
-      <c r="E45" s="7"/>
-      <c r="F45" s="7"/>
-      <c r="G45" s="7"/>
       <c r="H45" s="7"/>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I45" s="7"/>
+      <c r="J45" s="7"/>
+      <c r="K45" s="7"/>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A46" s="7" t="s">
         <v>119</v>
       </c>
       <c r="B46" s="7">
         <v>234</v>
       </c>
-      <c r="C46" s="7" t="s">
+      <c r="F46" s="7" t="s">
         <v>162</v>
       </c>
-      <c r="D46" s="16">
+      <c r="G46" s="16">
         <v>234</v>
       </c>
-      <c r="E46" s="7"/>
-      <c r="F46" s="7"/>
-      <c r="G46" s="7"/>
       <c r="H46" s="7"/>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I46" s="7"/>
+      <c r="J46" s="7"/>
+      <c r="K46" s="7"/>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A47" s="7" t="s">
         <v>117</v>
       </c>
       <c r="B47" s="7">
         <v>377</v>
       </c>
-      <c r="C47" s="7" t="s">
+      <c r="F47" s="7" t="s">
         <v>163</v>
       </c>
-      <c r="D47" s="16">
+      <c r="G47" s="16">
         <v>376</v>
       </c>
-      <c r="E47" s="7"/>
-      <c r="F47" s="7"/>
-      <c r="G47" s="7"/>
       <c r="H47" s="7"/>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I47" s="7"/>
+      <c r="J47" s="7"/>
+      <c r="K47" s="7"/>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A48" s="7" t="s">
         <v>89</v>
       </c>
       <c r="B48" s="7">
         <v>76</v>
       </c>
-      <c r="C48" s="7" t="s">
+      <c r="F48" s="7" t="s">
         <v>164</v>
       </c>
-      <c r="D48" s="16">
+      <c r="G48" s="16">
         <v>73</v>
       </c>
-      <c r="E48" s="7"/>
-      <c r="F48" s="7"/>
-      <c r="G48" s="7"/>
       <c r="H48" s="7"/>
-    </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I48" s="7"/>
+      <c r="J48" s="7"/>
+      <c r="K48" s="7"/>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A49" s="7" t="s">
         <v>101</v>
       </c>
       <c r="B49" s="7">
         <v>12</v>
       </c>
-      <c r="C49" s="7" t="s">
+      <c r="F49" s="7" t="s">
         <v>165</v>
       </c>
-      <c r="D49" s="16">
+      <c r="G49" s="16">
         <v>12</v>
       </c>
-      <c r="E49" s="7"/>
-      <c r="F49" s="7"/>
-      <c r="G49" s="7"/>
       <c r="H49" s="7"/>
-    </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I49" s="7"/>
+      <c r="J49" s="7"/>
+      <c r="K49" s="7"/>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A50" s="7" t="s">
         <v>79</v>
       </c>
       <c r="B50" s="7">
         <v>133</v>
       </c>
-      <c r="C50" s="7" t="s">
+      <c r="F50" s="7" t="s">
         <v>166</v>
       </c>
-      <c r="D50" s="16">
+      <c r="G50" s="16">
         <v>133</v>
       </c>
-      <c r="E50" s="7"/>
-      <c r="F50" s="7"/>
-      <c r="G50" s="7"/>
       <c r="H50" s="7"/>
-    </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I50" s="7"/>
+      <c r="J50" s="7"/>
+      <c r="K50" s="7"/>
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A51" s="7" t="s">
         <v>91</v>
       </c>
       <c r="B51" s="7">
         <v>845</v>
       </c>
-      <c r="C51" s="7" t="s">
+      <c r="F51" s="7" t="s">
         <v>167</v>
       </c>
-      <c r="D51" s="16">
+      <c r="G51" s="16">
         <v>726</v>
       </c>
-      <c r="E51" s="7"/>
-      <c r="F51" s="7"/>
-      <c r="G51" s="7"/>
       <c r="H51" s="7"/>
-    </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I51" s="7"/>
+      <c r="J51" s="7"/>
+      <c r="K51" s="7"/>
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A52" s="7" t="s">
         <v>94</v>
       </c>
       <c r="B52" s="7">
         <v>55</v>
       </c>
-      <c r="C52" s="7" t="s">
+      <c r="F52" s="7" t="s">
         <v>168</v>
       </c>
-      <c r="D52" s="16">
+      <c r="G52" s="16">
         <v>51</v>
       </c>
-      <c r="E52" s="7"/>
-      <c r="F52" s="7"/>
-      <c r="G52" s="7"/>
       <c r="H52" s="7"/>
-    </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I52" s="7"/>
+      <c r="J52" s="7"/>
+      <c r="K52" s="7"/>
+    </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A53" s="7" t="s">
         <v>109</v>
       </c>
       <c r="B53" s="7">
         <v>2</v>
       </c>
-      <c r="C53" s="7" t="s">
+      <c r="F53" s="7" t="s">
         <v>169</v>
       </c>
-      <c r="D53" s="16">
+      <c r="G53" s="16">
         <v>2</v>
       </c>
-      <c r="E53" s="7"/>
-      <c r="F53" s="7"/>
-      <c r="G53" s="7"/>
       <c r="H53" s="7"/>
-    </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I53" s="7"/>
+      <c r="J53" s="7"/>
+      <c r="K53" s="7"/>
+    </row>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A54" s="7" t="s">
         <v>96</v>
       </c>
       <c r="B54" s="7">
         <v>4</v>
       </c>
-      <c r="C54" s="7" t="s">
+      <c r="F54" s="7" t="s">
         <v>170</v>
       </c>
-      <c r="D54" s="16">
+      <c r="G54" s="16">
         <v>4</v>
       </c>
-      <c r="E54" s="7"/>
-      <c r="F54" s="7"/>
-      <c r="G54" s="7"/>
       <c r="H54" s="7"/>
-    </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I54" s="7"/>
+      <c r="J54" s="7"/>
+      <c r="K54" s="7"/>
+    </row>
+    <row r="55" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A55" s="7" t="s">
         <v>98</v>
       </c>
       <c r="B55" s="7">
         <v>198</v>
       </c>
-      <c r="C55" s="7" t="s">
+      <c r="F55" s="7" t="s">
         <v>171</v>
       </c>
-      <c r="D55" s="16">
+      <c r="G55" s="16">
         <v>197</v>
       </c>
-      <c r="E55" s="7"/>
-      <c r="F55" s="7"/>
-      <c r="G55" s="7"/>
       <c r="H55" s="7"/>
-    </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I55" s="7"/>
+      <c r="J55" s="7"/>
+      <c r="K55" s="7"/>
+    </row>
+    <row r="56" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A56" s="7" t="s">
         <v>76</v>
       </c>
       <c r="B56" s="7">
         <v>731</v>
       </c>
-      <c r="C56" s="7" t="s">
+      <c r="F56" s="7" t="s">
         <v>172</v>
       </c>
-      <c r="D56" s="16">
+      <c r="G56" s="16">
         <v>731</v>
       </c>
-      <c r="E56" s="7"/>
-      <c r="F56" s="7"/>
-      <c r="G56" s="7"/>
       <c r="H56" s="7"/>
-    </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I56" s="7"/>
+      <c r="J56" s="7"/>
+      <c r="K56" s="7"/>
+    </row>
+    <row r="57" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A57" s="7" t="s">
         <v>111</v>
       </c>
       <c r="B57" s="7">
         <v>1</v>
       </c>
-      <c r="C57" s="7" t="s">
+      <c r="F57" s="7" t="s">
         <v>173</v>
       </c>
-      <c r="D57" s="16">
+      <c r="G57" s="16">
         <v>1</v>
       </c>
-      <c r="E57" s="7"/>
-      <c r="F57" s="7"/>
-      <c r="G57" s="7"/>
       <c r="H57" s="7"/>
-    </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I57" s="7"/>
+      <c r="J57" s="7"/>
+      <c r="K57" s="7"/>
+    </row>
+    <row r="58" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A58" s="7" t="s">
         <v>82</v>
       </c>
       <c r="B58" s="7">
         <v>444</v>
       </c>
-      <c r="C58" s="7" t="s">
+      <c r="F58" s="7" t="s">
         <v>174</v>
       </c>
-      <c r="D58" s="16">
+      <c r="G58" s="16">
         <v>449</v>
       </c>
-      <c r="E58" s="7"/>
-      <c r="F58" s="7"/>
-      <c r="G58" s="7"/>
       <c r="H58" s="7"/>
-    </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I58" s="7"/>
+      <c r="J58" s="7"/>
+      <c r="K58" s="7"/>
+    </row>
+    <row r="59" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A59" s="7" t="s">
         <v>105</v>
       </c>
       <c r="B59" s="7">
         <v>19</v>
       </c>
-      <c r="C59" s="7" t="s">
+      <c r="F59" s="7" t="s">
         <v>175</v>
       </c>
-      <c r="D59" s="16">
+      <c r="G59" s="16">
         <v>19</v>
       </c>
-      <c r="E59" s="7"/>
-      <c r="F59" s="7"/>
-      <c r="G59" s="7"/>
       <c r="H59" s="7"/>
-    </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I59" s="7"/>
+      <c r="J59" s="7"/>
+      <c r="K59" s="7"/>
+    </row>
+    <row r="60" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A60" s="7" t="s">
         <v>78</v>
       </c>
       <c r="B60" s="7">
         <v>10628</v>
       </c>
-      <c r="C60" s="7" t="s">
+      <c r="F60" s="7" t="s">
         <v>176</v>
       </c>
-      <c r="D60" s="16">
+      <c r="G60" s="16">
         <v>10287</v>
       </c>
-      <c r="E60" s="7"/>
-      <c r="F60" s="7"/>
-      <c r="G60" s="7"/>
       <c r="H60" s="7"/>
-    </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I60" s="7"/>
+      <c r="J60" s="7"/>
+      <c r="K60" s="7"/>
+    </row>
+    <row r="61" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A61" s="7" t="s">
         <v>103</v>
       </c>
       <c r="B61" s="7">
         <v>37</v>
       </c>
-      <c r="C61" s="7" t="s">
+      <c r="F61" s="7" t="s">
         <v>177</v>
       </c>
-      <c r="D61" s="16">
+      <c r="G61" s="16">
         <v>37</v>
       </c>
-      <c r="E61" s="7" t="s">
+      <c r="H61" s="7" t="s">
         <v>193</v>
       </c>
-      <c r="F61" s="7">
+      <c r="I61" s="7">
         <v>7</v>
       </c>
-      <c r="G61" s="7" t="s">
+      <c r="J61" s="7" t="s">
         <v>204</v>
       </c>
-      <c r="H61" s="7">
+      <c r="K61" s="7">
         <v>237</v>
       </c>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A62" s="7" t="s">
         <v>73</v>
       </c>
       <c r="B62" s="7">
         <v>7343</v>
       </c>
-      <c r="C62" s="7" t="s">
+      <c r="C62" s="7">
+        <v>77</v>
+      </c>
+      <c r="D62" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="E62" s="7">
+        <v>8726</v>
+      </c>
+      <c r="F62" s="7" t="s">
         <v>178</v>
       </c>
-      <c r="D62" s="16">
+      <c r="G62" s="16">
         <v>8726</v>
       </c>
-      <c r="E62" s="7"/>
-      <c r="F62" s="7"/>
-      <c r="G62" s="7" t="s">
+      <c r="H62" s="7"/>
+      <c r="I62" s="7"/>
+      <c r="J62" s="7" t="s">
         <v>214</v>
       </c>
-      <c r="H62" s="7"/>
-    </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="K62" s="7"/>
+    </row>
+    <row r="63" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A63" s="7" t="s">
         <v>92</v>
       </c>
       <c r="B63" s="7">
         <v>93</v>
       </c>
-      <c r="C63" s="7" t="s">
+      <c r="F63" s="7" t="s">
         <v>179</v>
       </c>
-      <c r="D63" s="16">
+      <c r="G63" s="16">
         <v>97</v>
       </c>
-      <c r="E63" s="7"/>
-      <c r="F63" s="7"/>
-      <c r="G63" s="7"/>
       <c r="H63" s="7"/>
-    </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I63" s="7"/>
+      <c r="J63" s="7"/>
+      <c r="K63" s="7"/>
+    </row>
+    <row r="64" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A64" s="7"/>
       <c r="B64" s="7"/>
-      <c r="C64" s="7" t="s">
+      <c r="F64" s="7" t="s">
         <v>180</v>
       </c>
-      <c r="D64" s="16">
+      <c r="G64" s="16">
         <v>1</v>
       </c>
-      <c r="E64" s="7"/>
-      <c r="F64" s="7"/>
-      <c r="G64" s="7"/>
       <c r="H64" s="7"/>
-    </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I64" s="7"/>
+      <c r="J64" s="7"/>
+      <c r="K64" s="7"/>
+    </row>
+    <row r="65" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A65" s="7"/>
       <c r="B65" s="7"/>
-      <c r="C65" s="7" t="s">
+      <c r="F65" s="7" t="s">
         <v>181</v>
       </c>
-      <c r="D65" s="16">
+      <c r="G65" s="16">
         <v>1817</v>
       </c>
-      <c r="E65" s="7"/>
-      <c r="F65" s="7"/>
-      <c r="G65" s="7"/>
       <c r="H65" s="7"/>
-    </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I65" s="7"/>
+      <c r="J65" s="7"/>
+      <c r="K65" s="7"/>
+    </row>
+    <row r="66" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A66" s="7"/>
       <c r="B66" s="7"/>
-      <c r="C66" s="7" t="s">
+      <c r="F66" s="7" t="s">
         <v>182</v>
       </c>
-      <c r="D66" s="16">
+      <c r="G66" s="16">
         <v>1</v>
       </c>
-      <c r="E66" s="7"/>
-      <c r="F66" s="7"/>
-      <c r="G66" s="7"/>
       <c r="H66" s="7"/>
-    </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I66" s="7"/>
+      <c r="J66" s="7"/>
+      <c r="K66" s="7"/>
+    </row>
+    <row r="67" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A67" s="7"/>
       <c r="B67" s="7"/>
-      <c r="C67" s="7"/>
-      <c r="D67" s="7"/>
-      <c r="E67" s="7" t="s">
+      <c r="F67" s="7"/>
+      <c r="G67" s="7"/>
+      <c r="H67" s="7" t="s">
         <v>202</v>
       </c>
-      <c r="F67" s="7">
+      <c r="I67" s="7">
         <v>45677</v>
       </c>
-      <c r="G67" s="7"/>
-      <c r="H67" s="7"/>
-    </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="J67" s="7"/>
+      <c r="K67" s="7"/>
+    </row>
+    <row r="68" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A68" s="7"/>
       <c r="B68" s="7"/>
-      <c r="C68" s="7"/>
-      <c r="D68" s="7"/>
-      <c r="E68" s="7" t="s">
+      <c r="F68" s="7"/>
+      <c r="G68" s="7"/>
+      <c r="H68" s="7" t="s">
         <v>188</v>
       </c>
-      <c r="F68" s="7">
+      <c r="I68" s="7">
         <v>22008</v>
       </c>
-      <c r="G68" s="7"/>
-      <c r="H68" s="7"/>
-    </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="J68" s="7"/>
+      <c r="K68" s="7"/>
+    </row>
+    <row r="69" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A69" s="7"/>
       <c r="B69" s="7"/>
-      <c r="C69" s="7"/>
-      <c r="D69" s="7"/>
-      <c r="E69" s="7" t="s">
+      <c r="F69" s="7"/>
+      <c r="G69" s="7"/>
+      <c r="H69" s="7" t="s">
         <v>189</v>
       </c>
-      <c r="F69" s="7">
+      <c r="I69" s="7">
         <v>398</v>
       </c>
-      <c r="G69" s="7"/>
-      <c r="H69" s="7"/>
-    </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="J69" s="7"/>
+      <c r="K69" s="7"/>
+    </row>
+    <row r="70" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A70" s="7"/>
       <c r="B70" s="7"/>
-      <c r="C70" s="7"/>
-      <c r="D70" s="7"/>
-      <c r="E70" s="7" t="s">
+      <c r="F70" s="7"/>
+      <c r="G70" s="7"/>
+      <c r="H70" s="7" t="s">
         <v>190</v>
       </c>
-      <c r="F70" s="7">
+      <c r="I70" s="7">
         <v>491</v>
       </c>
-      <c r="G70" s="7"/>
-      <c r="H70" s="7"/>
-    </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="J70" s="7"/>
+      <c r="K70" s="7"/>
+    </row>
+    <row r="71" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A71" s="7"/>
       <c r="B71" s="7"/>
-      <c r="C71" s="7"/>
-      <c r="D71" s="7"/>
-      <c r="E71" s="7" t="s">
+      <c r="F71" s="7"/>
+      <c r="G71" s="7"/>
+      <c r="H71" s="7" t="s">
         <v>191</v>
       </c>
-      <c r="F71" s="7">
+      <c r="I71" s="7">
         <v>29</v>
       </c>
-      <c r="G71" s="7"/>
-      <c r="H71" s="7"/>
-    </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="J71" s="7"/>
+      <c r="K71" s="7"/>
+    </row>
+    <row r="72" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A72" s="7"/>
       <c r="B72" s="7"/>
-      <c r="C72" s="7"/>
-      <c r="D72" s="7"/>
-      <c r="E72" s="7" t="s">
+      <c r="F72" s="7"/>
+      <c r="G72" s="7"/>
+      <c r="H72" s="7" t="s">
         <v>192</v>
       </c>
-      <c r="F72" s="7">
+      <c r="I72" s="7">
         <v>1314</v>
       </c>
-      <c r="G72" s="7"/>
-      <c r="H72" s="7"/>
-    </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="J72" s="7"/>
+      <c r="K72" s="7"/>
+    </row>
+    <row r="73" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A73" s="7"/>
       <c r="B73" s="7"/>
-      <c r="C73" s="7"/>
-      <c r="D73" s="7"/>
-      <c r="E73" s="7"/>
       <c r="F73" s="7"/>
       <c r="G73" s="7"/>
       <c r="H73" s="7"/>
-    </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I73" s="7"/>
+      <c r="J73" s="7"/>
+      <c r="K73" s="7"/>
+    </row>
+    <row r="74" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A74" s="7"/>
       <c r="B74" s="7"/>
-      <c r="C74" s="7"/>
-      <c r="D74" s="7"/>
-      <c r="E74" s="7" t="s">
+      <c r="F74" s="7"/>
+      <c r="G74" s="7"/>
+      <c r="H74" s="7" t="s">
         <v>194</v>
       </c>
-      <c r="F74" s="7">
+      <c r="I74" s="7">
         <v>7495</v>
       </c>
-      <c r="G74" s="7"/>
-      <c r="H74" s="7"/>
-    </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="J74" s="7"/>
+      <c r="K74" s="7"/>
+    </row>
+    <row r="75" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A75" s="7"/>
       <c r="B75" s="7"/>
-      <c r="C75" s="7"/>
-      <c r="D75" s="7"/>
-      <c r="E75" s="7" t="s">
+      <c r="F75" s="7"/>
+      <c r="G75" s="7"/>
+      <c r="H75" s="7" t="s">
         <v>195</v>
       </c>
-      <c r="F75" s="7">
+      <c r="I75" s="7">
         <v>11</v>
       </c>
-      <c r="G75" s="7"/>
-      <c r="H75" s="7"/>
-    </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="J75" s="7"/>
+      <c r="K75" s="7"/>
+    </row>
+    <row r="76" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A76" s="7"/>
       <c r="B76" s="7"/>
-      <c r="C76" s="7"/>
-      <c r="D76" s="7"/>
-      <c r="E76" s="7" t="s">
+      <c r="F76" s="7"/>
+      <c r="G76" s="7"/>
+      <c r="H76" s="7" t="s">
         <v>196</v>
       </c>
-      <c r="F76" s="7">
+      <c r="I76" s="7">
         <v>162</v>
       </c>
-      <c r="G76" s="7"/>
-      <c r="H76" s="7"/>
-    </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="J76" s="7"/>
+      <c r="K76" s="7"/>
+    </row>
+    <row r="77" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A77" s="7"/>
       <c r="B77" s="7"/>
-      <c r="C77" s="7"/>
-      <c r="D77" s="7"/>
-      <c r="E77" s="7" t="s">
+      <c r="F77" s="7"/>
+      <c r="G77" s="7"/>
+      <c r="H77" s="7" t="s">
         <v>197</v>
       </c>
-      <c r="F77" s="7">
+      <c r="I77" s="7">
         <v>6243</v>
       </c>
-      <c r="G77" s="7"/>
-      <c r="H77" s="7"/>
-    </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="J77" s="7"/>
+      <c r="K77" s="7"/>
+    </row>
+    <row r="78" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A78" s="7"/>
       <c r="B78" s="7"/>
-      <c r="C78" s="7"/>
-      <c r="D78" s="7"/>
-      <c r="E78" s="7" t="s">
+      <c r="F78" s="7"/>
+      <c r="G78" s="7"/>
+      <c r="H78" s="7" t="s">
         <v>198</v>
       </c>
-      <c r="F78" s="7">
+      <c r="I78" s="7">
         <v>93836</v>
       </c>
-      <c r="G78" s="7"/>
-      <c r="H78" s="7"/>
-    </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="J78" s="7"/>
+      <c r="K78" s="7"/>
+    </row>
+    <row r="79" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A79" s="7"/>
       <c r="B79" s="7"/>
-      <c r="C79" s="7"/>
-      <c r="D79" s="7"/>
-      <c r="E79" s="7" t="s">
+      <c r="F79" s="7"/>
+      <c r="G79" s="7"/>
+      <c r="H79" s="7" t="s">
         <v>199</v>
       </c>
-      <c r="F79" s="7">
+      <c r="I79" s="7">
         <v>93293</v>
       </c>
-      <c r="G79" s="7"/>
-      <c r="H79" s="7"/>
-    </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="J79" s="7"/>
+      <c r="K79" s="7"/>
+    </row>
+    <row r="80" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A80" s="7"/>
       <c r="B80" s="7"/>
-      <c r="C80" s="7"/>
-      <c r="D80" s="7"/>
-      <c r="E80" s="7" t="s">
+      <c r="F80" s="7"/>
+      <c r="G80" s="7"/>
+      <c r="H80" s="7" t="s">
         <v>200</v>
       </c>
-      <c r="F80" s="7">
+      <c r="I80" s="7">
         <v>2113</v>
       </c>
-      <c r="G80" s="7"/>
-      <c r="H80" s="7"/>
-    </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="J80" s="7"/>
+      <c r="K80" s="7"/>
+    </row>
+    <row r="81" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A81" s="7"/>
       <c r="B81" s="7"/>
-      <c r="C81" s="7"/>
-      <c r="D81" s="7"/>
-      <c r="E81" s="7" t="s">
+      <c r="F81" s="7"/>
+      <c r="G81" s="7"/>
+      <c r="H81" s="7" t="s">
         <v>201</v>
       </c>
-      <c r="F81" s="7">
+      <c r="I81" s="7">
         <v>4102</v>
       </c>
-      <c r="G81" s="7"/>
-      <c r="H81" s="7"/>
+      <c r="J81" s="7"/>
+      <c r="K81" s="7"/>
+    </row>
+    <row r="89" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="C89" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="D89" s="7"/>
+      <c r="E89" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="C90" s="7">
+        <v>2</v>
+      </c>
+      <c r="D90" s="7"/>
+      <c r="E90" s="7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="91" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="C91" s="7">
+        <v>3</v>
+      </c>
+      <c r="D91" s="7"/>
+      <c r="E91" s="7">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="92" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="C92" s="7">
+        <v>4</v>
+      </c>
+      <c r="D92" s="7"/>
+      <c r="E92" s="7">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="93" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="C93" s="7">
+        <v>5</v>
+      </c>
+      <c r="D93" s="7"/>
+      <c r="E93" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="94" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="C94" s="7">
+        <v>6</v>
+      </c>
+      <c r="D94" s="7"/>
+      <c r="E94" s="7">
+        <v>2914</v>
+      </c>
+    </row>
+    <row r="95" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="C95" s="7">
+        <v>7</v>
+      </c>
+      <c r="D95" s="7"/>
+      <c r="E95" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="C96" s="7">
+        <v>9</v>
+      </c>
+      <c r="D96" s="7"/>
+      <c r="E96" s="7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="97" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C97" s="7">
+        <v>10</v>
+      </c>
+      <c r="D97" s="7"/>
+      <c r="E97" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="98" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C98" s="7">
+        <v>11</v>
+      </c>
+      <c r="D98" s="7"/>
+      <c r="E98" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="99" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C99" s="7">
+        <v>12</v>
+      </c>
+      <c r="D99" s="7"/>
+      <c r="E99" s="7">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="100" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C100" s="25">
+        <v>13</v>
+      </c>
+      <c r="D100" s="25"/>
+      <c r="E100" s="25">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="101" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C101" s="7">
+        <v>14</v>
+      </c>
+      <c r="D101" s="7"/>
+      <c r="E101" s="7">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="102" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C102" s="7">
+        <v>15</v>
+      </c>
+      <c r="D102" s="7"/>
+      <c r="E102" s="7">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="103" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C103" s="7">
+        <v>16</v>
+      </c>
+      <c r="D103" s="7"/>
+      <c r="E103" s="7">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="104" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C104" s="7">
+        <v>17</v>
+      </c>
+      <c r="D104" s="7"/>
+      <c r="E104" s="7">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="105" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C105" s="7">
+        <v>18</v>
+      </c>
+      <c r="D105" s="7"/>
+      <c r="E105" s="7">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="106" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C106" s="7">
+        <v>19</v>
+      </c>
+      <c r="D106" s="7"/>
+      <c r="E106" s="7">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="107" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C107" s="7">
+        <v>20</v>
+      </c>
+      <c r="D107" s="7"/>
+      <c r="E107" s="7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="108" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C108" s="7">
+        <v>21</v>
+      </c>
+      <c r="D108" s="7"/>
+      <c r="E108" s="7">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="109" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C109" s="7">
+        <v>22</v>
+      </c>
+      <c r="D109" s="7"/>
+      <c r="E109" s="7">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="110" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C110" s="7">
+        <v>23</v>
+      </c>
+      <c r="D110" s="7"/>
+      <c r="E110" s="7">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="111" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C111" s="7">
+        <v>24</v>
+      </c>
+      <c r="D111" s="7"/>
+      <c r="E111" s="7">
+        <v>1697</v>
+      </c>
+    </row>
+    <row r="112" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C112" s="7">
+        <v>25</v>
+      </c>
+      <c r="D112" s="7"/>
+      <c r="E112" s="7">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="113" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C113" s="7">
+        <v>26</v>
+      </c>
+      <c r="D113" s="7"/>
+      <c r="E113" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="114" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C114" s="7">
+        <v>27</v>
+      </c>
+      <c r="D114" s="7"/>
+      <c r="E114" s="7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="115" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C115" s="7">
+        <v>28</v>
+      </c>
+      <c r="D115" s="7"/>
+      <c r="E115" s="7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="116" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C116" s="7">
+        <v>29</v>
+      </c>
+      <c r="D116" s="7"/>
+      <c r="E116" s="7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="117" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C117" s="7">
+        <v>30</v>
+      </c>
+      <c r="D117" s="7"/>
+      <c r="E117" s="7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="118" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C118" s="7">
+        <v>31</v>
+      </c>
+      <c r="D118" s="7"/>
+      <c r="E118" s="7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="119" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C119" s="7">
+        <v>32</v>
+      </c>
+      <c r="D119" s="7"/>
+      <c r="E119" s="7">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="120" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C120" s="7">
+        <v>33</v>
+      </c>
+      <c r="D120" s="7"/>
+      <c r="E120" s="7">
+        <v>26997</v>
+      </c>
+    </row>
+    <row r="121" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C121" s="7">
+        <v>35</v>
+      </c>
+      <c r="D121" s="7"/>
+      <c r="E121" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="122" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C122" s="7">
+        <v>37</v>
+      </c>
+      <c r="D122" s="7"/>
+      <c r="E122" s="7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="123" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C123" s="7">
+        <v>38</v>
+      </c>
+      <c r="D123" s="7"/>
+      <c r="E123" s="7">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="124" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C124" s="7">
+        <v>39</v>
+      </c>
+      <c r="D124" s="7"/>
+      <c r="E124" s="7">
+        <v>10605</v>
+      </c>
+    </row>
+    <row r="125" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C125" s="7">
+        <v>40</v>
+      </c>
+      <c r="D125" s="7"/>
+      <c r="E125" s="7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="126" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C126" s="7">
+        <v>41</v>
+      </c>
+      <c r="D126" s="7"/>
+      <c r="E126" s="7">
+        <v>5385</v>
+      </c>
+    </row>
+    <row r="127" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C127" s="7">
+        <v>42</v>
+      </c>
+      <c r="D127" s="7"/>
+      <c r="E127" s="7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="128" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C128" s="7">
+        <v>43</v>
+      </c>
+      <c r="D128" s="7"/>
+      <c r="E128" s="7">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="129" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C129" s="7">
+        <v>44</v>
+      </c>
+      <c r="D129" s="7"/>
+      <c r="E129" s="7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="130" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C130" s="7">
+        <v>45</v>
+      </c>
+      <c r="D130" s="7"/>
+      <c r="E130" s="7">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="131" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C131" s="7">
+        <v>46</v>
+      </c>
+      <c r="D131" s="7"/>
+      <c r="E131" s="7">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="132" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C132" s="7">
+        <v>47</v>
+      </c>
+      <c r="D132" s="7"/>
+      <c r="E132" s="7">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="133" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C133" s="7">
+        <v>48</v>
+      </c>
+      <c r="D133" s="7"/>
+      <c r="E133" s="7">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="134" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C134" s="7">
+        <v>49</v>
+      </c>
+      <c r="D134" s="7"/>
+      <c r="E134" s="7">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="135" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C135" s="7">
+        <v>50</v>
+      </c>
+      <c r="D135" s="7"/>
+      <c r="E135" s="7">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="136" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C136" s="7">
+        <v>51</v>
+      </c>
+      <c r="D136" s="7"/>
+      <c r="E136" s="7">
+        <v>34857</v>
+      </c>
+    </row>
+    <row r="137" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C137" s="7">
+        <v>52</v>
+      </c>
+      <c r="D137" s="7"/>
+      <c r="E137" s="7">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="138" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C138" s="7">
+        <v>53</v>
+      </c>
+      <c r="D138" s="7"/>
+      <c r="E138" s="7">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="139" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C139" s="7">
+        <v>54</v>
+      </c>
+      <c r="D139" s="7"/>
+      <c r="E139" s="7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="140" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C140" s="7">
+        <v>55</v>
+      </c>
+      <c r="D140" s="7"/>
+      <c r="E140" s="7">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="141" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C141" s="7">
+        <v>56</v>
+      </c>
+      <c r="D141" s="7"/>
+      <c r="E141" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="142" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C142" s="7">
+        <v>57</v>
+      </c>
+      <c r="D142" s="7"/>
+      <c r="E142" s="7">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="143" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C143" s="7">
+        <v>58</v>
+      </c>
+      <c r="D143" s="7"/>
+      <c r="E143" s="7">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="144" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C144" s="7">
+        <v>59</v>
+      </c>
+      <c r="D144" s="7"/>
+      <c r="E144" s="7">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="145" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C145" s="7">
+        <v>60</v>
+      </c>
+      <c r="D145" s="7"/>
+      <c r="E145" s="7">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="146" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C146" s="7">
+        <v>61</v>
+      </c>
+      <c r="D146" s="7"/>
+      <c r="E146" s="7">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="147" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C147" s="7">
+        <v>62</v>
+      </c>
+      <c r="D147" s="7"/>
+      <c r="E147" s="7">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="148" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C148" s="7">
+        <v>63</v>
+      </c>
+      <c r="D148" s="7"/>
+      <c r="E148" s="7">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="149" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C149" s="7">
+        <v>64</v>
+      </c>
+      <c r="D149" s="7"/>
+      <c r="E149" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="150" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C150" s="7">
+        <v>65</v>
+      </c>
+      <c r="D150" s="7"/>
+      <c r="E150" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="151" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C151" s="7">
+        <v>66</v>
+      </c>
+      <c r="D151" s="7"/>
+      <c r="E151" s="7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="152" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C152" s="7">
+        <v>67</v>
+      </c>
+      <c r="D152" s="7"/>
+      <c r="E152" s="7">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="153" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C153" s="7">
+        <v>69</v>
+      </c>
+      <c r="D153" s="7"/>
+      <c r="E153" s="7">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="154" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C154" s="7">
+        <v>70</v>
+      </c>
+      <c r="D154" s="7"/>
+      <c r="E154" s="7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="155" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C155" s="7">
+        <v>71</v>
+      </c>
+      <c r="D155" s="7"/>
+      <c r="E155" s="7">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="156" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C156" s="7">
+        <v>72</v>
+      </c>
+      <c r="D156" s="7"/>
+      <c r="E156" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="157" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C157" s="7">
+        <v>73</v>
+      </c>
+      <c r="D157" s="7"/>
+      <c r="E157" s="7">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="158" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C158" s="7">
+        <v>74</v>
+      </c>
+      <c r="D158" s="7"/>
+      <c r="E158" s="7">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="159" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C159" s="7">
+        <v>75</v>
+      </c>
+      <c r="D159" s="7"/>
+      <c r="E159" s="7">
+        <v>10312</v>
+      </c>
+    </row>
+    <row r="160" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C160" s="7">
+        <v>76</v>
+      </c>
+      <c r="D160" s="7"/>
+      <c r="E160" s="7">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="162" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C162" s="7">
+        <v>78</v>
+      </c>
+      <c r="D162" s="7"/>
+      <c r="E162" s="7">
+        <v>15789</v>
+      </c>
+    </row>
+    <row r="163" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C163" s="7">
+        <v>79</v>
+      </c>
+      <c r="D163" s="7"/>
+      <c r="E163" s="7">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="164" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C164">
+        <v>80</v>
+      </c>
+      <c r="E164">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="165" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C165">
+        <v>95</v>
+      </c>
+      <c r="E165">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="166" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C166">
+        <v>96</v>
+      </c>
+      <c r="E166">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="167" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C167">
+        <v>107</v>
+      </c>
+      <c r="E167">
+        <v>6</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
-    <mergeCell ref="G2:H2"/>
-    <mergeCell ref="G1:H1"/>
+  <mergeCells count="10">
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="J1:K1"/>
     <mergeCell ref="A2:B2"/>
-    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="F2:G2"/>
     <mergeCell ref="A1:B1"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="C2:E2"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A1" r:id="rId1" xr:uid="{0D738BAF-AAB9-3346-BBBB-ABD5E982D61E}"/>
-    <hyperlink ref="C1" r:id="rId2" xr:uid="{50AB5750-D1F8-9544-A1F0-719619171F2F}"/>
-    <hyperlink ref="E1" r:id="rId3" xr:uid="{80D5C342-2BAE-CD48-A05C-797A34B2264E}"/>
+    <hyperlink ref="F1" r:id="rId2" xr:uid="{50AB5750-D1F8-9544-A1F0-719619171F2F}"/>
+    <hyperlink ref="H1" r:id="rId3" xr:uid="{80D5C342-2BAE-CD48-A05C-797A34B2264E}"/>
+    <hyperlink ref="C1" r:id="rId4" xr:uid="{8C9DBCF1-533A-654A-90A7-B70EF3937EC0}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="45" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
-  <legacyDrawing r:id="rId4"/>
+  <legacyDrawing r:id="rId5"/>
 </worksheet>
 </file>
 

--- a/docs/my-data-sources.xlsx
+++ b/docs/my-data-sources.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/marcus/workspaces/map-projects/docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4C946B7-3A23-F14E-92B3-6A0E2C45BA4B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9840547D-1B19-C249-AE6F-9EAF0F5D909A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="16600" xr2:uid="{3BF390CE-C12E-484B-96AF-096A292A0E54}"/>
+    <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="16600" activeTab="1" xr2:uid="{3BF390CE-C12E-484B-96AF-096A292A0E54}"/>
   </bookViews>
   <sheets>
     <sheet name="sources" sheetId="1" r:id="rId1"/>
@@ -1313,7 +1313,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D145023A-E6CB-0D44-A70A-F13ED2507778}">
   <dimension ref="A1:H42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+    <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="A28" sqref="A28"/>
     </sheetView>
   </sheetViews>
@@ -1735,9 +1735,9 @@
   </sheetPr>
   <dimension ref="A1:K167"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
       <pane ySplit="6" topLeftCell="A46" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F62" sqref="F62"/>
+      <selection pane="bottomLeft" activeCell="K62" sqref="K62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2896,7 +2896,9 @@
       <c r="J62" s="7" t="s">
         <v>214</v>
       </c>
-      <c r="K62" s="7"/>
+      <c r="K62" s="7">
+        <v>8556</v>
+      </c>
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A63" s="7" t="s">

--- a/docs/my-data-sources.xlsx
+++ b/docs/my-data-sources.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/marcus/workspaces/map-projects/docs/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/data/_WORK/map-projects/docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4C946B7-3A23-F14E-92B3-6A0E2C45BA4B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{298BD16D-651E-414D-AB1C-8F46B4CD26B6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="16600" xr2:uid="{3BF390CE-C12E-484B-96AF-096A292A0E54}"/>
   </bookViews>
@@ -55,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="321" uniqueCount="230">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="323" uniqueCount="232">
   <si>
     <t>ZBGIS</t>
   </si>
@@ -745,6 +745,12 @@
   </si>
   <si>
     <t>11.10.2017</t>
+  </si>
+  <si>
+    <t>https://dmr5.tiles.freemap.sk/{z}/{x}/{y}.png</t>
+  </si>
+  <si>
+    <t>Freemap.sk</t>
   </si>
 </sst>
 </file>
@@ -1311,10 +1317,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D145023A-E6CB-0D44-A70A-F13ED2507778}">
-  <dimension ref="A1:H42"/>
+  <dimension ref="A1:H43"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="A28" sqref="A28"/>
+      <selection activeCell="E43" sqref="E43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1700,6 +1706,14 @@
       </c>
       <c r="E42" s="1" t="s">
         <v>222</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B43" t="s">
+        <v>231</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>230</v>
       </c>
     </row>
   </sheetData>
@@ -1722,6 +1736,7 @@
     <hyperlink ref="E40" r:id="rId16" xr:uid="{BD650F2F-D669-8949-B506-BA2AC928D4F8}"/>
     <hyperlink ref="E42" r:id="rId17" xr:uid="{9036DA5E-3194-8940-8064-AE6C7459AAEB}"/>
     <hyperlink ref="E28" r:id="rId18" xr:uid="{E36F1933-82ED-E247-AC4A-F9F3F9401080}"/>
+    <hyperlink ref="E43" r:id="rId19" display="https://dmr5.tiles.freemap.sk/%7Bz%7D/%7Bx%7D/%7By%7D.png" xr:uid="{EC35D1C4-1C2F-374C-8AD8-D9E2B3414C7B}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>

--- a/docs/my-data-sources.xlsx
+++ b/docs/my-data-sources.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/data/_WORK/map-projects/docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{298BD16D-651E-414D-AB1C-8F46B4CD26B6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37F946F9-71A2-7B48-A7F1-2B2090943832}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="16600" xr2:uid="{3BF390CE-C12E-484B-96AF-096A292A0E54}"/>
+    <workbookView xWindow="380" yWindow="460" windowWidth="40880" windowHeight="16600" xr2:uid="{3BF390CE-C12E-484B-96AF-096A292A0E54}"/>
   </bookViews>
   <sheets>
     <sheet name="sources" sheetId="1" r:id="rId1"/>
@@ -55,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="323" uniqueCount="232">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="334" uniqueCount="240">
   <si>
     <t>ZBGIS</t>
   </si>
@@ -751,6 +751,30 @@
   </si>
   <si>
     <t>Freemap.sk</t>
+  </si>
+  <si>
+    <t>Kataster</t>
+  </si>
+  <si>
+    <t>﻿kataster.skgeodesy.sk</t>
+  </si>
+  <si>
+    <t>https://kataster.skgeodesy.sk/eskn/services/NR/kn_wms_orto/MapServer/WmsServer?version=2.0.0&amp;service=WMS&amp;request=GetCapabilities</t>
+  </si>
+  <si>
+    <t>Katalóg</t>
+  </si>
+  <si>
+    <t>https://zbgis.skgeodesy.sk/geoportal/catalog/search/browse/browse.page</t>
+  </si>
+  <si>
+    <t>https://inspire.skgeodesy.sk/eskn/rest/services/INSPIREWMS/kn_wms_inspire/MapServer/exts/InspireView/service?VERSION=1.3.0&amp;SERVICE=WMS&amp;REQUEST=getcapabilities</t>
+  </si>
+  <si>
+    <t>necitatelne cisla parcil</t>
+  </si>
+  <si>
+    <t>Kompletne mapy</t>
   </si>
 </sst>
 </file>
@@ -893,7 +917,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -987,6 +1011,8 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1317,10 +1343,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D145023A-E6CB-0D44-A70A-F13ED2507778}">
-  <dimension ref="A1:H43"/>
+  <dimension ref="A1:H51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="E43" sqref="E43"/>
+    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
+      <selection activeCell="B51" sqref="B51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1352,158 +1378,131 @@
         <v>33</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+    <row r="2" spans="1:8" s="43" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="43" t="s">
+        <v>235</v>
+      </c>
+      <c r="E2" s="44" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" s="43" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
         <v>8</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B4" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" t="s">
-        <v>1</v>
-      </c>
-      <c r="E3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A4" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
       <c r="E4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="G4">
-        <v>79</v>
-      </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B5" t="s">
         <v>1</v>
       </c>
       <c r="E5" t="s">
-        <v>10</v>
-      </c>
-      <c r="G5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A6" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G6">
         <v>79</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="F7" t="s">
-        <v>27</v>
-      </c>
-      <c r="G7" s="4" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="E8" s="1"/>
+        <v>1</v>
+      </c>
+      <c r="E7" t="s">
+        <v>10</v>
+      </c>
+      <c r="G7">
+        <v>79</v>
+      </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="B9" t="s">
-        <v>1</v>
-      </c>
-      <c r="E9" t="s">
-        <v>16</v>
-      </c>
-      <c r="G9">
-        <v>9</v>
+        <v>23</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F9" t="s">
+        <v>27</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A10" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="G10">
-        <v>9</v>
-      </c>
+      <c r="E10" s="1"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>15</v>
       </c>
       <c r="B11" t="s">
-        <v>14</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F11" t="s">
-        <v>22</v>
+        <v>1</v>
+      </c>
+      <c r="E11" t="s">
+        <v>16</v>
       </c>
       <c r="G11">
         <v>9</v>
       </c>
     </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A12" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G12">
+        <v>9</v>
+      </c>
+    </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B13" t="s">
-        <v>1</v>
-      </c>
-      <c r="E13" t="s">
-        <v>19</v>
-      </c>
-      <c r="F13" s="4" t="s">
-        <v>20</v>
+        <v>14</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F13" t="s">
+        <v>22</v>
       </c>
       <c r="G13">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A14" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F14" t="s">
-        <v>18</v>
-      </c>
-      <c r="G14">
         <v>9</v>
       </c>
     </row>
@@ -1512,41 +1511,52 @@
         <v>17</v>
       </c>
       <c r="B15" t="s">
-        <v>14</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F15" t="s">
-        <v>21</v>
+        <v>1</v>
+      </c>
+      <c r="E15" t="s">
+        <v>19</v>
+      </c>
+      <c r="F15" s="4" t="s">
+        <v>20</v>
       </c>
       <c r="G15">
         <v>14</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
-        <v>28</v>
-      </c>
-      <c r="B18" t="s">
-        <v>30</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="H18" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
-        <v>28</v>
-      </c>
-      <c r="B19" t="s">
-        <v>30</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>36</v>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A16" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F16" t="s">
+        <v>18</v>
+      </c>
+      <c r="G16">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>17</v>
+      </c>
+      <c r="B17" t="s">
+        <v>14</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F17" t="s">
+        <v>21</v>
+      </c>
+      <c r="G17">
+        <v>14</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.2">
@@ -1554,35 +1564,38 @@
         <v>28</v>
       </c>
       <c r="B20" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="H20" s="5" t="s">
-        <v>34</v>
+        <v>29</v>
+      </c>
+      <c r="H20" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>28</v>
+      </c>
+      <c r="B21" t="s">
+        <v>30</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="B22" t="s">
-        <v>54</v>
+        <v>32</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
-        <v>37</v>
-      </c>
-      <c r="B23" t="s">
-        <v>1</v>
-      </c>
-      <c r="E23" t="s">
-        <v>53</v>
+        <v>31</v>
+      </c>
+      <c r="H22" s="5" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.2">
@@ -1590,153 +1603,211 @@
         <v>37</v>
       </c>
       <c r="B24" t="s">
-        <v>39</v>
+        <v>54</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>38</v>
+        <v>55</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>37</v>
+      </c>
+      <c r="B25" t="s">
+        <v>1</v>
+      </c>
+      <c r="E25" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B26" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
+        <v>40</v>
+      </c>
+      <c r="B28" t="s">
+        <v>42</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
         <v>56</v>
       </c>
-      <c r="B28" t="s">
+      <c r="B30" t="s">
         <v>228</v>
       </c>
-      <c r="C28" t="s">
+      <c r="C30" t="s">
         <v>229</v>
       </c>
-      <c r="E28" s="1" t="s">
+      <c r="E30" s="1" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A29" t="s">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
         <v>56</v>
       </c>
-      <c r="B29" t="s">
+      <c r="B31" t="s">
         <v>1</v>
       </c>
-      <c r="E29" t="s">
+      <c r="E31" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="E30" t="s">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="E32" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="E31" t="s">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="E33" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B32" t="s">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B34" t="s">
         <v>0</v>
       </c>
-      <c r="D32" t="s">
+      <c r="D34" t="s">
         <v>45</v>
       </c>
-      <c r="E32" s="1" t="s">
+      <c r="E34" s="1" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="D33" t="s">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="D35" t="s">
         <v>48</v>
       </c>
-      <c r="E33" t="s">
+      <c r="E35" t="s">
         <v>47</v>
       </c>
-      <c r="H33" s="5" t="s">
+      <c r="H35" s="5" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A37" t="s">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
         <v>50</v>
       </c>
-      <c r="B37" t="s">
+      <c r="B39" t="s">
         <v>51</v>
       </c>
-      <c r="E37" s="1" t="s">
+      <c r="E39" s="1" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A40" t="s">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
         <v>217</v>
       </c>
-      <c r="B40" t="s">
+      <c r="B42" t="s">
         <v>216</v>
       </c>
-      <c r="D40" t="s">
+      <c r="D42" t="s">
         <v>220</v>
       </c>
-      <c r="E40" s="1" t="s">
+      <c r="E42" s="1" t="s">
         <v>215</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B41" t="s">
-        <v>221</v>
-      </c>
-      <c r="D41" t="s">
-        <v>219</v>
-      </c>
-      <c r="E41" s="1" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B42" t="s">
-        <v>223</v>
-      </c>
-      <c r="E42" s="1" t="s">
-        <v>222</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B43" t="s">
+        <v>221</v>
+      </c>
+      <c r="D43" t="s">
+        <v>219</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B44" t="s">
+        <v>223</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B45" t="s">
         <v>231</v>
       </c>
-      <c r="E43" s="1" t="s">
+      <c r="E45" s="1" t="s">
         <v>230</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>232</v>
+      </c>
+      <c r="B47" t="s">
+        <v>233</v>
+      </c>
+      <c r="D47" t="s">
+        <v>219</v>
+      </c>
+      <c r="E47" s="1" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B48" t="s">
+        <v>51</v>
+      </c>
+      <c r="D48" t="s">
+        <v>219</v>
+      </c>
+      <c r="E48" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="H48" s="5" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
+        <v>239</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E2" r:id="rId1" xr:uid="{1378A383-BCFD-774C-AFDE-3C36F7E79B63}"/>
-    <hyperlink ref="E4" r:id="rId2" xr:uid="{FC5AFED1-EB90-E541-AA49-936275CC6A91}"/>
-    <hyperlink ref="E10" r:id="rId3" xr:uid="{E70F5BF2-71A7-C842-9F00-ABE2B2C5010E}"/>
-    <hyperlink ref="E11" r:id="rId4" xr:uid="{2324190B-152C-1543-969E-C2A773B2C03E}"/>
-    <hyperlink ref="E15" r:id="rId5" xr:uid="{1D3E1105-D8DF-7B4C-8EE2-9893C49D41BB}"/>
-    <hyperlink ref="E14" r:id="rId6" xr:uid="{A440AA3A-84CC-A74B-A82B-BBFF3238D675}"/>
-    <hyperlink ref="E7" r:id="rId7" xr:uid="{4F969F5D-E8F9-1B4D-A0DC-738A8A85EAF7}"/>
-    <hyperlink ref="E18" r:id="rId8" xr:uid="{CB258ED5-38B0-1F48-8A6E-BF703B6A4CF7}"/>
-    <hyperlink ref="E20" r:id="rId9" xr:uid="{4D494DE6-DB31-E44E-B3CE-04EEF9DC44E0}"/>
-    <hyperlink ref="E19" r:id="rId10" xr:uid="{53BE28E0-BC80-1041-9EA9-AB5B6B83EC8E}"/>
-    <hyperlink ref="E24" r:id="rId11" xr:uid="{408A6DAC-F82F-4948-807B-3D199868A8E8}"/>
-    <hyperlink ref="E26" r:id="rId12" xr:uid="{DC132F90-70FB-C243-97B4-1C08022007DB}"/>
-    <hyperlink ref="E32" r:id="rId13" location="geograficky_nazov.shp" xr:uid="{5F00CEA7-69F7-8347-94E1-ED05B74211DD}"/>
-    <hyperlink ref="E37" r:id="rId14" xr:uid="{A7D7477F-0763-CF48-A9CD-37AABE8A49FC}"/>
-    <hyperlink ref="E22" r:id="rId15" xr:uid="{A1F6AAD2-903C-CB4D-9DAE-8F39A874538B}"/>
-    <hyperlink ref="E40" r:id="rId16" xr:uid="{BD650F2F-D669-8949-B506-BA2AC928D4F8}"/>
-    <hyperlink ref="E42" r:id="rId17" xr:uid="{9036DA5E-3194-8940-8064-AE6C7459AAEB}"/>
-    <hyperlink ref="E28" r:id="rId18" xr:uid="{E36F1933-82ED-E247-AC4A-F9F3F9401080}"/>
-    <hyperlink ref="E43" r:id="rId19" display="https://dmr5.tiles.freemap.sk/%7Bz%7D/%7Bx%7D/%7By%7D.png" xr:uid="{EC35D1C4-1C2F-374C-8AD8-D9E2B3414C7B}"/>
+    <hyperlink ref="E4" r:id="rId1" xr:uid="{1378A383-BCFD-774C-AFDE-3C36F7E79B63}"/>
+    <hyperlink ref="E6" r:id="rId2" xr:uid="{FC5AFED1-EB90-E541-AA49-936275CC6A91}"/>
+    <hyperlink ref="E12" r:id="rId3" xr:uid="{E70F5BF2-71A7-C842-9F00-ABE2B2C5010E}"/>
+    <hyperlink ref="E13" r:id="rId4" xr:uid="{2324190B-152C-1543-969E-C2A773B2C03E}"/>
+    <hyperlink ref="E17" r:id="rId5" xr:uid="{1D3E1105-D8DF-7B4C-8EE2-9893C49D41BB}"/>
+    <hyperlink ref="E16" r:id="rId6" xr:uid="{A440AA3A-84CC-A74B-A82B-BBFF3238D675}"/>
+    <hyperlink ref="E9" r:id="rId7" xr:uid="{4F969F5D-E8F9-1B4D-A0DC-738A8A85EAF7}"/>
+    <hyperlink ref="E20" r:id="rId8" xr:uid="{CB258ED5-38B0-1F48-8A6E-BF703B6A4CF7}"/>
+    <hyperlink ref="E22" r:id="rId9" xr:uid="{4D494DE6-DB31-E44E-B3CE-04EEF9DC44E0}"/>
+    <hyperlink ref="E21" r:id="rId10" xr:uid="{53BE28E0-BC80-1041-9EA9-AB5B6B83EC8E}"/>
+    <hyperlink ref="E26" r:id="rId11" xr:uid="{408A6DAC-F82F-4948-807B-3D199868A8E8}"/>
+    <hyperlink ref="E28" r:id="rId12" xr:uid="{DC132F90-70FB-C243-97B4-1C08022007DB}"/>
+    <hyperlink ref="E34" r:id="rId13" location="geograficky_nazov.shp" xr:uid="{5F00CEA7-69F7-8347-94E1-ED05B74211DD}"/>
+    <hyperlink ref="E39" r:id="rId14" xr:uid="{A7D7477F-0763-CF48-A9CD-37AABE8A49FC}"/>
+    <hyperlink ref="E24" r:id="rId15" xr:uid="{A1F6AAD2-903C-CB4D-9DAE-8F39A874538B}"/>
+    <hyperlink ref="E42" r:id="rId16" xr:uid="{BD650F2F-D669-8949-B506-BA2AC928D4F8}"/>
+    <hyperlink ref="E44" r:id="rId17" xr:uid="{9036DA5E-3194-8940-8064-AE6C7459AAEB}"/>
+    <hyperlink ref="E30" r:id="rId18" xr:uid="{E36F1933-82ED-E247-AC4A-F9F3F9401080}"/>
+    <hyperlink ref="E45" r:id="rId19" display="https://dmr5.tiles.freemap.sk/%7Bz%7D/%7Bx%7D/%7By%7D.png" xr:uid="{EC35D1C4-1C2F-374C-8AD8-D9E2B3414C7B}"/>
+    <hyperlink ref="E47" r:id="rId20" xr:uid="{E40BF318-1C52-144A-95CE-70B8E3B21E69}"/>
+    <hyperlink ref="E2" r:id="rId21" xr:uid="{2E0CA0A4-F717-A94C-B19A-435B5A185AB9}"/>
+    <hyperlink ref="E48" r:id="rId22" xr:uid="{6B6DC2B4-A81F-0E4A-9143-BE79059A757D}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>

--- a/docs/my-data-sources.xlsx
+++ b/docs/my-data-sources.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/data/_WORK/map-projects/docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37F946F9-71A2-7B48-A7F1-2B2090943832}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8D3FA96-A0BD-9246-92CC-9DE69C09110C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="460" windowWidth="40880" windowHeight="16600" xr2:uid="{3BF390CE-C12E-484B-96AF-096A292A0E54}"/>
+    <workbookView xWindow="10980" yWindow="460" windowWidth="46940" windowHeight="16600" xr2:uid="{3BF390CE-C12E-484B-96AF-096A292A0E54}"/>
   </bookViews>
   <sheets>
     <sheet name="sources" sheetId="1" r:id="rId1"/>
@@ -55,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="334" uniqueCount="240">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="340" uniqueCount="243">
   <si>
     <t>ZBGIS</t>
   </si>
@@ -775,6 +775,15 @@
   </si>
   <si>
     <t>Kompletne mapy</t>
+  </si>
+  <si>
+    <t>https://www.freemap.sk/~martin/dmr5/</t>
+  </si>
+  <si>
+    <t>﻿https://zbgisws.skgeodesy.sk/zbgis_vegetacia_wms/service.svc/get</t>
+  </si>
+  <si>
+    <t>vegetacia</t>
   </si>
 </sst>
 </file>
@@ -966,6 +975,8 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -1011,8 +1022,6 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1343,10 +1352,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D145023A-E6CB-0D44-A70A-F13ED2507778}">
-  <dimension ref="A1:H51"/>
+  <dimension ref="A1:H52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
-      <selection activeCell="B51" sqref="B51"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1378,15 +1387,15 @@
         <v>33</v>
       </c>
     </row>
-    <row r="2" spans="1:8" s="43" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="43" t="s">
+    <row r="2" spans="1:8" s="28" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="28" t="s">
         <v>235</v>
       </c>
-      <c r="E2" s="44" t="s">
+      <c r="E2" s="29" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="3" spans="1:8" s="43" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="3" spans="1:8" s="28" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>8</v>
@@ -1631,29 +1640,26 @@
         <v>38</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A28" t="s">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>242</v>
+      </c>
+      <c r="B27" t="s">
+        <v>0</v>
+      </c>
+      <c r="E27" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
         <v>40</v>
       </c>
-      <c r="B28" t="s">
+      <c r="B29" t="s">
         <v>42</v>
       </c>
-      <c r="E28" s="1" t="s">
+      <c r="E29" s="1" t="s">
         <v>41</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A30" t="s">
-        <v>56</v>
-      </c>
-      <c r="B30" t="s">
-        <v>228</v>
-      </c>
-      <c r="C30" t="s">
-        <v>229</v>
-      </c>
-      <c r="E30" s="1" t="s">
-        <v>227</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.2">
@@ -1661,15 +1667,24 @@
         <v>56</v>
       </c>
       <c r="B31" t="s">
+        <v>228</v>
+      </c>
+      <c r="C31" t="s">
+        <v>229</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>56</v>
+      </c>
+      <c r="B32" t="s">
         <v>1</v>
       </c>
-      <c r="E31" t="s">
+      <c r="E32" t="s">
         <v>43</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="E32" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.2">
@@ -1678,109 +1693,125 @@
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B34" t="s">
+      <c r="E34" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B35" t="s">
         <v>0</v>
       </c>
-      <c r="D34" t="s">
+      <c r="D35" t="s">
         <v>45</v>
       </c>
-      <c r="E34" s="1" t="s">
+      <c r="E35" s="1" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="D35" t="s">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="D36" t="s">
         <v>48</v>
       </c>
-      <c r="E35" t="s">
+      <c r="E36" t="s">
         <v>47</v>
       </c>
-      <c r="H35" s="5" t="s">
+      <c r="H36" s="5" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A39" t="s">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
         <v>50</v>
       </c>
-      <c r="B39" t="s">
+      <c r="B40" t="s">
         <v>51</v>
       </c>
-      <c r="E39" s="1" t="s">
+      <c r="E40" s="1" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A42" t="s">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
         <v>217</v>
       </c>
-      <c r="B42" t="s">
+      <c r="B43" t="s">
         <v>216</v>
       </c>
-      <c r="D42" t="s">
+      <c r="D43" t="s">
         <v>220</v>
       </c>
-      <c r="E42" s="1" t="s">
+      <c r="E43" s="1" t="s">
         <v>215</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B43" t="s">
-        <v>221</v>
-      </c>
-      <c r="D43" t="s">
-        <v>219</v>
-      </c>
-      <c r="E43" s="1" t="s">
-        <v>218</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B44" t="s">
-        <v>223</v>
+        <v>221</v>
+      </c>
+      <c r="D44" t="s">
+        <v>219</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B45" t="s">
+        <v>223</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B46" t="s">
         <v>231</v>
       </c>
-      <c r="E45" s="1" t="s">
+      <c r="E46" s="1" t="s">
         <v>230</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A47" t="s">
+      <c r="B47" t="s">
+        <v>231</v>
+      </c>
+      <c r="D47" t="s">
+        <v>45</v>
+      </c>
+      <c r="E47" s="1" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
         <v>232</v>
       </c>
-      <c r="B47" t="s">
+      <c r="B48" t="s">
         <v>233</v>
-      </c>
-      <c r="D47" t="s">
-        <v>219</v>
-      </c>
-      <c r="E47" s="1" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B48" t="s">
-        <v>51</v>
       </c>
       <c r="D48" t="s">
         <v>219</v>
       </c>
       <c r="E48" s="1" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B49" t="s">
+        <v>51</v>
+      </c>
+      <c r="D49" t="s">
+        <v>219</v>
+      </c>
+      <c r="E49" s="1" t="s">
         <v>237</v>
       </c>
-      <c r="H48" s="5" t="s">
+      <c r="H49" s="5" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A51" t="s">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
         <v>239</v>
       </c>
     </row>
@@ -1797,17 +1828,18 @@
     <hyperlink ref="E22" r:id="rId9" xr:uid="{4D494DE6-DB31-E44E-B3CE-04EEF9DC44E0}"/>
     <hyperlink ref="E21" r:id="rId10" xr:uid="{53BE28E0-BC80-1041-9EA9-AB5B6B83EC8E}"/>
     <hyperlink ref="E26" r:id="rId11" xr:uid="{408A6DAC-F82F-4948-807B-3D199868A8E8}"/>
-    <hyperlink ref="E28" r:id="rId12" xr:uid="{DC132F90-70FB-C243-97B4-1C08022007DB}"/>
-    <hyperlink ref="E34" r:id="rId13" location="geograficky_nazov.shp" xr:uid="{5F00CEA7-69F7-8347-94E1-ED05B74211DD}"/>
-    <hyperlink ref="E39" r:id="rId14" xr:uid="{A7D7477F-0763-CF48-A9CD-37AABE8A49FC}"/>
+    <hyperlink ref="E29" r:id="rId12" xr:uid="{DC132F90-70FB-C243-97B4-1C08022007DB}"/>
+    <hyperlink ref="E35" r:id="rId13" location="geograficky_nazov.shp" xr:uid="{5F00CEA7-69F7-8347-94E1-ED05B74211DD}"/>
+    <hyperlink ref="E40" r:id="rId14" xr:uid="{A7D7477F-0763-CF48-A9CD-37AABE8A49FC}"/>
     <hyperlink ref="E24" r:id="rId15" xr:uid="{A1F6AAD2-903C-CB4D-9DAE-8F39A874538B}"/>
-    <hyperlink ref="E42" r:id="rId16" xr:uid="{BD650F2F-D669-8949-B506-BA2AC928D4F8}"/>
-    <hyperlink ref="E44" r:id="rId17" xr:uid="{9036DA5E-3194-8940-8064-AE6C7459AAEB}"/>
-    <hyperlink ref="E30" r:id="rId18" xr:uid="{E36F1933-82ED-E247-AC4A-F9F3F9401080}"/>
-    <hyperlink ref="E45" r:id="rId19" display="https://dmr5.tiles.freemap.sk/%7Bz%7D/%7Bx%7D/%7By%7D.png" xr:uid="{EC35D1C4-1C2F-374C-8AD8-D9E2B3414C7B}"/>
-    <hyperlink ref="E47" r:id="rId20" xr:uid="{E40BF318-1C52-144A-95CE-70B8E3B21E69}"/>
+    <hyperlink ref="E43" r:id="rId16" xr:uid="{BD650F2F-D669-8949-B506-BA2AC928D4F8}"/>
+    <hyperlink ref="E45" r:id="rId17" xr:uid="{9036DA5E-3194-8940-8064-AE6C7459AAEB}"/>
+    <hyperlink ref="E31" r:id="rId18" xr:uid="{E36F1933-82ED-E247-AC4A-F9F3F9401080}"/>
+    <hyperlink ref="E46" r:id="rId19" display="https://dmr5.tiles.freemap.sk/%7Bz%7D/%7Bx%7D/%7By%7D.png" xr:uid="{EC35D1C4-1C2F-374C-8AD8-D9E2B3414C7B}"/>
+    <hyperlink ref="E48" r:id="rId20" xr:uid="{E40BF318-1C52-144A-95CE-70B8E3B21E69}"/>
     <hyperlink ref="E2" r:id="rId21" xr:uid="{2E0CA0A4-F717-A94C-B19A-435B5A185AB9}"/>
-    <hyperlink ref="E48" r:id="rId22" xr:uid="{6B6DC2B4-A81F-0E4A-9143-BE79059A757D}"/>
+    <hyperlink ref="E49" r:id="rId22" xr:uid="{6B6DC2B4-A81F-0E4A-9143-BE79059A757D}"/>
+    <hyperlink ref="E47" r:id="rId23" xr:uid="{45458083-27E6-424F-A583-90A5BB0BC36A}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
@@ -1822,7 +1854,7 @@
   <dimension ref="A1:K167"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A46" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="F62" sqref="F62"/>
     </sheetView>
   </sheetViews>
@@ -1842,48 +1874,48 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" s="10" customFormat="1" ht="56" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="33" t="s">
+      <c r="A1" s="35" t="s">
         <v>46</v>
       </c>
-      <c r="B1" s="34"/>
-      <c r="C1" s="38" t="s">
+      <c r="B1" s="36"/>
+      <c r="C1" s="40" t="s">
         <v>224</v>
       </c>
-      <c r="D1" s="39"/>
-      <c r="E1" s="40"/>
-      <c r="F1" s="33" t="s">
+      <c r="D1" s="41"/>
+      <c r="E1" s="42"/>
+      <c r="F1" s="35" t="s">
         <v>184</v>
       </c>
-      <c r="G1" s="35"/>
-      <c r="H1" s="36" t="s">
+      <c r="G1" s="37"/>
+      <c r="H1" s="38" t="s">
         <v>52</v>
       </c>
-      <c r="I1" s="37"/>
-      <c r="J1" s="29"/>
-      <c r="K1" s="30"/>
+      <c r="I1" s="39"/>
+      <c r="J1" s="31"/>
+      <c r="K1" s="32"/>
     </row>
     <row r="2" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="31" t="s">
+      <c r="A2" s="33" t="s">
         <v>58</v>
       </c>
-      <c r="B2" s="31"/>
-      <c r="C2" s="32" t="s">
+      <c r="B2" s="33"/>
+      <c r="C2" s="34" t="s">
         <v>66</v>
       </c>
-      <c r="D2" s="41"/>
-      <c r="E2" s="42"/>
-      <c r="F2" s="31" t="s">
+      <c r="D2" s="43"/>
+      <c r="E2" s="44"/>
+      <c r="F2" s="33" t="s">
         <v>124</v>
       </c>
-      <c r="G2" s="32"/>
-      <c r="H2" s="31" t="s">
+      <c r="G2" s="34"/>
+      <c r="H2" s="33" t="s">
         <v>187</v>
       </c>
-      <c r="I2" s="31"/>
-      <c r="J2" s="28" t="s">
+      <c r="I2" s="33"/>
+      <c r="J2" s="30" t="s">
         <v>209</v>
       </c>
-      <c r="K2" s="28"/>
+      <c r="K2" s="30"/>
     </row>
     <row r="3" spans="1:11" s="20" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A3" s="8" t="s">

--- a/docs/my-data-sources.xlsx
+++ b/docs/my-data-sources.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/data/_WORK/map-projects/docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8D3FA96-A0BD-9246-92CC-9DE69C09110C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48AD5A31-3814-E040-B606-1790DA572F8B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10980" yWindow="460" windowWidth="46940" windowHeight="16600" xr2:uid="{3BF390CE-C12E-484B-96AF-096A292A0E54}"/>
+    <workbookView xWindow="4260" yWindow="460" windowWidth="46940" windowHeight="16600" xr2:uid="{3BF390CE-C12E-484B-96AF-096A292A0E54}"/>
   </bookViews>
   <sheets>
     <sheet name="sources" sheetId="1" r:id="rId1"/>
@@ -55,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="340" uniqueCount="243">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="346" uniqueCount="248">
   <si>
     <t>ZBGIS</t>
   </si>
@@ -784,6 +784,21 @@
   </si>
   <si>
     <t>vegetacia</t>
+  </si>
+  <si>
+    <t>Sidla</t>
+  </si>
+  <si>
+    <t>https://zbgisws.skgeodesy.sk/zbgis_antropogenne_prvky_wms_featureinfo/service.svc/get</t>
+  </si>
+  <si>
+    <t>CLC</t>
+  </si>
+  <si>
+    <t>CLC/u2018_clc2018_v2020_20u1_geoPackage/DATA/U2018_CLC2018_V2020_20u1.gpkg</t>
+  </si>
+  <si>
+    <t>Code_18=112</t>
   </si>
 </sst>
 </file>
@@ -1352,10 +1367,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D145023A-E6CB-0D44-A70A-F13ED2507778}">
-  <dimension ref="A1:H52"/>
+  <dimension ref="A1:H55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="E27" sqref="E27"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1609,209 +1624,231 @@
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>37</v>
+        <v>243</v>
       </c>
       <c r="B24" t="s">
-        <v>54</v>
+        <v>0</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>55</v>
+        <v>244</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A25" t="s">
-        <v>37</v>
-      </c>
       <c r="B25" t="s">
-        <v>1</v>
+        <v>245</v>
       </c>
       <c r="E25" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A26" t="s">
-        <v>37</v>
-      </c>
-      <c r="B26" t="s">
-        <v>39</v>
-      </c>
-      <c r="E26" s="1" t="s">
-        <v>38</v>
+        <v>246</v>
+      </c>
+      <c r="F25" t="s">
+        <v>247</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>242</v>
+        <v>37</v>
       </c>
       <c r="B27" t="s">
-        <v>0</v>
-      </c>
-      <c r="E27" t="s">
-        <v>241</v>
+        <v>54</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>37</v>
+      </c>
+      <c r="B28" t="s">
+        <v>1</v>
+      </c>
+      <c r="E28" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B29" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A31" t="s">
-        <v>56</v>
-      </c>
-      <c r="B31" t="s">
-        <v>228</v>
-      </c>
-      <c r="C31" t="s">
-        <v>229</v>
-      </c>
-      <c r="E31" s="1" t="s">
-        <v>227</v>
+        <v>38</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>242</v>
+      </c>
+      <c r="B30" t="s">
+        <v>0</v>
+      </c>
+      <c r="E30" t="s">
+        <v>241</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
+        <v>40</v>
+      </c>
+      <c r="B32" t="s">
+        <v>42</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
         <v>56</v>
       </c>
-      <c r="B32" t="s">
+      <c r="B34" t="s">
+        <v>228</v>
+      </c>
+      <c r="C34" t="s">
+        <v>229</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>56</v>
+      </c>
+      <c r="B35" t="s">
         <v>1</v>
       </c>
-      <c r="E32" t="s">
+      <c r="E35" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="E33" t="s">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="E36" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="E34" t="s">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="E37" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B35" t="s">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B38" t="s">
         <v>0</v>
       </c>
-      <c r="D35" t="s">
+      <c r="D38" t="s">
         <v>45</v>
       </c>
-      <c r="E35" s="1" t="s">
+      <c r="E38" s="1" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="D36" t="s">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="D39" t="s">
         <v>48</v>
       </c>
-      <c r="E36" t="s">
+      <c r="E39" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="H36" s="5" t="s">
+      <c r="H39" s="5" t="s">
         <v>49</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A40" t="s">
-        <v>50</v>
-      </c>
-      <c r="B40" t="s">
-        <v>51</v>
-      </c>
-      <c r="E40" s="1" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
+        <v>50</v>
+      </c>
+      <c r="B43" t="s">
+        <v>51</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
         <v>217</v>
       </c>
-      <c r="B43" t="s">
+      <c r="B46" t="s">
         <v>216</v>
       </c>
-      <c r="D43" t="s">
+      <c r="D46" t="s">
         <v>220</v>
       </c>
-      <c r="E43" s="1" t="s">
+      <c r="E46" s="1" t="s">
         <v>215</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B44" t="s">
-        <v>221</v>
-      </c>
-      <c r="D44" t="s">
-        <v>219</v>
-      </c>
-      <c r="E44" s="1" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B45" t="s">
-        <v>223</v>
-      </c>
-      <c r="E45" s="1" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B46" t="s">
-        <v>231</v>
-      </c>
-      <c r="E46" s="1" t="s">
-        <v>230</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B47" t="s">
-        <v>231</v>
+        <v>221</v>
       </c>
       <c r="D47" t="s">
-        <v>45</v>
+        <v>219</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>240</v>
+        <v>218</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A48" t="s">
-        <v>232</v>
-      </c>
       <c r="B48" t="s">
-        <v>233</v>
-      </c>
-      <c r="D48" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>234</v>
+        <v>222</v>
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B49" t="s">
+        <v>231</v>
+      </c>
+      <c r="E49" s="1" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B50" t="s">
+        <v>231</v>
+      </c>
+      <c r="D50" t="s">
+        <v>45</v>
+      </c>
+      <c r="E50" s="1" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
+        <v>232</v>
+      </c>
+      <c r="B51" t="s">
+        <v>233</v>
+      </c>
+      <c r="D51" t="s">
+        <v>219</v>
+      </c>
+      <c r="E51" s="1" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B52" t="s">
         <v>51</v>
       </c>
-      <c r="D49" t="s">
+      <c r="D52" t="s">
         <v>219</v>
       </c>
-      <c r="E49" s="1" t="s">
+      <c r="E52" s="1" t="s">
         <v>237</v>
       </c>
-      <c r="H49" s="5" t="s">
+      <c r="H52" s="5" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A52" t="s">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A55" t="s">
         <v>239</v>
       </c>
     </row>
@@ -1827,19 +1864,21 @@
     <hyperlink ref="E20" r:id="rId8" xr:uid="{CB258ED5-38B0-1F48-8A6E-BF703B6A4CF7}"/>
     <hyperlink ref="E22" r:id="rId9" xr:uid="{4D494DE6-DB31-E44E-B3CE-04EEF9DC44E0}"/>
     <hyperlink ref="E21" r:id="rId10" xr:uid="{53BE28E0-BC80-1041-9EA9-AB5B6B83EC8E}"/>
-    <hyperlink ref="E26" r:id="rId11" xr:uid="{408A6DAC-F82F-4948-807B-3D199868A8E8}"/>
-    <hyperlink ref="E29" r:id="rId12" xr:uid="{DC132F90-70FB-C243-97B4-1C08022007DB}"/>
-    <hyperlink ref="E35" r:id="rId13" location="geograficky_nazov.shp" xr:uid="{5F00CEA7-69F7-8347-94E1-ED05B74211DD}"/>
-    <hyperlink ref="E40" r:id="rId14" xr:uid="{A7D7477F-0763-CF48-A9CD-37AABE8A49FC}"/>
-    <hyperlink ref="E24" r:id="rId15" xr:uid="{A1F6AAD2-903C-CB4D-9DAE-8F39A874538B}"/>
-    <hyperlink ref="E43" r:id="rId16" xr:uid="{BD650F2F-D669-8949-B506-BA2AC928D4F8}"/>
-    <hyperlink ref="E45" r:id="rId17" xr:uid="{9036DA5E-3194-8940-8064-AE6C7459AAEB}"/>
-    <hyperlink ref="E31" r:id="rId18" xr:uid="{E36F1933-82ED-E247-AC4A-F9F3F9401080}"/>
-    <hyperlink ref="E46" r:id="rId19" display="https://dmr5.tiles.freemap.sk/%7Bz%7D/%7Bx%7D/%7By%7D.png" xr:uid="{EC35D1C4-1C2F-374C-8AD8-D9E2B3414C7B}"/>
-    <hyperlink ref="E48" r:id="rId20" xr:uid="{E40BF318-1C52-144A-95CE-70B8E3B21E69}"/>
+    <hyperlink ref="E29" r:id="rId11" xr:uid="{408A6DAC-F82F-4948-807B-3D199868A8E8}"/>
+    <hyperlink ref="E32" r:id="rId12" xr:uid="{DC132F90-70FB-C243-97B4-1C08022007DB}"/>
+    <hyperlink ref="E38" r:id="rId13" location="geograficky_nazov.shp" xr:uid="{5F00CEA7-69F7-8347-94E1-ED05B74211DD}"/>
+    <hyperlink ref="E43" r:id="rId14" xr:uid="{A7D7477F-0763-CF48-A9CD-37AABE8A49FC}"/>
+    <hyperlink ref="E27" r:id="rId15" xr:uid="{A1F6AAD2-903C-CB4D-9DAE-8F39A874538B}"/>
+    <hyperlink ref="E46" r:id="rId16" xr:uid="{BD650F2F-D669-8949-B506-BA2AC928D4F8}"/>
+    <hyperlink ref="E48" r:id="rId17" xr:uid="{9036DA5E-3194-8940-8064-AE6C7459AAEB}"/>
+    <hyperlink ref="E34" r:id="rId18" xr:uid="{E36F1933-82ED-E247-AC4A-F9F3F9401080}"/>
+    <hyperlink ref="E49" r:id="rId19" display="https://dmr5.tiles.freemap.sk/%7Bz%7D/%7Bx%7D/%7By%7D.png" xr:uid="{EC35D1C4-1C2F-374C-8AD8-D9E2B3414C7B}"/>
+    <hyperlink ref="E51" r:id="rId20" xr:uid="{E40BF318-1C52-144A-95CE-70B8E3B21E69}"/>
     <hyperlink ref="E2" r:id="rId21" xr:uid="{2E0CA0A4-F717-A94C-B19A-435B5A185AB9}"/>
-    <hyperlink ref="E49" r:id="rId22" xr:uid="{6B6DC2B4-A81F-0E4A-9143-BE79059A757D}"/>
-    <hyperlink ref="E47" r:id="rId23" xr:uid="{45458083-27E6-424F-A583-90A5BB0BC36A}"/>
+    <hyperlink ref="E52" r:id="rId22" xr:uid="{6B6DC2B4-A81F-0E4A-9143-BE79059A757D}"/>
+    <hyperlink ref="E50" r:id="rId23" xr:uid="{45458083-27E6-424F-A583-90A5BB0BC36A}"/>
+    <hyperlink ref="E39" r:id="rId24" xr:uid="{3E636B62-42C1-924F-9629-4E95BA02B7D0}"/>
+    <hyperlink ref="E24" r:id="rId25" xr:uid="{C55508BF-51C9-B743-8950-8216B1C6F8CC}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>

--- a/docs/my-data-sources.xlsx
+++ b/docs/my-data-sources.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/data/_WORK/map-projects/docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48AD5A31-3814-E040-B606-1790DA572F8B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{706EF42A-0E15-B64E-9472-0F764E9D0597}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4260" yWindow="460" windowWidth="46940" windowHeight="16600" xr2:uid="{3BF390CE-C12E-484B-96AF-096A292A0E54}"/>
   </bookViews>
@@ -55,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="346" uniqueCount="248">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="350" uniqueCount="250">
   <si>
     <t>ZBGIS</t>
   </si>
@@ -799,6 +799,12 @@
   </si>
   <si>
     <t>Code_18=112</t>
+  </si>
+  <si>
+    <t>https://data.humdata.org/dataset/slovakia-high-resolution-population-density-maps-demographic-estimates</t>
+  </si>
+  <si>
+    <t>humdata.org</t>
   </si>
 </sst>
 </file>
@@ -1367,10 +1373,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D145023A-E6CB-0D44-A70A-F13ED2507778}">
-  <dimension ref="A1:H55"/>
+  <dimension ref="A1:H56"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F25" sqref="F25"/>
+      <selection activeCell="A26" sqref="A26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1634,6 +1640,9 @@
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>243</v>
+      </c>
       <c r="B25" t="s">
         <v>245</v>
       </c>
@@ -1644,15 +1653,15 @@
         <v>247</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A27" t="s">
-        <v>37</v>
-      </c>
-      <c r="B27" t="s">
-        <v>54</v>
-      </c>
-      <c r="E27" s="1" t="s">
-        <v>55</v>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>243</v>
+      </c>
+      <c r="B26" t="s">
+        <v>249</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>248</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.2">
@@ -1660,10 +1669,10 @@
         <v>37</v>
       </c>
       <c r="B28" t="s">
-        <v>1</v>
-      </c>
-      <c r="E28" t="s">
-        <v>53</v>
+        <v>54</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.2">
@@ -1671,46 +1680,43 @@
         <v>37</v>
       </c>
       <c r="B29" t="s">
-        <v>39</v>
-      </c>
-      <c r="E29" s="1" t="s">
-        <v>38</v>
+        <v>1</v>
+      </c>
+      <c r="E29" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
+        <v>37</v>
+      </c>
+      <c r="B30" t="s">
+        <v>39</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
         <v>242</v>
       </c>
-      <c r="B30" t="s">
+      <c r="B31" t="s">
         <v>0</v>
       </c>
-      <c r="E30" t="s">
+      <c r="E31" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A32" t="s">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
         <v>40</v>
       </c>
-      <c r="B32" t="s">
+      <c r="B33" t="s">
         <v>42</v>
       </c>
-      <c r="E32" s="1" t="s">
+      <c r="E33" s="1" t="s">
         <v>41</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A34" t="s">
-        <v>56</v>
-      </c>
-      <c r="B34" t="s">
-        <v>228</v>
-      </c>
-      <c r="C34" t="s">
-        <v>229</v>
-      </c>
-      <c r="E34" s="1" t="s">
-        <v>227</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.2">
@@ -1718,15 +1724,24 @@
         <v>56</v>
       </c>
       <c r="B35" t="s">
+        <v>228</v>
+      </c>
+      <c r="C35" t="s">
+        <v>229</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>56</v>
+      </c>
+      <c r="B36" t="s">
         <v>1</v>
       </c>
-      <c r="E35" t="s">
+      <c r="E36" t="s">
         <v>43</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="E36" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.2">
@@ -1735,120 +1750,125 @@
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B38" t="s">
+      <c r="E38" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B39" t="s">
         <v>0</v>
       </c>
-      <c r="D38" t="s">
+      <c r="D39" t="s">
         <v>45</v>
       </c>
-      <c r="E38" s="1" t="s">
+      <c r="E39" s="1" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="D39" t="s">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="D40" t="s">
         <v>48</v>
       </c>
-      <c r="E39" s="1" t="s">
+      <c r="E40" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="H39" s="5" t="s">
+      <c r="H40" s="5" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A43" t="s">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
         <v>50</v>
       </c>
-      <c r="B43" t="s">
+      <c r="B44" t="s">
         <v>51</v>
       </c>
-      <c r="E43" s="1" t="s">
+      <c r="E44" s="1" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A46" t="s">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
         <v>217</v>
       </c>
-      <c r="B46" t="s">
+      <c r="B47" t="s">
         <v>216</v>
       </c>
-      <c r="D46" t="s">
+      <c r="D47" t="s">
         <v>220</v>
       </c>
-      <c r="E46" s="1" t="s">
+      <c r="E47" s="1" t="s">
         <v>215</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B47" t="s">
-        <v>221</v>
-      </c>
-      <c r="D47" t="s">
-        <v>219</v>
-      </c>
-      <c r="E47" s="1" t="s">
-        <v>218</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B48" t="s">
-        <v>223</v>
+        <v>221</v>
+      </c>
+      <c r="D48" t="s">
+        <v>219</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B49" t="s">
-        <v>231</v>
+        <v>223</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>230</v>
+        <v>222</v>
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B50" t="s">
         <v>231</v>
       </c>
-      <c r="D50" t="s">
+      <c r="E50" s="1" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B51" t="s">
+        <v>231</v>
+      </c>
+      <c r="D51" t="s">
         <v>45</v>
       </c>
-      <c r="E50" s="1" t="s">
+      <c r="E51" s="1" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A51" t="s">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
         <v>232</v>
       </c>
-      <c r="B51" t="s">
+      <c r="B52" t="s">
         <v>233</v>
-      </c>
-      <c r="D51" t="s">
-        <v>219</v>
-      </c>
-      <c r="E51" s="1" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B52" t="s">
-        <v>51</v>
       </c>
       <c r="D52" t="s">
         <v>219</v>
       </c>
       <c r="E52" s="1" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B53" t="s">
+        <v>51</v>
+      </c>
+      <c r="D53" t="s">
+        <v>219</v>
+      </c>
+      <c r="E53" s="1" t="s">
         <v>237</v>
       </c>
-      <c r="H52" s="5" t="s">
+      <c r="H53" s="5" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A55" t="s">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A56" t="s">
         <v>239</v>
       </c>
     </row>
@@ -1864,21 +1884,22 @@
     <hyperlink ref="E20" r:id="rId8" xr:uid="{CB258ED5-38B0-1F48-8A6E-BF703B6A4CF7}"/>
     <hyperlink ref="E22" r:id="rId9" xr:uid="{4D494DE6-DB31-E44E-B3CE-04EEF9DC44E0}"/>
     <hyperlink ref="E21" r:id="rId10" xr:uid="{53BE28E0-BC80-1041-9EA9-AB5B6B83EC8E}"/>
-    <hyperlink ref="E29" r:id="rId11" xr:uid="{408A6DAC-F82F-4948-807B-3D199868A8E8}"/>
-    <hyperlink ref="E32" r:id="rId12" xr:uid="{DC132F90-70FB-C243-97B4-1C08022007DB}"/>
-    <hyperlink ref="E38" r:id="rId13" location="geograficky_nazov.shp" xr:uid="{5F00CEA7-69F7-8347-94E1-ED05B74211DD}"/>
-    <hyperlink ref="E43" r:id="rId14" xr:uid="{A7D7477F-0763-CF48-A9CD-37AABE8A49FC}"/>
-    <hyperlink ref="E27" r:id="rId15" xr:uid="{A1F6AAD2-903C-CB4D-9DAE-8F39A874538B}"/>
-    <hyperlink ref="E46" r:id="rId16" xr:uid="{BD650F2F-D669-8949-B506-BA2AC928D4F8}"/>
-    <hyperlink ref="E48" r:id="rId17" xr:uid="{9036DA5E-3194-8940-8064-AE6C7459AAEB}"/>
-    <hyperlink ref="E34" r:id="rId18" xr:uid="{E36F1933-82ED-E247-AC4A-F9F3F9401080}"/>
-    <hyperlink ref="E49" r:id="rId19" display="https://dmr5.tiles.freemap.sk/%7Bz%7D/%7Bx%7D/%7By%7D.png" xr:uid="{EC35D1C4-1C2F-374C-8AD8-D9E2B3414C7B}"/>
-    <hyperlink ref="E51" r:id="rId20" xr:uid="{E40BF318-1C52-144A-95CE-70B8E3B21E69}"/>
+    <hyperlink ref="E30" r:id="rId11" xr:uid="{408A6DAC-F82F-4948-807B-3D199868A8E8}"/>
+    <hyperlink ref="E33" r:id="rId12" xr:uid="{DC132F90-70FB-C243-97B4-1C08022007DB}"/>
+    <hyperlink ref="E39" r:id="rId13" location="geograficky_nazov.shp" xr:uid="{5F00CEA7-69F7-8347-94E1-ED05B74211DD}"/>
+    <hyperlink ref="E44" r:id="rId14" xr:uid="{A7D7477F-0763-CF48-A9CD-37AABE8A49FC}"/>
+    <hyperlink ref="E28" r:id="rId15" xr:uid="{A1F6AAD2-903C-CB4D-9DAE-8F39A874538B}"/>
+    <hyperlink ref="E47" r:id="rId16" xr:uid="{BD650F2F-D669-8949-B506-BA2AC928D4F8}"/>
+    <hyperlink ref="E49" r:id="rId17" xr:uid="{9036DA5E-3194-8940-8064-AE6C7459AAEB}"/>
+    <hyperlink ref="E35" r:id="rId18" xr:uid="{E36F1933-82ED-E247-AC4A-F9F3F9401080}"/>
+    <hyperlink ref="E50" r:id="rId19" display="https://dmr5.tiles.freemap.sk/%7Bz%7D/%7Bx%7D/%7By%7D.png" xr:uid="{EC35D1C4-1C2F-374C-8AD8-D9E2B3414C7B}"/>
+    <hyperlink ref="E52" r:id="rId20" xr:uid="{E40BF318-1C52-144A-95CE-70B8E3B21E69}"/>
     <hyperlink ref="E2" r:id="rId21" xr:uid="{2E0CA0A4-F717-A94C-B19A-435B5A185AB9}"/>
-    <hyperlink ref="E52" r:id="rId22" xr:uid="{6B6DC2B4-A81F-0E4A-9143-BE79059A757D}"/>
-    <hyperlink ref="E50" r:id="rId23" xr:uid="{45458083-27E6-424F-A583-90A5BB0BC36A}"/>
-    <hyperlink ref="E39" r:id="rId24" xr:uid="{3E636B62-42C1-924F-9629-4E95BA02B7D0}"/>
+    <hyperlink ref="E53" r:id="rId22" xr:uid="{6B6DC2B4-A81F-0E4A-9143-BE79059A757D}"/>
+    <hyperlink ref="E51" r:id="rId23" xr:uid="{45458083-27E6-424F-A583-90A5BB0BC36A}"/>
+    <hyperlink ref="E40" r:id="rId24" xr:uid="{3E636B62-42C1-924F-9629-4E95BA02B7D0}"/>
     <hyperlink ref="E24" r:id="rId25" xr:uid="{C55508BF-51C9-B743-8950-8216B1C6F8CC}"/>
+    <hyperlink ref="E26" r:id="rId26" xr:uid="{957C8906-6717-984A-96B0-37CC86BFF7D4}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>

--- a/docs/my-data-sources.xlsx
+++ b/docs/my-data-sources.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11213"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11010"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/data/_WORK/map-projects/docs/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/marcus/workspaces/map-projects/docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{706EF42A-0E15-B64E-9472-0F764E9D0597}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A9A74E0-AFA5-D246-832C-114F72E01A56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4260" yWindow="460" windowWidth="46940" windowHeight="16600" xr2:uid="{3BF390CE-C12E-484B-96AF-096A292A0E54}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16600" xr2:uid="{3BF390CE-C12E-484B-96AF-096A292A0E54}"/>
   </bookViews>
   <sheets>
     <sheet name="sources" sheetId="1" r:id="rId1"/>
@@ -55,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="350" uniqueCount="250">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="361" uniqueCount="256">
   <si>
     <t>ZBGIS</t>
   </si>
@@ -805,6 +805,24 @@
   </si>
   <si>
     <t>humdata.org</t>
+  </si>
+  <si>
+    <t>TMS</t>
+  </si>
+  <si>
+    <t>https://dmr5-light-shading.tiles.freemap.sk/{zoom}/{x}/{y}.jpg</t>
+  </si>
+  <si>
+    <t>Ortho Photo</t>
+  </si>
+  <si>
+    <t>https://ofmozaika.tiles.freemap.sk/{zoom}/{x}/{y}.jpg</t>
+  </si>
+  <si>
+    <t>https://www.geoportal.sk/sk/zbgis/ortofotomozaika/</t>
+  </si>
+  <si>
+    <t>DOWNLOAD</t>
   </si>
 </sst>
 </file>
@@ -1373,10 +1391,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D145023A-E6CB-0D44-A70A-F13ED2507778}">
-  <dimension ref="A1:H56"/>
+  <dimension ref="A1:H59"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A26" sqref="A26"/>
+      <selection activeCell="D60" sqref="D60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1384,7 +1402,7 @@
     <col min="1" max="1" width="29.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="36.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.1640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.33203125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="117.1640625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="43.6640625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="13" bestFit="1" customWidth="1"/>
@@ -1824,6 +1842,9 @@
       <c r="B50" t="s">
         <v>231</v>
       </c>
+      <c r="D50" t="s">
+        <v>250</v>
+      </c>
       <c r="E50" s="1" t="s">
         <v>230</v>
       </c>
@@ -1833,42 +1854,81 @@
         <v>231</v>
       </c>
       <c r="D51" t="s">
+        <v>250</v>
+      </c>
+      <c r="E51" s="1" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B52" t="s">
+        <v>231</v>
+      </c>
+      <c r="D52" t="s">
         <v>45</v>
       </c>
-      <c r="E51" s="1" t="s">
+      <c r="E52" s="1" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A52" t="s">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="E53" s="1"/>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
         <v>232</v>
       </c>
-      <c r="B52" t="s">
+      <c r="B54" t="s">
         <v>233</v>
       </c>
-      <c r="D52" t="s">
+      <c r="D54" t="s">
         <v>219</v>
       </c>
-      <c r="E52" s="1" t="s">
+      <c r="E54" s="1" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B53" t="s">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B55" t="s">
         <v>51</v>
       </c>
-      <c r="D53" t="s">
+      <c r="D55" t="s">
         <v>219</v>
       </c>
-      <c r="E53" s="1" t="s">
+      <c r="E55" s="1" t="s">
         <v>237</v>
       </c>
-      <c r="H53" s="5" t="s">
+      <c r="H55" s="5" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A56" t="s">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A57" t="s">
+        <v>252</v>
+      </c>
+      <c r="B57" t="s">
+        <v>231</v>
+      </c>
+      <c r="D57" t="s">
+        <v>250</v>
+      </c>
+      <c r="E57" s="1" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B58" t="s">
+        <v>0</v>
+      </c>
+      <c r="D58" t="s">
+        <v>255</v>
+      </c>
+      <c r="E58" s="1" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A59" t="s">
         <v>239</v>
       </c>
     </row>
@@ -1893,13 +1953,16 @@
     <hyperlink ref="E49" r:id="rId17" xr:uid="{9036DA5E-3194-8940-8064-AE6C7459AAEB}"/>
     <hyperlink ref="E35" r:id="rId18" xr:uid="{E36F1933-82ED-E247-AC4A-F9F3F9401080}"/>
     <hyperlink ref="E50" r:id="rId19" display="https://dmr5.tiles.freemap.sk/%7Bz%7D/%7Bx%7D/%7By%7D.png" xr:uid="{EC35D1C4-1C2F-374C-8AD8-D9E2B3414C7B}"/>
-    <hyperlink ref="E52" r:id="rId20" xr:uid="{E40BF318-1C52-144A-95CE-70B8E3B21E69}"/>
+    <hyperlink ref="E54" r:id="rId20" xr:uid="{E40BF318-1C52-144A-95CE-70B8E3B21E69}"/>
     <hyperlink ref="E2" r:id="rId21" xr:uid="{2E0CA0A4-F717-A94C-B19A-435B5A185AB9}"/>
-    <hyperlink ref="E53" r:id="rId22" xr:uid="{6B6DC2B4-A81F-0E4A-9143-BE79059A757D}"/>
-    <hyperlink ref="E51" r:id="rId23" xr:uid="{45458083-27E6-424F-A583-90A5BB0BC36A}"/>
+    <hyperlink ref="E55" r:id="rId22" xr:uid="{6B6DC2B4-A81F-0E4A-9143-BE79059A757D}"/>
+    <hyperlink ref="E52" r:id="rId23" xr:uid="{45458083-27E6-424F-A583-90A5BB0BC36A}"/>
     <hyperlink ref="E40" r:id="rId24" xr:uid="{3E636B62-42C1-924F-9629-4E95BA02B7D0}"/>
     <hyperlink ref="E24" r:id="rId25" xr:uid="{C55508BF-51C9-B743-8950-8216B1C6F8CC}"/>
     <hyperlink ref="E26" r:id="rId26" xr:uid="{957C8906-6717-984A-96B0-37CC86BFF7D4}"/>
+    <hyperlink ref="E51" r:id="rId27" xr:uid="{62AAC804-9F32-2044-B534-B36E76FB9728}"/>
+    <hyperlink ref="E57" r:id="rId28" xr:uid="{1FD8E73A-0171-954B-A88D-A8CD8DADDDD3}"/>
+    <hyperlink ref="E58" r:id="rId29" xr:uid="{2E219883-1BD0-4B48-8E5F-FCA1E5C1268A}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
@@ -4069,7 +4132,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD52AA01-B672-3F4C-8C56-5685543A51FA}">
   <dimension ref="A1:E65"/>
   <sheetViews>
-    <sheetView topLeftCell="A51" workbookViewId="0">
+    <sheetView topLeftCell="A26" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
